--- a/data_clean/Mowi 16.12.2020.xlsx
+++ b/data_clean/Mowi 16.12.2020.xlsx
@@ -1584,7 +1584,7 @@
         <v>1.250613495428066</v>
       </c>
       <c r="K2">
-        <v>53.05976761917602</v>
+        <v>0.03059767619175979</v>
       </c>
       <c r="L2">
         <v>0.0007260824838610966</v>
@@ -1614,13 +1614,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.03094535556071892</v>
@@ -1685,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L4">
         <v>-0.02620570955430437</v>
@@ -1756,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9994895354772845</v>
+        <v>-0.0005104645227155258</v>
       </c>
       <c r="V4">
-        <v>0.9994895354772845</v>
+        <v>-0.0005104645227155258</v>
       </c>
       <c r="W4">
-        <v>0.9994425863991082</v>
+        <v>-0.0005574136008917874</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1797,7 +1797,7 @@
         <v>1.095223608153332</v>
       </c>
       <c r="K5">
-        <v>52.27239727021927</v>
+        <v>0.02272397270219262</v>
       </c>
       <c r="L5">
         <v>-0.01420235149425085</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000371436530783</v>
+        <v>0.0003714365307827538</v>
       </c>
       <c r="V5">
-        <v>1.000371436530783</v>
+        <v>0.0003714365307827538</v>
       </c>
       <c r="W5">
-        <v>1.002509760178472</v>
+        <v>0.00250976017847182</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1868,7 +1868,7 @@
         <v>0.8718595847195197</v>
       </c>
       <c r="K6">
-        <v>46.57718943433246</v>
+        <v>-0.03422810565667539</v>
       </c>
       <c r="L6">
         <v>-0.007905449285984006</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000111389585074</v>
+        <v>0.000111389585073729</v>
       </c>
       <c r="V6">
-        <v>1.000111389585074</v>
+        <v>0.000111389585073729</v>
       </c>
       <c r="W6">
-        <v>0.9994436717663422</v>
+        <v>-0.0005563282336578101</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1939,7 +1939,7 @@
         <v>1.515892518953678</v>
       </c>
       <c r="K7">
-        <v>60.25267405239215</v>
+        <v>0.1025267405239215</v>
       </c>
       <c r="L7">
         <v>-0.001905709521345758</v>
@@ -1969,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000352694399584</v>
+        <v>0.0003526943995841858</v>
       </c>
       <c r="V7">
-        <v>1.000352694399584</v>
+        <v>0.0003526943995841858</v>
       </c>
       <c r="W7">
-        <v>1.001669913721124</v>
+        <v>0.001669913721124239</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2010,7 +2010,7 @@
         <v>2.532786625639289</v>
       </c>
       <c r="K8">
-        <v>71.69373341875576</v>
+        <v>0.2169373341875576</v>
       </c>
       <c r="L8">
         <v>0.005273760921075121</v>
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.00060970760544</v>
+        <v>0.0006097076054398798</v>
       </c>
       <c r="V8">
-        <v>1.00060970760544</v>
+        <v>0.0006097076054398798</v>
       </c>
       <c r="W8">
-        <v>1.002500694637399</v>
+        <v>0.002500694637399326</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2081,7 +2081,7 @@
         <v>2.889591575353538</v>
       </c>
       <c r="K9">
-        <v>74.29035978130668</v>
+        <v>0.2429035978130668</v>
       </c>
       <c r="L9">
         <v>0.01194948030777218</v>
@@ -2111,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000561317755524</v>
+        <v>0.0005613177555237048</v>
       </c>
       <c r="V9">
-        <v>1.000561317755524</v>
+        <v>0.0005613177555237048</v>
       </c>
       <c r="W9">
-        <v>1.000831485587583</v>
+        <v>0.0008314855875832805</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2152,7 +2152,7 @@
         <v>1.925394620112388</v>
       </c>
       <c r="K10">
-        <v>65.81657759521066</v>
+        <v>0.1581657759521066</v>
       </c>
       <c r="L10">
         <v>0.01632471318185023</v>
@@ -2182,13 +2182,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U10">
-        <v>1.000312771503041</v>
+        <v>0.0003127715030406542</v>
       </c>
       <c r="V10">
-        <v>1.000312771503041</v>
+        <v>0.0003127715030406542</v>
       </c>
       <c r="W10">
-        <v>0.9988922736084186</v>
+        <v>-0.00110772639158141</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2223,7 +2223,7 @@
         <v>1.192436670093827</v>
       </c>
       <c r="K11">
-        <v>54.38864831807415</v>
+        <v>0.04388648318074151</v>
       </c>
       <c r="L11">
         <v>0.01775260212490527</v>
@@ -2253,13 +2253,13 @@
         <v>0.08374999999998067</v>
       </c>
       <c r="U11">
-        <v>1.000055586436909</v>
+        <v>5.558643690939391E-05</v>
       </c>
       <c r="V11">
-        <v>1.000055586436909</v>
+        <v>5.558643690939391E-05</v>
       </c>
       <c r="W11">
-        <v>0.99805932908234</v>
+        <v>-0.001940670917660037</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2294,7 +2294,7 @@
         <v>0.8875796254124598</v>
       </c>
       <c r="K12">
-        <v>47.02210245665862</v>
+        <v>-0.02977897543341385</v>
       </c>
       <c r="L12">
         <v>0.01665506779235928</v>
@@ -2324,13 +2324,13 @@
         <v>0.1528409090909122</v>
       </c>
       <c r="U12">
-        <v>0.9998938863371079</v>
+        <v>-0.0001061136628921489</v>
       </c>
       <c r="V12">
-        <v>0.9998938863371079</v>
+        <v>-0.0001061136628921489</v>
       </c>
       <c r="W12">
-        <v>0.9983333333333333</v>
+        <v>-0.001666666666666705</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2365,7 +2365,7 @@
         <v>0.7249914535855388</v>
       </c>
       <c r="K13">
-        <v>42.02869829172681</v>
+        <v>-0.07971301708273187</v>
       </c>
       <c r="L13">
         <v>0.01369154103919909</v>
@@ -2395,13 +2395,13 @@
         <v>0.1520833333333371</v>
       </c>
       <c r="U13">
-        <v>0.9997957516339869</v>
+        <v>-0.0002042483660130712</v>
       </c>
       <c r="V13">
-        <v>0.9997957516339869</v>
+        <v>-0.0002042483660130712</v>
       </c>
       <c r="W13">
-        <v>0.9986087924318309</v>
+        <v>-0.001391207568169128</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2436,7 +2436,7 @@
         <v>0.9563786181326919</v>
       </c>
       <c r="K14">
-        <v>48.88514980017152</v>
+        <v>-0.01114850199828482</v>
       </c>
       <c r="L14">
         <v>0.01096392994276769</v>
@@ -2466,13 +2466,13 @@
         <v>0.1725961538461718</v>
       </c>
       <c r="U14">
-        <v>0.9999554482353046</v>
+        <v>-4.455176469542188E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999554482353046</v>
+        <v>-4.455176469542188E-05</v>
       </c>
       <c r="W14">
-        <v>1.001671774867651</v>
+        <v>0.001671774867651132</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2507,7 +2507,7 @@
         <v>1.078161336315404</v>
       </c>
       <c r="K15">
-        <v>51.88054062380895</v>
+        <v>0.01880540623808946</v>
       </c>
       <c r="L15">
         <v>0.008962508323709336</v>
@@ -2537,13 +2537,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U15">
-        <v>1.000021385799829</v>
+        <v>2.138579982902122E-05</v>
       </c>
       <c r="V15">
-        <v>1.000021385799829</v>
+        <v>2.138579982902122E-05</v>
       </c>
       <c r="W15">
-        <v>1.000834492350487</v>
+        <v>0.0008344923504868262</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2578,7 +2578,7 @@
         <v>1.249084449554282</v>
       </c>
       <c r="K16">
-        <v>55.53746324651449</v>
+        <v>0.05537463246514496</v>
       </c>
       <c r="L16">
         <v>0.007982583491975868</v>
@@ -2608,13 +2608,13 @@
         <v>0.1083333333333201</v>
       </c>
       <c r="U16">
-        <v>1.000092669817441</v>
+        <v>9.266981744060487E-05</v>
       </c>
       <c r="V16">
-        <v>1.000092669817441</v>
+        <v>9.266981744060487E-05</v>
       </c>
       <c r="W16">
-        <v>1.001111728738188</v>
+        <v>0.001111728738187878</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2649,7 +2649,7 @@
         <v>1.100573792480653</v>
       </c>
       <c r="K17">
-        <v>52.39395999418524</v>
+        <v>0.02393959994185246</v>
       </c>
       <c r="L17">
         <v>0.007201162430233121</v>
@@ -2679,13 +2679,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U17">
-        <v>1.000028956634544</v>
+        <v>2.895663454394182E-05</v>
       </c>
       <c r="V17">
-        <v>1.000074128984433</v>
+        <v>7.412898443281968E-05</v>
       </c>
       <c r="W17">
-        <v>0.9991671293725708</v>
+        <v>-0.0008328706274292053</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2720,7 +2720,7 @@
         <v>1.22572706574549</v>
       </c>
       <c r="K18">
-        <v>55.07086132031836</v>
+        <v>0.05070861320318365</v>
       </c>
       <c r="L18">
         <v>0.006919064408935615</v>
@@ -2750,13 +2750,13 @@
         <v>-0.02500000000003411</v>
       </c>
       <c r="U18">
-        <v>1.000074603756964</v>
+        <v>7.460375696366484E-05</v>
       </c>
       <c r="V18">
-        <v>1.000259432214069</v>
+        <v>0.0002594322140687666</v>
       </c>
       <c r="W18">
-        <v>1.000833564879133</v>
+        <v>0.0008335648791331085</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2791,7 +2791,7 @@
         <v>0.8027231506661959</v>
       </c>
       <c r="K19">
-        <v>44.52836534381609</v>
+        <v>-0.0547163465618391</v>
       </c>
       <c r="L19">
         <v>0.00548527785929928</v>
@@ -2821,13 +2821,13 @@
         <v>-0.09375000000002842</v>
       </c>
       <c r="U19">
-        <v>0.9998810062330934</v>
+        <v>-0.0001189937669066055</v>
       </c>
       <c r="V19">
-        <v>1.000074104264701</v>
+        <v>7.410426470055853E-05</v>
       </c>
       <c r="W19">
-        <v>0.9966685174902832</v>
+        <v>-0.003331482509716821</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2862,7 +2862,7 @@
         <v>0.8329954744345742</v>
       </c>
       <c r="K20">
-        <v>45.44449160146067</v>
+        <v>-0.04555508398539332</v>
       </c>
       <c r="L20">
         <v>0.003612456535039709</v>
@@ -2892,13 +2892,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U20">
-        <v>0.9999081501687841</v>
+        <v>-9.184983121590662E-05</v>
       </c>
       <c r="V20">
-        <v>0.9999259012263346</v>
+        <v>-7.409877366537643E-05</v>
       </c>
       <c r="W20">
-        <v>1.000278551532034</v>
+        <v>0.0002785515320335996</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2933,7 +2933,7 @@
         <v>0.992323494268108</v>
       </c>
       <c r="K21">
-        <v>49.8073479092633</v>
+        <v>-0.001926520907367002</v>
       </c>
       <c r="L21">
         <v>0.002178853839630653</v>
@@ -2963,13 +2963,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U21">
-        <v>0.999986830938515</v>
+        <v>-1.316906148496333E-05</v>
       </c>
       <c r="V21">
-        <v>1.000055578198525</v>
+        <v>5.557819852519685E-05</v>
       </c>
       <c r="W21">
-        <v>1.001392369813422</v>
+        <v>0.001392369813422389</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3004,7 +3004,7 @@
         <v>0.826071316816008</v>
       </c>
       <c r="K22">
-        <v>45.23762622022728</v>
+        <v>-0.04762373779772722</v>
       </c>
       <c r="L22">
         <v>0.0004235980350470757</v>
@@ -3034,13 +3034,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U22">
-        <v>0.9999086514975196</v>
+        <v>-9.134850248038173E-05</v>
       </c>
       <c r="V22">
-        <v>0.9998332746707175</v>
+        <v>-0.0001667253292825244</v>
       </c>
       <c r="W22">
-        <v>0.9983314794215795</v>
+        <v>-0.001668520578420485</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3075,7 +3075,7 @@
         <v>0.7391669241253565</v>
       </c>
       <c r="K23">
-        <v>42.50120640358259</v>
+        <v>-0.07498793596417408</v>
       </c>
       <c r="L23">
         <v>-0.001832090111831922</v>
@@ -3105,13 +3105,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U23">
-        <v>0.9998663951237831</v>
+        <v>-0.0001336048762169417</v>
       </c>
       <c r="V23">
-        <v>0.9995923812347144</v>
+        <v>-0.0004076187652856111</v>
       </c>
       <c r="W23">
-        <v>0.9988857938718664</v>
+        <v>-0.001114206128133621</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3146,7 +3146,7 @@
         <v>0.7192545426775561</v>
       </c>
       <c r="K24">
-        <v>41.83525620106222</v>
+        <v>-0.08164743798937785</v>
       </c>
       <c r="L24">
         <v>-0.004322391307453106</v>
@@ -3176,13 +3176,13 @@
         <v>-0.1781249999999943</v>
       </c>
       <c r="U24">
-        <v>0.9998659062156867</v>
+        <v>-0.0001340937843132828</v>
       </c>
       <c r="V24">
-        <v>0.9995180722891565</v>
+        <v>-0.0004819277108435438</v>
       </c>
       <c r="W24">
-        <v>0.9997211377579475</v>
+        <v>-0.0002788622420525355</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3217,7 +3217,7 @@
         <v>0.7192545426775561</v>
       </c>
       <c r="K25">
-        <v>41.83525620106222</v>
+        <v>-0.08164743798937785</v>
       </c>
       <c r="L25">
         <v>-0.006762560508064729</v>
@@ -3247,13 +3247,13 @@
         <v>-0.1843749999999886</v>
       </c>
       <c r="U25">
-        <v>0.9998770642127877</v>
+        <v>-0.0001229357872123416</v>
       </c>
       <c r="V25">
-        <v>0.9995920183962614</v>
+        <v>-0.0004079816037385608</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3288,7 +3288,7 @@
         <v>0.7789530487428283</v>
       </c>
       <c r="K26">
-        <v>43.7871617406265</v>
+        <v>-0.06212838259373499</v>
       </c>
       <c r="L26">
         <v>-0.008770151394345942</v>
@@ -3318,13 +3318,13 @@
         <v>-0.2156250000000171</v>
       </c>
       <c r="U26">
-        <v>0.999909137267628</v>
+        <v>-9.086273237202125E-05</v>
       </c>
       <c r="V26">
-        <v>0.9997588215650628</v>
+        <v>-0.0002411784349372059</v>
       </c>
       <c r="W26">
-        <v>1.000557880055788</v>
+        <v>0.0005578800557879404</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3359,7 +3359,7 @@
         <v>0.8103733150929805</v>
       </c>
       <c r="K27">
-        <v>44.76277397246986</v>
+        <v>-0.0523722602753014</v>
       </c>
       <c r="L27">
         <v>-0.01024917689796081</v>
@@ -3389,13 +3389,13 @@
         <v>-0.1906249999999829</v>
       </c>
       <c r="U27">
-        <v>0.9999268181829852</v>
+        <v>-7.318181701476689E-05</v>
       </c>
       <c r="V27">
-        <v>0.9998886600233812</v>
+        <v>-0.0001113399766188294</v>
       </c>
       <c r="W27">
-        <v>1.000278784499582</v>
+        <v>0.0002787844995819633</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3430,7 +3430,7 @@
         <v>1.041891067146677</v>
       </c>
       <c r="K28">
-        <v>51.02579094009201</v>
+        <v>0.01025790940092008</v>
       </c>
       <c r="L28">
         <v>-0.01054501454678799</v>
@@ -3460,13 +3460,13 @@
         <v>-0.1687499999999602</v>
       </c>
       <c r="U28">
-        <v>1.00000435921</v>
+        <v>4.359210000082214E-06</v>
       </c>
       <c r="V28">
-        <v>1.000111352374589</v>
+        <v>0.0001113523745894796</v>
       </c>
       <c r="W28">
-        <v>1.001950947603121</v>
+        <v>0.001950947603121422</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3501,7 +3501,7 @@
         <v>1.285593964045306</v>
       </c>
       <c r="K29">
-        <v>56.24769684681502</v>
+        <v>0.06247696846815021</v>
       </c>
       <c r="L29">
         <v>-0.009348681179424287</v>
@@ -3531,13 +3531,13 @@
         <v>-0.1718750000000284</v>
       </c>
       <c r="U29">
-        <v>1.000073596731128</v>
+        <v>7.359673112783405E-05</v>
       </c>
       <c r="V29">
-        <v>1.000129896639388</v>
+        <v>0.0001298966393883383</v>
       </c>
       <c r="W29">
-        <v>1.001947148817802</v>
+        <v>0.001947148817802447</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3572,7 +3572,7 @@
         <v>1.395535120540934</v>
       </c>
       <c r="K30">
-        <v>58.25567358936524</v>
+        <v>0.08255673589365242</v>
       </c>
       <c r="L30">
         <v>-0.006994447697287355</v>
@@ -3602,13 +3602,13 @@
         <v>-0.1093750000000284</v>
       </c>
       <c r="U30">
-        <v>1.000097292793756</v>
+        <v>9.729279375569888E-05</v>
       </c>
       <c r="V30">
-        <v>1.000129879768443</v>
+        <v>0.0001298797684430308</v>
       </c>
       <c r="W30">
-        <v>1.000832870627429</v>
+        <v>0.0008328706274292053</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3643,7 +3643,7 @@
         <v>1.295579011843708</v>
       </c>
       <c r="K31">
-        <v>56.43800562556791</v>
+        <v>0.06438005625567911</v>
       </c>
       <c r="L31">
         <v>-0.004282171900542952</v>
@@ -3673,13 +3673,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U31">
-        <v>1.000072254566265</v>
+        <v>7.225456626480664E-05</v>
       </c>
       <c r="V31">
-        <v>1.000018551843125</v>
+        <v>1.855184312549163E-05</v>
       </c>
       <c r="W31">
-        <v>0.9994452149791956</v>
+        <v>-0.0005547850208044158</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3714,7 +3714,7 @@
         <v>1.204746633434853</v>
       </c>
       <c r="K32">
-        <v>54.64331434573665</v>
+        <v>0.04643314345736649</v>
       </c>
       <c r="L32">
         <v>-0.00172207737552067</v>
@@ -3744,13 +3744,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U32">
-        <v>1.000055625602611</v>
+        <v>5.562560261074267E-05</v>
       </c>
       <c r="V32">
-        <v>1.000037102997922</v>
+        <v>3.710299792225591E-05</v>
       </c>
       <c r="W32">
-        <v>0.9994449070219262</v>
+        <v>-0.0005550929780737679</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3785,7 +3785,7 @@
         <v>1.204746633434853</v>
       </c>
       <c r="K33">
-        <v>54.64331434573665</v>
+        <v>0.04643314345736649</v>
       </c>
       <c r="L33">
         <v>0.0005868799782184397</v>
@@ -3815,13 +3815,13 @@
         <v>0.1781249999999659</v>
       </c>
       <c r="U33">
-        <v>1.000120515435246</v>
+        <v>0.0001205154352461602</v>
       </c>
       <c r="V33">
-        <v>0.9999814491893296</v>
+        <v>-1.855081067037023E-05</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3856,7 +3856,7 @@
         <v>0.9770453202150061</v>
       </c>
       <c r="K34">
-        <v>49.41947006600492</v>
+        <v>-0.005805299339950831</v>
       </c>
       <c r="L34">
         <v>0.001978004731938894</v>
@@ -3886,13 +3886,13 @@
         <v>0.25</v>
       </c>
       <c r="U34">
-        <v>1.000083423709018</v>
+        <v>8.342370901814888E-05</v>
       </c>
       <c r="V34">
-        <v>1.000092755774047</v>
+        <v>9.275577404688207E-05</v>
       </c>
       <c r="W34">
-        <v>0.9983337961677311</v>
+        <v>-0.001666203832268898</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3927,7 +3927,7 @@
         <v>0.8380953676567845</v>
       </c>
       <c r="K35">
-        <v>45.59585875705643</v>
+        <v>-0.04404141242943566</v>
       </c>
       <c r="L35">
         <v>0.002207995700402005</v>
@@ -3957,13 +3957,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U35">
-        <v>0.9999536573610647</v>
+        <v>-4.634263893532609E-05</v>
       </c>
       <c r="V35">
-        <v>0.9999814505657579</v>
+        <v>-1.854943424206557E-05</v>
       </c>
       <c r="W35">
-        <v>0.9986091794158554</v>
+        <v>-0.001390820584144636</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3998,7 +3998,7 @@
         <v>0.6928817771461098</v>
       </c>
       <c r="K36">
-        <v>40.92912963563127</v>
+        <v>-0.09070870364368733</v>
       </c>
       <c r="L36">
         <v>0.001000443323175627</v>
@@ -4028,13 +4028,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U36">
-        <v>0.99990731042665</v>
+        <v>-9.268957334995775E-05</v>
       </c>
       <c r="V36">
-        <v>0.999758852881708</v>
+        <v>-0.0002411471182920399</v>
       </c>
       <c r="W36">
-        <v>0.998050139275766</v>
+        <v>-0.001949860724233976</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4069,7 +4069,7 @@
         <v>0.599207440537498</v>
       </c>
       <c r="K37">
-        <v>37.46902530269011</v>
+        <v>-0.1253097469730989</v>
       </c>
       <c r="L37">
         <v>-0.001611937842488348</v>
@@ -4099,13 +4099,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U37">
-        <v>0.9997960640358927</v>
+        <v>-0.0002039359641072824</v>
       </c>
       <c r="V37">
-        <v>0.9997587947157489</v>
+        <v>-0.0002412052842510892</v>
       </c>
       <c r="W37">
-        <v>0.9983254256209879</v>
+        <v>-0.001674574379012084</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4140,7 +4140,7 @@
         <v>0.5720701840239161</v>
       </c>
       <c r="K38">
-        <v>36.38960841809421</v>
+        <v>-0.1361039158190579</v>
       </c>
       <c r="L38">
         <v>-0.005102123371001373</v>
@@ -4170,13 +4170,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U38">
-        <v>0.9996940336562979</v>
+        <v>-0.0003059663437020577</v>
       </c>
       <c r="V38">
-        <v>0.9997958539799194</v>
+        <v>-0.0002041460200805645</v>
       </c>
       <c r="W38">
-        <v>0.9994408722393067</v>
+        <v>-0.0005591277606933343</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4211,7 +4211,7 @@
         <v>0.5460392930762055</v>
       </c>
       <c r="K39">
-        <v>35.31859090008851</v>
+        <v>-0.1468140909991149</v>
       </c>
       <c r="L39">
         <v>-0.009083694421713081</v>
@@ -4241,13 +4241,13 @@
         <v>-0.171875</v>
       </c>
       <c r="U39">
-        <v>0.9996475672868245</v>
+        <v>-0.0003524327131755323</v>
       </c>
       <c r="V39">
-        <v>0.9997772497772497</v>
+        <v>-0.000222750222750312</v>
       </c>
       <c r="W39">
-        <v>0.9994405594405594</v>
+        <v>-0.0005594405594405716</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4282,7 +4282,7 @@
         <v>0.5210806450581007</v>
       </c>
       <c r="K40">
-        <v>34.25726615817908</v>
+        <v>-0.1574273384182092</v>
       </c>
       <c r="L40">
         <v>-0.01327785595231739</v>
@@ -4312,13 +4312,13 @@
         <v>-0.3156250000000114</v>
       </c>
       <c r="U40">
-        <v>0.9996659986639946</v>
+        <v>-0.0003340013360053629</v>
       </c>
       <c r="V40">
-        <v>0.9997400668399555</v>
+        <v>-0.0002599331600444676</v>
       </c>
       <c r="W40">
-        <v>0.9994402462916318</v>
+        <v>-0.0005597537083682491</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4353,7 +4353,7 @@
         <v>0.5088394357986318</v>
       </c>
       <c r="K41">
-        <v>33.72389558000266</v>
+        <v>-0.1627610441999734</v>
       </c>
       <c r="L41">
         <v>-0.01738600542908142</v>
@@ -4383,13 +4383,13 @@
         <v>-0.4625000000000057</v>
       </c>
       <c r="U41">
-        <v>0.9997215725581914</v>
+        <v>-0.0002784274418086152</v>
       </c>
       <c r="V41">
-        <v>0.9996842848122421</v>
+        <v>-0.000315715187757859</v>
       </c>
       <c r="W41">
-        <v>0.9997199663959675</v>
+        <v>-0.0002800336040325035</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4424,7 +4424,7 @@
         <v>0.4848598333759238</v>
       </c>
       <c r="K42">
-        <v>32.65357594551965</v>
+        <v>-0.1734642405448035</v>
       </c>
       <c r="L42">
         <v>-0.02132016629922585</v>
@@ -4454,13 +4454,13 @@
         <v>-0.5718749999999773</v>
       </c>
       <c r="U42">
-        <v>0.9997586290127926</v>
+        <v>-0.0002413709872074454</v>
       </c>
       <c r="V42">
-        <v>0.9996284530643336</v>
+        <v>-0.0003715469356664336</v>
       </c>
       <c r="W42">
-        <v>0.9994397759103641</v>
+        <v>-0.0005602240896358524</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4495,7 +4495,7 @@
         <v>0.4731248263911019</v>
       </c>
       <c r="K43">
-        <v>32.11709000588735</v>
+        <v>-0.1788290999411265</v>
       </c>
       <c r="L43">
         <v>-0.02492253048764878</v>
@@ -4525,13 +4525,13 @@
         <v>-0.6500000000000057</v>
       </c>
       <c r="U43">
-        <v>0.9997957137020391</v>
+        <v>-0.0002042862979608762</v>
       </c>
       <c r="V43">
-        <v>0.9994796409522571</v>
+        <v>-0.0005203590477429465</v>
       </c>
       <c r="W43">
-        <v>0.999719730941704</v>
+        <v>-0.0002802690582960343</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4566,7 +4566,7 @@
         <v>0.549554990828822</v>
       </c>
       <c r="K44">
-        <v>35.46534289401872</v>
+        <v>-0.1453465710598128</v>
       </c>
       <c r="L44">
         <v>-0.02769936727923482</v>
@@ -4596,13 +4596,13 @@
         <v>-0.6531250000000171</v>
       </c>
       <c r="U44">
-        <v>0.9997678090461596</v>
+        <v>-0.0002321909538404165</v>
       </c>
       <c r="V44">
-        <v>0.9994049943288521</v>
+        <v>-0.0005950056711478968</v>
       </c>
       <c r="W44">
-        <v>1.000841042893188</v>
+        <v>0.000841042893187538</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4637,7 +4637,7 @@
         <v>0.5215799445619564</v>
       </c>
       <c r="K45">
-        <v>34.27883933578742</v>
+        <v>-0.1572116066421257</v>
       </c>
       <c r="L45">
         <v>-0.02990228542212879</v>
@@ -4667,13 +4667,13 @@
         <v>-0.6031249999999773</v>
       </c>
       <c r="U45">
-        <v>0.9997213061451994</v>
+        <v>-0.0002786938548006157</v>
       </c>
       <c r="V45">
-        <v>0.9993116150998158</v>
+        <v>-0.0006883849001841913</v>
       </c>
       <c r="W45">
-        <v>0.9994397759103641</v>
+        <v>-0.0005602240896358524</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4708,7 +4708,7 @@
         <v>0.4710936708955021</v>
       </c>
       <c r="K46">
-        <v>32.02336331232614</v>
+        <v>-0.1797663668767386</v>
       </c>
       <c r="L46">
         <v>-0.03191542069017172</v>
@@ -4738,13 +4738,13 @@
         <v>-0.5437499999999602</v>
       </c>
       <c r="U46">
-        <v>0.999646889374158</v>
+        <v>-0.0003531106258419792</v>
       </c>
       <c r="V46">
-        <v>0.9992739052725648</v>
+        <v>-0.0007260947274352336</v>
       </c>
       <c r="W46">
-        <v>0.9988789237668161</v>
+        <v>-0.001121076233183915</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4779,7 +4779,7 @@
         <v>0.4965660105237677</v>
       </c>
       <c r="K47">
-        <v>33.1803613761066</v>
+        <v>-0.168196386238934</v>
       </c>
       <c r="L47">
         <v>-0.03346829569029174</v>
@@ -4809,13 +4809,13 @@
         <v>-0.4749999999999943</v>
       </c>
       <c r="U47">
-        <v>0.9996839473121578</v>
+        <v>-0.0003160526878421832</v>
       </c>
       <c r="V47">
-        <v>0.9993292717008552</v>
+        <v>-0.0006707282991448293</v>
       </c>
       <c r="W47">
-        <v>1.000280583613917</v>
+        <v>0.0002805836139170292</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4850,7 +4850,7 @@
         <v>0.5501919886885221</v>
       </c>
       <c r="K48">
-        <v>35.49186118256165</v>
+        <v>-0.1450813881743835</v>
       </c>
       <c r="L48">
         <v>-0.03431899317146375</v>
@@ -4880,13 +4880,13 @@
         <v>-0.3937499999999829</v>
       </c>
       <c r="U48">
-        <v>0.999674548785137</v>
+        <v>-0.0003254512148630484</v>
       </c>
       <c r="V48">
-        <v>0.9993661092156533</v>
+        <v>-0.0006338907843467245</v>
       </c>
       <c r="W48">
-        <v>1.000561009817672</v>
+        <v>0.0005610098176718203</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4921,7 +4921,7 @@
         <v>0.9735549741997651</v>
       </c>
       <c r="K49">
-        <v>49.33001547598243</v>
+        <v>-0.006699845240175695</v>
       </c>
       <c r="L49">
         <v>-0.03304088747477908</v>
@@ -4951,13 +4951,13 @@
         <v>-0.2593750000000057</v>
       </c>
       <c r="U49">
-        <v>0.9999255869330655</v>
+        <v>-7.441306693445338E-05</v>
       </c>
       <c r="V49">
-        <v>0.9997574762606571</v>
+        <v>-0.0002425237393428592</v>
       </c>
       <c r="W49">
-        <v>1.004205214465938</v>
+        <v>0.00420521446593769</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4992,7 +4992,7 @@
         <v>0.70230615888728</v>
       </c>
       <c r="K50">
-        <v>41.25616036931603</v>
+        <v>-0.08743839630683969</v>
       </c>
       <c r="L50">
         <v>-0.031755049793044</v>
@@ -5022,13 +5022,13 @@
         <v>-0.171875</v>
       </c>
       <c r="U50">
-        <v>0.9997953488372093</v>
+        <v>-0.00020465116279067</v>
       </c>
       <c r="V50">
-        <v>0.99960813584624</v>
+        <v>-0.0003918641537600243</v>
       </c>
       <c r="W50">
-        <v>0.9963707426018984</v>
+        <v>-0.003629257398101604</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5063,7 +5063,7 @@
         <v>0.6577869997314594</v>
       </c>
       <c r="K51">
-        <v>39.67861974053437</v>
+        <v>-0.1032138025946563</v>
       </c>
       <c r="L51">
         <v>-0.03073607079914769</v>
@@ -5093,13 +5093,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U51">
-        <v>0.9997208731089154</v>
+        <v>-0.0002791268910845579</v>
       </c>
       <c r="V51">
-        <v>0.9996826522802368</v>
+        <v>-0.0003173477197632169</v>
       </c>
       <c r="W51">
-        <v>0.9991594284113198</v>
+        <v>-0.0008405715886802279</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5134,7 +5134,7 @@
         <v>0.7245132731701664</v>
       </c>
       <c r="K52">
-        <v>42.01262376127128</v>
+        <v>-0.07987376238728722</v>
       </c>
       <c r="L52">
         <v>-0.02952703006784632</v>
@@ -5164,13 +5164,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U52">
-        <v>0.9998045566227385</v>
+        <v>-0.0001954433772615172</v>
       </c>
       <c r="V52">
-        <v>0.9998506124887958</v>
+        <v>-0.0001493875112041909</v>
       </c>
       <c r="W52">
-        <v>1.00084127874369</v>
+        <v>0.0008412787436902214</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5205,7 +5205,7 @@
         <v>0.7245132731701664</v>
       </c>
       <c r="K53">
-        <v>42.01262376127128</v>
+        <v>-0.07987376238728722</v>
       </c>
       <c r="L53">
         <v>-0.02817243237287945</v>
@@ -5235,13 +5235,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U53">
-        <v>0.9998417530043657</v>
+        <v>-0.0001582469956342702</v>
       </c>
       <c r="V53">
-        <v>0.9998879426266247</v>
+        <v>-0.0001120573733752739</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5276,7 +5276,7 @@
         <v>0.7070871276396531</v>
       </c>
       <c r="K54">
-        <v>41.42068182643523</v>
+        <v>-0.08579318173564765</v>
       </c>
       <c r="L54">
         <v>-0.02681516446411315</v>
@@ -5306,13 +5306,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U54">
-        <v>0.9998417279582906</v>
+        <v>-0.000158272041709373</v>
       </c>
       <c r="V54">
-        <v>0.9999066083903023</v>
+        <v>-9.339160969767946E-05</v>
       </c>
       <c r="W54">
-        <v>0.99971980947044</v>
+        <v>-0.0002801905295599649</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5347,7 +5347,7 @@
         <v>0.7577233596150683</v>
       </c>
       <c r="K55">
-        <v>43.10822607381207</v>
+        <v>-0.06891773926187933</v>
       </c>
       <c r="L55">
         <v>-0.02524167866209988</v>
@@ -5377,13 +5377,13 @@
         <v>0.05312500000002274</v>
       </c>
       <c r="U55">
-        <v>0.9998603260920171</v>
+        <v>-0.0001396739079828624</v>
       </c>
       <c r="V55">
-        <v>0.999981319933499</v>
+        <v>-1.868006650096454E-05</v>
       </c>
       <c r="W55">
-        <v>1.000560538116592</v>
+        <v>0.0005605381165918466</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5418,7 +5418,7 @@
         <v>0.784374008023189</v>
       </c>
       <c r="K56">
-        <v>43.95793732123202</v>
+        <v>-0.06042062678767984</v>
       </c>
       <c r="L56">
         <v>-0.02344367952196629</v>
@@ -5448,13 +5448,13 @@
         <v>0.078125</v>
       </c>
       <c r="U56">
-        <v>0.9998509936858573</v>
+        <v>-0.0001490063141427189</v>
       </c>
       <c r="V56">
-        <v>1.000018680415452</v>
+        <v>1.868041545249888E-05</v>
       </c>
       <c r="W56">
-        <v>1.000280112044818</v>
+        <v>0.0002801120448179262</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5489,7 +5489,7 @@
         <v>0.7629701662888217</v>
       </c>
       <c r="K57">
-        <v>43.2775426877999</v>
+        <v>-0.06722457312200097</v>
       </c>
       <c r="L57">
         <v>-0.02164052994528114</v>
@@ -5519,13 +5519,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U57">
-        <v>0.9998323429146254</v>
+        <v>-0.000167657085374584</v>
       </c>
       <c r="V57">
-        <v>1.000037360133002</v>
+        <v>3.736013300192909E-05</v>
       </c>
       <c r="W57">
-        <v>0.9997199663959675</v>
+        <v>-0.0002800336040325035</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5560,7 +5560,7 @@
         <v>0.7416665360327601</v>
       </c>
       <c r="K58">
-        <v>42.58372775090223</v>
+        <v>-0.07416272249097766</v>
       </c>
       <c r="L58">
         <v>-0.01997213478408356</v>
@@ -5590,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="U58">
-        <v>0.9997577880459085</v>
+        <v>-0.0002422119540914647</v>
       </c>
       <c r="V58">
-        <v>1.000037358737275</v>
+        <v>3.735873727461758E-05</v>
       </c>
       <c r="W58">
-        <v>0.999719887955182</v>
+        <v>-0.0002801120448180372</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5631,7 +5631,7 @@
         <v>0.7204902136293205</v>
       </c>
       <c r="K59">
-        <v>41.87703062311926</v>
+        <v>-0.0812296937688074</v>
       </c>
       <c r="L59">
         <v>-0.01852082790652644</v>
@@ -5661,13 +5661,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U59">
-        <v>0.9996831845543152</v>
+        <v>-0.0003168154456848482</v>
       </c>
       <c r="V59">
-        <v>0.9999626426583484</v>
+        <v>-3.735734165155602E-05</v>
       </c>
       <c r="W59">
-        <v>0.99971980947044</v>
+        <v>-0.0002801905295599649</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5702,7 +5702,7 @@
         <v>0.6608999603292308</v>
       </c>
       <c r="K60">
-        <v>39.7916777719848</v>
+        <v>-0.102083222280152</v>
       </c>
       <c r="L60">
         <v>-0.01753171960630468</v>
@@ -5732,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>0.9996271578240929</v>
+        <v>-0.000372842175907051</v>
       </c>
       <c r="V60">
-        <v>0.9999439618940881</v>
+        <v>-5.603810591192637E-05</v>
       </c>
       <c r="W60">
-        <v>0.9991591928251121</v>
+        <v>-0.0008408071748878809</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5773,7 +5773,7 @@
         <v>0.7769812639279184</v>
       </c>
       <c r="K61">
-        <v>43.72478650734023</v>
+        <v>-0.06275213492659765</v>
       </c>
       <c r="L61">
         <v>-0.01641453677929167</v>
@@ -5803,13 +5803,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U61">
-        <v>0.9996829659468131</v>
+        <v>-0.0003170340531869487</v>
       </c>
       <c r="V61">
-        <v>1.000093402077262</v>
+        <v>9.34020772620503E-05</v>
       </c>
       <c r="W61">
-        <v>1.001122019635344</v>
+        <v>0.001122019635343641</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5844,7 +5844,7 @@
         <v>0.8380766868746135</v>
       </c>
       <c r="K62">
-        <v>45.59530583566908</v>
+        <v>-0.04404694164330919</v>
       </c>
       <c r="L62">
         <v>-0.01502735871923097</v>
@@ -5874,13 +5874,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U62">
-        <v>0.9997201753567764</v>
+        <v>-0.0002798246432236251</v>
       </c>
       <c r="V62">
-        <v>1.000112072024955</v>
+        <v>0.0001120720249547791</v>
       </c>
       <c r="W62">
-        <v>1.00056038105912</v>
+        <v>0.0005603810591203739</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5915,7 +5915,7 @@
         <v>0.7425663589465683</v>
       </c>
       <c r="K63">
-        <v>42.61337625015733</v>
+        <v>-0.07386623749842669</v>
       </c>
       <c r="L63">
         <v>-0.01391775112267976</v>
@@ -5945,13 +5945,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U63">
-        <v>0.9996827766374324</v>
+        <v>-0.0003172233625675647</v>
       </c>
       <c r="V63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>0.99887986558387</v>
+        <v>-0.001120134416130014</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5986,7 +5986,7 @@
         <v>0.8925186080474198</v>
       </c>
       <c r="K64">
-        <v>47.16036102642413</v>
+        <v>-0.02839638973575864</v>
       </c>
       <c r="L64">
         <v>-0.01248684261017104</v>
@@ -6016,13 +6016,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U64">
-        <v>0.9997853396300374</v>
+        <v>-0.0002146603699626493</v>
       </c>
       <c r="V64">
-        <v>0.9998132342229609</v>
+        <v>-0.0001867657770391329</v>
       </c>
       <c r="W64">
-        <v>1.001401738155313</v>
+        <v>0.001401738155312637</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6057,7 +6057,7 @@
         <v>0.770844987442094</v>
       </c>
       <c r="K65">
-        <v>43.52978340332007</v>
+        <v>-0.06470216596679934</v>
       </c>
       <c r="L65">
         <v>-0.01141646782966957</v>
@@ -6087,13 +6087,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U65">
-        <v>0.9997852935410696</v>
+        <v>-0.0002147064589304026</v>
       </c>
       <c r="V65">
-        <v>0.9999626398669981</v>
+        <v>-3.736013300192909E-05</v>
       </c>
       <c r="W65">
-        <v>0.9986002239641657</v>
+        <v>-0.001399776035834299</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6128,7 +6128,7 @@
         <v>0.6576045358038539</v>
       </c>
       <c r="K66">
-        <v>39.67197975148814</v>
+        <v>-0.1032802024851186</v>
       </c>
       <c r="L66">
         <v>-0.0112028422589987</v>
@@ -6158,13 +6158,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U66">
-        <v>0.9997945845004669</v>
+        <v>-0.0002054154995331237</v>
       </c>
       <c r="V66">
-        <v>0.9999065961779156</v>
+        <v>-9.340382208444797E-05</v>
       </c>
       <c r="W66">
-        <v>0.998317914213625</v>
+        <v>-0.001682085786374965</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6199,7 +6199,7 @@
         <v>0.6410821273640379</v>
       </c>
       <c r="K67">
-        <v>39.06459747957684</v>
+        <v>-0.1093540252042316</v>
       </c>
       <c r="L67">
         <v>-0.01158329944573157</v>
@@ -6229,13 +6229,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U67">
-        <v>0.9998412372289359</v>
+        <v>-0.0001587627710640804</v>
       </c>
       <c r="V67">
-        <v>0.999831857415088</v>
+        <v>-0.0001681425849120455</v>
       </c>
       <c r="W67">
-        <v>0.9997191800056163</v>
+        <v>-0.0002808199943836742</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6270,7 +6270,7 @@
         <v>0.6088756271352926</v>
       </c>
       <c r="K68">
-        <v>37.84479153428629</v>
+        <v>-0.1215520846571371</v>
       </c>
       <c r="L68">
         <v>-0.0124614336216995</v>
@@ -6300,13 +6300,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U68">
-        <v>0.9998412120193161</v>
+        <v>-0.0001587879806839165</v>
       </c>
       <c r="V68">
-        <v>0.9997944578358281</v>
+        <v>-0.0002055421641719013</v>
       </c>
       <c r="W68">
-        <v>0.999438202247191</v>
+        <v>-0.0005617977528089568</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6341,7 +6341,7 @@
         <v>0.6353165289644683</v>
       </c>
       <c r="K69">
-        <v>38.84975891283688</v>
+        <v>-0.1115024108716312</v>
       </c>
       <c r="L69">
         <v>-0.01343811085856965</v>
@@ -6371,13 +6371,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U69">
-        <v>0.9998692126602144</v>
+        <v>-0.0001307873397855541</v>
       </c>
       <c r="V69">
-        <v>0.9998317945650953</v>
+        <v>-0.0001682054349047002</v>
       </c>
       <c r="W69">
-        <v>1.000281056773468</v>
+        <v>0.0002810567734681246</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6412,7 +6412,7 @@
         <v>0.6353165289644683</v>
       </c>
       <c r="K70">
-        <v>38.84975891283688</v>
+        <v>-0.1115024108716312</v>
       </c>
       <c r="L70">
         <v>-0.01436359484348034</v>
@@ -6442,13 +6442,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U70">
-        <v>0.9998878819022703</v>
+        <v>-0.0001121180977297076</v>
       </c>
       <c r="V70">
-        <v>0.999794380993327</v>
+        <v>-0.0002056190066730412</v>
       </c>
       <c r="W70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6483,7 +6483,7 @@
         <v>0.6001508142554748</v>
       </c>
       <c r="K71">
-        <v>37.50589062661044</v>
+        <v>-0.1249410937338956</v>
       </c>
       <c r="L71">
         <v>-0.01535102863253143</v>
@@ -6513,13 +6513,13 @@
         <v>-0.1781249999999943</v>
       </c>
       <c r="U71">
-        <v>0.9998785251079259</v>
+        <v>-0.0001214748920741471</v>
       </c>
       <c r="V71">
-        <v>0.9997382492614888</v>
+        <v>-0.0002617507385112017</v>
       </c>
       <c r="W71">
-        <v>0.9994380443944929</v>
+        <v>-0.0005619556055070918</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6554,7 +6554,7 @@
         <v>0.6001508142554749</v>
       </c>
       <c r="K72">
-        <v>37.50589062661044</v>
+        <v>-0.1249410937338956</v>
       </c>
       <c r="L72">
         <v>-0.01625749617465954</v>
@@ -6584,13 +6584,13 @@
         <v>-0.2281250000000057</v>
       </c>
       <c r="U72">
-        <v>0.9998972010653708</v>
+        <v>-0.0001027989346291669</v>
       </c>
       <c r="V72">
-        <v>0.9997568821065231</v>
+        <v>-0.000243117893476863</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6625,7 +6625,7 @@
         <v>0.661482101990898</v>
       </c>
       <c r="K73">
-        <v>39.81277325818112</v>
+        <v>-0.1018722674181888</v>
       </c>
       <c r="L73">
         <v>-0.01679417974981098</v>
@@ -6655,13 +6655,13 @@
         <v>-0.2437500000000057</v>
       </c>
       <c r="U73">
-        <v>0.9999252294521187</v>
+        <v>-7.477054788129767E-05</v>
       </c>
       <c r="V73">
-        <v>0.9998129407583384</v>
+        <v>-0.0001870592416616246</v>
       </c>
       <c r="W73">
-        <v>1.000562271577172</v>
+        <v>0.0005622715771718134</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6696,7 +6696,7 @@
         <v>0.6407974020716573</v>
       </c>
       <c r="K74">
-        <v>39.05402344388111</v>
+        <v>-0.1094597655611889</v>
       </c>
       <c r="L74">
         <v>-0.01711365041364169</v>
@@ -6726,13 +6726,13 @@
         <v>-0.2281250000000057</v>
       </c>
       <c r="U74">
-        <v>0.9998878357915988</v>
+        <v>-0.0001121642084012109</v>
       </c>
       <c r="V74">
-        <v>0.9998129057606315</v>
+        <v>-0.0001870942393684683</v>
       </c>
       <c r="W74">
-        <v>0.9997190221972465</v>
+        <v>-0.0002809778027534904</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6767,7 +6767,7 @@
         <v>0.620377049114341</v>
       </c>
       <c r="K75">
-        <v>38.28596865485253</v>
+        <v>-0.1171403134514747</v>
       </c>
       <c r="L75">
         <v>-0.01732105907810317</v>
@@ -6797,13 +6797,13 @@
         <v>-0.2125000000000341</v>
       </c>
       <c r="U75">
-        <v>0.9998971712752632</v>
+        <v>-0.0001028287247367698</v>
       </c>
       <c r="V75">
-        <v>0.9998502965998617</v>
+        <v>-0.0001497034001383124</v>
       </c>
       <c r="W75">
-        <v>0.9997189432265317</v>
+        <v>-0.0002810567734683467</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6838,7 +6838,7 @@
         <v>0.6203770491143411</v>
       </c>
       <c r="K76">
-        <v>38.28596865485253</v>
+        <v>-0.1171403134514747</v>
       </c>
       <c r="L76">
         <v>-0.0173844586653548</v>
@@ -6868,13 +6868,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U76">
-        <v>0.9999345568093637</v>
+        <v>-6.54431906362829E-05</v>
       </c>
       <c r="V76">
-        <v>0.999775411278097</v>
+        <v>-0.0002245887219030074</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6909,7 +6909,7 @@
         <v>0.7263064573631028</v>
       </c>
       <c r="K77">
-        <v>42.07285758940628</v>
+        <v>-0.07927142410593724</v>
       </c>
       <c r="L77">
         <v>-0.01698711211465056</v>
@@ -6939,13 +6939,13 @@
         <v>-0.1593750000000398</v>
       </c>
       <c r="U77">
-        <v>0.9999532518044804</v>
+        <v>-4.674819551964138E-05</v>
       </c>
       <c r="V77">
-        <v>0.9997940807577826</v>
+        <v>-0.0002059192422173561</v>
       </c>
       <c r="W77">
-        <v>1.000843407365758</v>
+        <v>0.0008434073657577201</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6980,7 +6980,7 @@
         <v>0.7263064573631028</v>
       </c>
       <c r="K78">
-        <v>42.07285758940628</v>
+        <v>-0.07927142410593724</v>
       </c>
       <c r="L78">
         <v>-0.01627401378190568</v>
@@ -7010,13 +7010,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U78">
-        <v>0.9999345494665782</v>
+        <v>-6.545053342177365E-05</v>
       </c>
       <c r="V78">
-        <v>0.9998689334931098</v>
+        <v>-0.0001310665068902095</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7051,7 +7051,7 @@
         <v>0.8828041980814801</v>
       </c>
       <c r="K79">
-        <v>46.88773261611752</v>
+        <v>-0.03112267383882478</v>
       </c>
       <c r="L79">
         <v>-0.01494720542697701</v>
@@ -7081,13 +7081,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U79">
-        <v>0.9998316876122084</v>
+        <v>-0.0001683123877915804</v>
       </c>
       <c r="V79">
-        <v>0.9998501900713468</v>
+        <v>-0.0001498099286532106</v>
       </c>
       <c r="W79">
-        <v>1.001123595505618</v>
+        <v>0.001123595505617914</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7122,7 +7122,7 @@
         <v>0.8478852188351207</v>
       </c>
       <c r="K80">
-        <v>45.88408469275029</v>
+        <v>-0.04115915307249712</v>
       </c>
       <c r="L80">
         <v>-0.0133805827717465</v>
@@ -7152,13 +7152,13 @@
         <v>0</v>
       </c>
       <c r="U80">
-        <v>0.9999438864261264</v>
+        <v>-5.611357387358407E-05</v>
       </c>
       <c r="V80">
-        <v>0.9999250838124847</v>
+        <v>-7.491618751531703E-05</v>
       </c>
       <c r="W80">
-        <v>0.9997194163860832</v>
+        <v>-0.0002805836139168072</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7193,7 +7193,7 @@
         <v>0.8139934335509734</v>
       </c>
       <c r="K81">
-        <v>44.8730088265835</v>
+        <v>-0.05126991173416501</v>
       </c>
       <c r="L81">
         <v>-0.01182178914511086</v>
@@ -7223,13 +7223,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U81">
-        <v>0.9999625888514778</v>
+        <v>-3.741114852218175E-05</v>
       </c>
       <c r="V81">
-        <v>1.000018730450093</v>
+        <v>1.873045009292973E-05</v>
       </c>
       <c r="W81">
-        <v>0.9997193376368229</v>
+        <v>-0.0002806623631771421</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7264,7 +7264,7 @@
         <v>0.8560693686710721</v>
       </c>
       <c r="K82">
-        <v>46.12270333861549</v>
+        <v>-0.03877296661384505</v>
       </c>
       <c r="L82">
         <v>-0.01022179181237912</v>
@@ -7294,13 +7294,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U82">
-        <v>0.999943881177747</v>
+        <v>-5.611882225298181E-05</v>
       </c>
       <c r="V82">
-        <v>1.000056190297808</v>
+        <v>5.619029780845608E-05</v>
       </c>
       <c r="W82">
-        <v>1.000280741156654</v>
+        <v>0.0002807411566536633</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7335,7 +7335,7 @@
         <v>0.9446502847133599</v>
       </c>
       <c r="K83">
-        <v>48.57687226022753</v>
+        <v>-0.01423127739772467</v>
       </c>
       <c r="L83">
         <v>-0.008457131579283308</v>
@@ -7365,13 +7365,13 @@
         <v>0.09375</v>
       </c>
       <c r="U83">
-        <v>0.9999625853521654</v>
+        <v>-3.741464783457715E-05</v>
       </c>
       <c r="V83">
-        <v>1.000131103328152</v>
+        <v>0.0001311033281516938</v>
       </c>
       <c r="W83">
-        <v>1.000561324726354</v>
+        <v>0.0005613247263540622</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7406,7 +7406,7 @@
         <v>0.8640807438456258</v>
       </c>
       <c r="K84">
-        <v>46.35425513076299</v>
+        <v>-0.03645744869237011</v>
       </c>
       <c r="L84">
         <v>-0.006878649197911906</v>
@@ -7436,13 +7436,13 @@
         <v>0.1156249999999943</v>
       </c>
       <c r="U84">
-        <v>0.9999532299403213</v>
+        <v>-4.67700596786802E-05</v>
       </c>
       <c r="V84">
-        <v>1.000074906367041</v>
+        <v>7.490636704132747E-05</v>
       </c>
       <c r="W84">
-        <v>0.9994389901823282</v>
+        <v>-0.0005610098176718203</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7477,7 +7477,7 @@
         <v>0.8269588497657433</v>
       </c>
       <c r="K85">
-        <v>45.26422967171799</v>
+        <v>-0.04735770328282007</v>
       </c>
       <c r="L85">
         <v>-0.005590692281812683</v>
@@ -7507,13 +7507,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U85">
-        <v>0.999925164404449</v>
+        <v>-7.483559555099273E-05</v>
       </c>
       <c r="V85">
-        <v>1.000056175567373</v>
+        <v>5.617556737314011E-05</v>
       </c>
       <c r="W85">
-        <v>0.9997193376368229</v>
+        <v>-0.0002806623631771421</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7548,7 +7548,7 @@
         <v>0.6744566121328737</v>
       </c>
       <c r="K86">
-        <v>40.27913337651494</v>
+        <v>-0.09720866623485058</v>
       </c>
       <c r="L86">
         <v>-0.005051497038461482</v>
@@ -7578,13 +7578,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U86">
-        <v>0.9998690279064112</v>
+        <v>-0.0001309720935888103</v>
       </c>
       <c r="V86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86">
-        <v>0.9985962942167321</v>
+        <v>-0.001403705783267872</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7619,7 +7619,7 @@
         <v>0.7909281907885524</v>
       </c>
       <c r="K87">
-        <v>44.16303204431127</v>
+        <v>-0.05836967955688732</v>
       </c>
       <c r="L87">
         <v>-0.004675361191276162</v>
@@ -7649,13 +7649,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U87">
-        <v>0.9999064362503393</v>
+        <v>-9.35637496607411E-05</v>
       </c>
       <c r="V87">
-        <v>1.000056172411856</v>
+        <v>5.617241185618127E-05</v>
       </c>
       <c r="W87">
-        <v>1.000843407365758</v>
+        <v>0.0008434073657577201</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7690,7 +7690,7 @@
         <v>0.6351799548482927</v>
       </c>
       <c r="K88">
-        <v>38.84465149936497</v>
+        <v>-0.1115534850063503</v>
       </c>
       <c r="L88">
         <v>-0.005018250911582584</v>
@@ -7720,13 +7720,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U88">
-        <v>0.999859641243017</v>
+        <v>-0.0001403587569830389</v>
       </c>
       <c r="V88">
-        <v>0.9999063845721776</v>
+        <v>-9.361542782237997E-05</v>
       </c>
       <c r="W88">
-        <v>0.998314606741573</v>
+        <v>-0.001685393258426982</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7761,7 +7761,7 @@
         <v>0.6139691203985365</v>
       </c>
       <c r="K89">
-        <v>38.04094592881241</v>
+        <v>-0.119590540711876</v>
       </c>
       <c r="L89">
         <v>-0.005858956619683009</v>
@@ -7791,13 +7791,13 @@
         <v>-0.01249999999996021</v>
       </c>
       <c r="U89">
-        <v>0.9998596215396709</v>
+        <v>-0.0001403784603291047</v>
       </c>
       <c r="V89">
-        <v>0.9999063758075086</v>
+        <v>-9.362419249137055E-05</v>
       </c>
       <c r="W89">
-        <v>0.9997186268992685</v>
+        <v>-0.0002813731007315079</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7832,7 +7832,7 @@
         <v>0.7897239910239673</v>
       </c>
       <c r="K90">
-        <v>44.1254626403112</v>
+        <v>-0.05874537359688803</v>
       </c>
       <c r="L90">
         <v>-0.006415364438841676</v>
@@ -7862,13 +7862,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U90">
-        <v>0.9999344808543698</v>
+        <v>-6.551914563024397E-05</v>
       </c>
       <c r="V90">
-        <v>1.00001872659176</v>
+        <v>1.872659176016533E-05</v>
       </c>
       <c r="W90">
-        <v>1.001407261469181</v>
+        <v>0.001407261469180909</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7903,7 +7903,7 @@
         <v>0.7615460078482386</v>
       </c>
       <c r="K91">
-        <v>43.23168423960049</v>
+        <v>-0.06768315760399513</v>
       </c>
       <c r="L91">
         <v>-0.006842976974917623</v>
@@ -7933,13 +7933,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U91">
-        <v>0.999887674105137</v>
+        <v>-0.0001123258948629857</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>0.9997189432265317</v>
+        <v>-0.0002810567734683467</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7974,7 +7974,7 @@
         <v>0.799104743886333</v>
       </c>
       <c r="K92">
-        <v>44.41679933321438</v>
+        <v>-0.0558320066678562</v>
       </c>
       <c r="L92">
         <v>-0.007038198273580982</v>
@@ -8004,13 +8004,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U92">
-        <v>0.9998782999438308</v>
+        <v>-0.0001217000561691828</v>
       </c>
       <c r="V92">
-        <v>0.9999625475178368</v>
+        <v>-3.745248216324715E-05</v>
       </c>
       <c r="W92">
-        <v>1.000281135788586</v>
+        <v>0.0002811357885859067</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8045,7 +8045,7 @@
         <v>0.799104743886333</v>
       </c>
       <c r="K93">
-        <v>44.41679933321438</v>
+        <v>-0.0558320066678562</v>
       </c>
       <c r="L93">
         <v>-0.007054568381070291</v>
@@ -8075,13 +8075,13 @@
         <v>-0.1468749999999943</v>
       </c>
       <c r="U93">
-        <v>0.9999157358600089</v>
+        <v>-8.426413999107485E-05</v>
       </c>
       <c r="V93">
-        <v>0.9999625461150958</v>
+        <v>-3.745388490417056E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8116,7 +8116,7 @@
         <v>0.6188305560271807</v>
       </c>
       <c r="K94">
-        <v>38.22701231596906</v>
+        <v>-0.1177298768403094</v>
       </c>
       <c r="L94">
         <v>-0.007651618861219491</v>
@@ -8146,13 +8146,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U94">
-        <v>0.9998033671042531</v>
+        <v>-0.0001966328957468955</v>
       </c>
       <c r="V94">
-        <v>0.9997565406296236</v>
+        <v>-0.0002434593703763976</v>
       </c>
       <c r="W94">
-        <v>0.9980326025857224</v>
+        <v>-0.00196739741427765</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8187,7 +8187,7 @@
         <v>0.6866787339721804</v>
       </c>
       <c r="K95">
-        <v>40.71188662911702</v>
+        <v>-0.09288113370882978</v>
       </c>
       <c r="L95">
         <v>-0.008330217963078916</v>
@@ -8217,13 +8217,13 @@
         <v>-0.1656249999999773</v>
       </c>
       <c r="U95">
-        <v>0.9998688856214353</v>
+        <v>-0.0001311143785647229</v>
       </c>
       <c r="V95">
-        <v>0.9998126779559418</v>
+        <v>-0.0001873220440582468</v>
       </c>
       <c r="W95">
-        <v>1.00056322162771</v>
+        <v>0.0005632216277104973</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8258,7 +8258,7 @@
         <v>0.6008538149129187</v>
       </c>
       <c r="K96">
-        <v>37.53333435667911</v>
+        <v>-0.1246666564332088</v>
       </c>
       <c r="L96">
         <v>-0.009393838103763595</v>
@@ -8288,13 +8288,13 @@
         <v>-0.1531250000000171</v>
       </c>
       <c r="U96">
-        <v>0.9998876015098863</v>
+        <v>-0.0001123984901136854</v>
       </c>
       <c r="V96">
-        <v>0.9997564357177653</v>
+        <v>-0.0002435642822347095</v>
       </c>
       <c r="W96">
-        <v>0.9988741908246551</v>
+        <v>-0.001125809175344883</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8329,7 +8329,7 @@
         <v>0.5637680962622037</v>
       </c>
       <c r="K97">
-        <v>36.05189910254278</v>
+        <v>-0.1394810089745722</v>
       </c>
       <c r="L97">
         <v>-0.01079353129339353</v>
@@ -8359,13 +8359,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U97">
-        <v>0.9998782212812994</v>
+        <v>-0.0001217787187005603</v>
       </c>
       <c r="V97">
-        <v>0.9997001555443114</v>
+        <v>-0.000299844455688647</v>
       </c>
       <c r="W97">
-        <v>0.9994364609749226</v>
+        <v>-0.0005635390250774419</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8400,7 +8400,7 @@
         <v>0.5137048301632579</v>
       </c>
       <c r="K98">
-        <v>33.93692217444091</v>
+        <v>-0.1606307782555909</v>
       </c>
       <c r="L98">
         <v>-0.01257552031551368</v>
@@ -8430,13 +8430,13 @@
         <v>-0.1718749999999716</v>
       </c>
       <c r="U98">
-        <v>0.9998688377147784</v>
+        <v>-0.0001311622852215866</v>
       </c>
       <c r="V98">
-        <v>0.999606336113975</v>
+        <v>-0.0003936638860250197</v>
       </c>
       <c r="W98">
-        <v>0.9991542148294333</v>
+        <v>-0.0008457851705666597</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8471,7 +8471,7 @@
         <v>0.513704830163258</v>
       </c>
       <c r="K99">
-        <v>33.93692217444091</v>
+        <v>-0.1606307782555909</v>
       </c>
       <c r="L99">
         <v>-0.01443022940705469</v>
@@ -8501,13 +8501,13 @@
         <v>-0.1875000000000284</v>
       </c>
       <c r="U99">
-        <v>0.9998594505453319</v>
+        <v>-0.0001405494546681263</v>
       </c>
       <c r="V99">
-        <v>0.9996436876453381</v>
+        <v>-0.0003563123546619362</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8542,7 +8542,7 @@
         <v>0.5465030459298184</v>
       </c>
       <c r="K100">
-        <v>35.33798703909046</v>
+        <v>-0.1466201296090954</v>
       </c>
       <c r="L100">
         <v>-0.01605640720041995</v>
@@ -8572,13 +8572,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U100">
-        <v>0.9998688020691787</v>
+        <v>-0.0001311979308212807</v>
       </c>
       <c r="V100">
-        <v>0.9996810805740549</v>
+        <v>-0.0003189194259450856</v>
       </c>
       <c r="W100">
-        <v>1.000282167042889</v>
+        <v>0.0002821670428894141</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8613,7 +8613,7 @@
         <v>0.6500763588768316</v>
       </c>
       <c r="K101">
-        <v>39.39674399791555</v>
+        <v>-0.1060325600208445</v>
       </c>
       <c r="L101">
         <v>-0.01707541945531632</v>
@@ -8643,13 +8643,13 @@
         <v>-0.2312500000000171</v>
       </c>
       <c r="U101">
-        <v>0.9999156474061578</v>
+        <v>-8.435259384220739E-05</v>
       </c>
       <c r="V101">
-        <v>0.9998311064404743</v>
+        <v>-0.0001688935595256513</v>
       </c>
       <c r="W101">
-        <v>1.000846262341326</v>
+        <v>0.0008462623413258985</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8684,7 +8684,7 @@
         <v>0.6060283818598908</v>
       </c>
       <c r="K102">
-        <v>37.73459975583174</v>
+        <v>-0.1226540024416826</v>
       </c>
       <c r="L102">
         <v>-0.0178043164030028</v>
@@ -8714,13 +8714,13 @@
         <v>-0.2281250000000057</v>
       </c>
       <c r="U102">
-        <v>0.9998968936880189</v>
+        <v>-0.0001031063119810716</v>
       </c>
       <c r="V102">
-        <v>0.9997372323054112</v>
+        <v>-0.0002627676945887725</v>
       </c>
       <c r="W102">
-        <v>0.9994363021420519</v>
+        <v>-0.0005636978579480756</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8755,7 +8755,7 @@
         <v>0.6060283818598908</v>
       </c>
       <c r="K103">
-        <v>37.73459975583174</v>
+        <v>-0.1226540024416826</v>
       </c>
       <c r="L103">
         <v>-0.01824638337229049</v>
@@ -8785,13 +8785,13 @@
         <v>-0.2281250000000341</v>
       </c>
       <c r="U103">
-        <v>0.9998781345207405</v>
+        <v>-0.0001218654792595197</v>
       </c>
       <c r="V103">
-        <v>0.999849807565944</v>
+        <v>-0.0001501924340560068</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8826,7 +8826,7 @@
         <v>0.7186458199507945</v>
       </c>
       <c r="K104">
-        <v>41.81465498059219</v>
+        <v>-0.08185345019407803</v>
       </c>
       <c r="L104">
         <v>-0.01811306842278992</v>
@@ -8856,13 +8856,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U104">
-        <v>0.9999156213084325</v>
+        <v>-8.437869156752154E-05</v>
       </c>
       <c r="V104">
-        <v>0.9999248925023939</v>
+        <v>-7.510749760608615E-05</v>
       </c>
       <c r="W104">
-        <v>1.000846023688663</v>
+        <v>0.0008460236886631556</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8897,7 +8897,7 @@
         <v>0.9162202727418832</v>
       </c>
       <c r="K105">
-        <v>47.81393275997863</v>
+        <v>-0.02186067240021367</v>
       </c>
       <c r="L105">
         <v>-0.01706160266950668</v>
@@ -8927,13 +8927,13 @@
         <v>-0.1718750000000284</v>
       </c>
       <c r="U105">
-        <v>0.9999718713960225</v>
+        <v>-2.812860397749528E-05</v>
       </c>
       <c r="V105">
-        <v>0.9999248868608339</v>
+        <v>-7.511313916608309E-05</v>
       </c>
       <c r="W105">
-        <v>1.001408847562694</v>
+        <v>0.00140884756269366</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8968,7 +8968,7 @@
         <v>0.8796323000392392</v>
       </c>
       <c r="K106">
-        <v>46.79810514114255</v>
+        <v>-0.03201894858857451</v>
       </c>
       <c r="L106">
         <v>-0.01556080594974715</v>
@@ -8998,13 +8998,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U106">
-        <v>0.9999624941397094</v>
+        <v>-3.750586029060976E-05</v>
       </c>
       <c r="V106">
-        <v>0.9999248812184267</v>
+        <v>-7.511878157329122E-05</v>
       </c>
       <c r="W106">
-        <v>0.9997186268992685</v>
+        <v>-0.0002813731007315079</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9039,7 +9039,7 @@
         <v>0.8114159642417345</v>
       </c>
       <c r="K107">
-        <v>44.79456846243465</v>
+        <v>-0.05205431537565353</v>
       </c>
       <c r="L107">
         <v>-0.01403140374294766</v>
@@ -9069,13 +9069,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U107">
-        <v>0.9999156086491758</v>
+        <v>-8.439135082416449E-05</v>
       </c>
       <c r="V107">
-        <v>0.99986853225655</v>
+        <v>-0.0001314677434499645</v>
       </c>
       <c r="W107">
-        <v>0.9994370954123276</v>
+        <v>-0.0005629045876723859</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9110,7 +9110,7 @@
         <v>0.8930485614727912</v>
       </c>
       <c r="K108">
-        <v>47.1751533292944</v>
+        <v>-0.02824846670705594</v>
       </c>
       <c r="L108">
         <v>-0.01232605910150316</v>
@@ -9140,13 +9140,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U108">
-        <v>0.999934356742969</v>
+        <v>-6.564325703095619E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999060821217927</v>
+        <v>-9.39178782073391E-05</v>
       </c>
       <c r="W108">
-        <v>1.00056322162771</v>
+        <v>0.0005632216277104973</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9181,7 +9181,7 @@
         <v>0.8562597674105775</v>
       </c>
       <c r="K109">
-        <v>46.12822959606738</v>
+        <v>-0.03871770403932623</v>
       </c>
       <c r="L109">
         <v>-0.01068024180895354</v>
@@ -9211,13 +9211,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U109">
-        <v>0.9998874613148269</v>
+        <v>-0.0001125386851731358</v>
       </c>
       <c r="V109">
-        <v>1.000018785339921</v>
+        <v>1.878533992072384E-05</v>
       </c>
       <c r="W109">
-        <v>0.9997185477061638</v>
+        <v>-0.0002814522938362485</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9252,7 +9252,7 @@
         <v>0.8562597674105775</v>
       </c>
       <c r="K110">
-        <v>46.12822959606738</v>
+        <v>-0.03871770403932623</v>
       </c>
       <c r="L110">
         <v>-0.009136427296299082</v>
@@ -9282,13 +9282,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U110">
-        <v>0.9998968279277421</v>
+        <v>-0.0001031720722578511</v>
       </c>
       <c r="V110">
-        <v>0.9999812150129617</v>
+        <v>-1.878498703833387E-05</v>
       </c>
       <c r="W110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9323,7 +9323,7 @@
         <v>0.8562597674105776</v>
       </c>
       <c r="K111">
-        <v>46.12822959606738</v>
+        <v>-0.03871770403932617</v>
       </c>
       <c r="L111">
         <v>-0.007719490101728065</v>
@@ -9353,13 +9353,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U111">
-        <v>0.9999061975292428</v>
+        <v>-9.380247075718717E-05</v>
       </c>
       <c r="V111">
-        <v>1.000056356019762</v>
+        <v>5.635601976217153E-05</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9394,7 +9394,7 @@
         <v>0.7811913780670379</v>
       </c>
       <c r="K112">
-        <v>43.85780145167739</v>
+        <v>-0.06142198548322608</v>
       </c>
       <c r="L112">
         <v>-0.006646576689575198</v>
@@ -9424,13 +9424,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U112">
-        <v>0.9998780453483681</v>
+        <v>-0.0001219546516318948</v>
       </c>
       <c r="V112">
-        <v>1.00005635284394</v>
+        <v>5.635284394012174E-05</v>
       </c>
       <c r="W112">
-        <v>0.9994369369369369</v>
+        <v>-0.0005630630630630851</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9465,7 +9465,7 @@
         <v>0.9196178700229133</v>
       </c>
       <c r="K113">
-        <v>47.90629866411571</v>
+        <v>-0.0209370133588429</v>
       </c>
       <c r="L113">
         <v>-0.005518785383878138</v>
@@ -9495,13 +9495,13 @@
         <v>0.125</v>
       </c>
       <c r="U113">
-        <v>0.9998874127448774</v>
+        <v>-0.0001125872551226426</v>
       </c>
       <c r="V113">
-        <v>1.000169049005428</v>
+        <v>0.0001690490054284677</v>
       </c>
       <c r="W113">
-        <v>1.000845070422535</v>
+        <v>0.0008450704225353434</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9536,7 +9536,7 @@
         <v>1.065329966818572</v>
       </c>
       <c r="K114">
-        <v>51.5815866681876</v>
+        <v>0.01581586668187596</v>
       </c>
       <c r="L114">
         <v>-0.004101963845185576</v>
@@ -9566,13 +9566,13 @@
         <v>0.1062499999999602</v>
       </c>
       <c r="U114">
-        <v>0.9999343167060766</v>
+        <v>-6.56832939234242E-05</v>
       </c>
       <c r="V114">
-        <v>1.000225360576923</v>
+        <v>0.0002253605769231282</v>
       </c>
       <c r="W114">
-        <v>1.000844356881509</v>
+        <v>0.0008443568815086344</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9607,7 +9607,7 @@
         <v>1.269838172847547</v>
       </c>
       <c r="K115">
-        <v>55.94399583361113</v>
+        <v>0.05943995833611138</v>
       </c>
       <c r="L115">
         <v>-0.002175285140292234</v>
@@ -9637,13 +9637,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U115">
-        <v>0.9999812321118566</v>
+        <v>-1.876788814336727E-05</v>
       </c>
       <c r="V115">
-        <v>1.00028163725122</v>
+        <v>0.0002816372512204346</v>
       </c>
       <c r="W115">
-        <v>1.001124859392576</v>
+        <v>0.001124859392575894</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9678,7 +9678,7 @@
         <v>1.146440066851952</v>
       </c>
       <c r="K116">
-        <v>53.41123120820993</v>
+        <v>0.03411231208209931</v>
       </c>
       <c r="L116">
         <v>-0.0002595632246011662</v>
@@ -9708,13 +9708,13 @@
         <v>0.1031249999999773</v>
       </c>
       <c r="U116">
-        <v>1.000009384120192</v>
+        <v>9.384120191802126E-06</v>
       </c>
       <c r="V116">
-        <v>1.000187705302675</v>
+        <v>0.0001877053026748676</v>
       </c>
       <c r="W116">
-        <v>0.999438202247191</v>
+        <v>-0.0005617977528089568</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9749,7 +9749,7 @@
         <v>1.197585459206138</v>
       </c>
       <c r="K117">
-        <v>54.49551252667812</v>
+        <v>0.04495512526678125</v>
       </c>
       <c r="L117">
         <v>0.001630853169172509</v>
@@ -9779,13 +9779,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U117">
-        <v>0.9999906159678691</v>
+        <v>-9.384032130910214E-06</v>
       </c>
       <c r="V117">
-        <v>1.000243971098808</v>
+        <v>0.0002439710988080268</v>
       </c>
       <c r="W117">
-        <v>1.000281056773468</v>
+        <v>0.0002810567734681246</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9820,7 +9820,7 @@
         <v>1.412934479644908</v>
       </c>
       <c r="K118">
-        <v>58.55668653932278</v>
+        <v>0.08556686539322778</v>
       </c>
       <c r="L118">
         <v>0.003789499099047161</v>
@@ -9850,13 +9850,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U118">
-        <v>1.000084457081726</v>
+        <v>8.445708172621913E-05</v>
       </c>
       <c r="V118">
-        <v>1.000318961311869</v>
+        <v>0.0003189613118690371</v>
       </c>
       <c r="W118">
-        <v>1.001123911211014</v>
+        <v>0.001123911211014406</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9891,7 +9891,7 @@
         <v>1.412934479644908</v>
       </c>
       <c r="K119">
-        <v>58.55668653932278</v>
+        <v>0.08556686539322778</v>
       </c>
       <c r="L119">
         <v>0.005959124182858804</v>
@@ -9921,13 +9921,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U119">
-        <v>1.000093833277033</v>
+        <v>9.383327703349487E-05</v>
       </c>
       <c r="V119">
-        <v>1.000262590265404</v>
+        <v>0.0002625902654038725</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9962,7 +9962,7 @@
         <v>1.412934479644908</v>
       </c>
       <c r="K120">
-        <v>58.55668653932278</v>
+        <v>0.08556686539322778</v>
       </c>
       <c r="L120">
         <v>0.007975225642518015</v>
@@ -9992,13 +9992,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U120">
-        <v>1.000046912236588</v>
+        <v>4.691223658759291E-05</v>
       </c>
       <c r="V120">
-        <v>1.000168763712052</v>
+        <v>0.0001687637120515451</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10033,7 +10033,7 @@
         <v>1.188959107830105</v>
       </c>
       <c r="K121">
-        <v>54.31618633610334</v>
+        <v>0.04316186336103345</v>
       </c>
       <c r="L121">
         <v>0.009433086086745188</v>
@@ -10063,13 +10063,13 @@
         <v>0.2062500000000398</v>
       </c>
       <c r="U121">
-        <v>1.00002814602156</v>
+        <v>2.814602156009371E-05</v>
       </c>
       <c r="V121">
-        <v>1.00013123851663</v>
+        <v>0.0001312385166298835</v>
       </c>
       <c r="W121">
-        <v>0.9991580129104687</v>
+        <v>-0.0008419870895313153</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10104,7 +10104,7 @@
         <v>1.355820029320244</v>
       </c>
       <c r="K122">
-        <v>57.55193573557726</v>
+        <v>0.07551935735577264</v>
       </c>
       <c r="L122">
         <v>0.01073283307498083</v>
@@ -10134,13 +10134,13 @@
         <v>0.21875</v>
       </c>
       <c r="U122">
-        <v>1.000046908715639</v>
+        <v>4.690871563939325E-05</v>
       </c>
       <c r="V122">
-        <v>1.000224950792014</v>
+        <v>0.0002249507920142335</v>
       </c>
       <c r="W122">
-        <v>1.000842696629213</v>
+        <v>0.0008426966292134352</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10175,7 +10175,7 @@
         <v>1.213701219559296</v>
       </c>
       <c r="K123">
-        <v>54.82678551358074</v>
+        <v>0.04826785513580734</v>
       </c>
       <c r="L123">
         <v>0.01160974064588162</v>
@@ -10205,13 +10205,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U123">
-        <v>1.000028143909189</v>
+        <v>2.814390918892684E-05</v>
       </c>
       <c r="V123">
-        <v>1.000149933467024</v>
+        <v>0.0001499334670240771</v>
       </c>
       <c r="W123">
-        <v>0.9994386752736458</v>
+        <v>-0.0005613247263541732</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10246,7 +10246,7 @@
         <v>1.379208525707933</v>
       </c>
       <c r="K124">
-        <v>57.96921584658284</v>
+        <v>0.07969215846582844</v>
       </c>
       <c r="L124">
         <v>0.01243962379640966</v>
@@ -10276,13 +10276,13 @@
         <v>0.1968750000000057</v>
       </c>
       <c r="U124">
-        <v>1.00012195350757</v>
+        <v>0.0001219535075704936</v>
       </c>
       <c r="V124">
-        <v>1.000224866485524</v>
+        <v>0.0002248664855242222</v>
       </c>
       <c r="W124">
-        <v>1.000842459983151</v>
+        <v>0.0008424599831506896</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10317,7 +10317,7 @@
         <v>1.379208525707933</v>
       </c>
       <c r="K125">
-        <v>57.96921584658284</v>
+        <v>0.07969215846582844</v>
       </c>
       <c r="L125">
         <v>0.01314264605658324</v>
@@ -10347,13 +10347,13 @@
         <v>0.1906249999999829</v>
       </c>
       <c r="U125">
-        <v>1.00010317884646</v>
+        <v>0.0001031788464604944</v>
       </c>
       <c r="V125">
-        <v>1.000224815931956</v>
+        <v>0.0002248159319557796</v>
       </c>
       <c r="W125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10388,7 +10388,7 @@
         <v>1.440337724654821</v>
       </c>
       <c r="K126">
-        <v>59.02206527002539</v>
+        <v>0.09022065270025392</v>
       </c>
       <c r="L126">
         <v>0.01377842696419423</v>
@@ -10418,13 +10418,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U126">
-        <v>1.000150062838814</v>
+        <v>0.0001500628388138026</v>
       </c>
       <c r="V126">
-        <v>1.000243495851205</v>
+        <v>0.0002434958512054219</v>
       </c>
       <c r="W126">
-        <v>1.000280583613917</v>
+        <v>0.0002805836139170292</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10459,7 +10459,7 @@
         <v>1.504684249862072</v>
       </c>
       <c r="K127">
-        <v>60.07480783036551</v>
+        <v>0.1007480783036552</v>
       </c>
       <c r="L127">
         <v>0.01438502055945094</v>
@@ -10489,13 +10489,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U127">
-        <v>1.000178172883962</v>
+        <v>0.0001781728839624908</v>
       </c>
       <c r="V127">
-        <v>1.000299614246657</v>
+        <v>0.0002996142466573648</v>
       </c>
       <c r="W127">
-        <v>1.000280504908836</v>
+        <v>0.0002805049088359102</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10530,7 +10530,7 @@
         <v>1.504684249862072</v>
       </c>
       <c r="K128">
-        <v>60.07480783036552</v>
+        <v>0.1007480783036552</v>
       </c>
       <c r="L128">
         <v>0.01488269023494259</v>
@@ -10560,13 +10560,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U128">
-        <v>1.0002062686931</v>
+        <v>0.0002062686931001423</v>
       </c>
       <c r="V128">
-        <v>1.00024336366019</v>
+        <v>0.0002433636601895106</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10601,7 +10601,7 @@
         <v>1.504684249862072</v>
       </c>
       <c r="K129">
-        <v>60.07480783036552</v>
+        <v>0.1007480783036552</v>
       </c>
       <c r="L129">
         <v>0.0152282923130609</v>
@@ -10631,13 +10631,13 @@
         <v>0.1031250000000057</v>
       </c>
       <c r="U129">
-        <v>1.000206226155101</v>
+        <v>0.0002062261551010192</v>
       </c>
       <c r="V129">
-        <v>1.000187157268252</v>
+        <v>0.0001871572682523581</v>
       </c>
       <c r="W129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10672,7 +10672,7 @@
         <v>1.654785489593187</v>
       </c>
       <c r="K130">
-        <v>62.33217320495309</v>
+        <v>0.1233217320495309</v>
       </c>
       <c r="L130">
         <v>0.01560890551818128</v>
@@ -10702,13 +10702,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U130">
-        <v>1.000215555618036</v>
+        <v>0.0002155556180356566</v>
       </c>
       <c r="V130">
-        <v>1.000149697797571</v>
+        <v>0.0001496977975712355</v>
       </c>
       <c r="W130">
-        <v>1.000560852495794</v>
+        <v>0.0005608524957936289</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10743,7 +10743,7 @@
         <v>1.812786794573308</v>
       </c>
       <c r="K131">
-        <v>64.44806972468395</v>
+        <v>0.1444806972468394</v>
       </c>
       <c r="L131">
         <v>0.01613413674628605</v>
@@ -10773,13 +10773,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U131">
-        <v>1.00020613920018</v>
+        <v>0.0002061392001797557</v>
       </c>
       <c r="V131">
-        <v>1.000224513087242</v>
+        <v>0.0002245130872420287</v>
       </c>
       <c r="W131">
-        <v>1.000560538116592</v>
+        <v>0.0005605381165918466</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10814,7 +10814,7 @@
         <v>1.895945376141817</v>
       </c>
       <c r="K132">
-        <v>65.46896194111676</v>
+        <v>0.1546896194111675</v>
       </c>
       <c r="L132">
         <v>0.01675680611886754</v>
@@ -10844,13 +10844,13 @@
         <v>0.1250000000000284</v>
       </c>
       <c r="U132">
-        <v>1.000234200813145</v>
+        <v>0.000234200813145069</v>
       </c>
       <c r="V132">
-        <v>1.00022446269243</v>
+        <v>0.0002244626924301496</v>
       </c>
       <c r="W132">
-        <v>1.000280112044818</v>
+        <v>0.0002801120448179262</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10885,7 +10885,7 @@
         <v>1.895945376141817</v>
       </c>
       <c r="K133">
-        <v>65.46896194111676</v>
+        <v>0.1546896194111675</v>
       </c>
       <c r="L133">
         <v>0.0173374946700583</v>
@@ -10915,13 +10915,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U133">
-        <v>1.000234145975967</v>
+        <v>0.0002341459759673814</v>
       </c>
       <c r="V133">
-        <v>1.000149608213491</v>
+        <v>0.0001496082134908594</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10956,7 +10956,7 @@
         <v>2.080230321445939</v>
       </c>
       <c r="K134">
-        <v>67.53489526294337</v>
+        <v>0.1753489526294336</v>
       </c>
       <c r="L134">
         <v>0.01799696259059382</v>
@@ -10986,13 +10986,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U134">
-        <v>1.000224727517885</v>
+        <v>0.0002247275178846042</v>
       </c>
       <c r="V134">
-        <v>1.000186982292777</v>
+        <v>0.000186982292776694</v>
       </c>
       <c r="W134">
-        <v>1.000560067208065</v>
+        <v>0.0005600672080650071</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11027,7 +11027,7 @@
         <v>2.177222397921764</v>
       </c>
       <c r="K135">
-        <v>68.52596781849125</v>
+        <v>0.1852596781849125</v>
       </c>
       <c r="L135">
         <v>0.01869853869719548</v>
@@ -11057,13 +11057,13 @@
         <v>0.1656250000000057</v>
       </c>
       <c r="U135">
-        <v>1.000187230855645</v>
+        <v>0.000187230855644982</v>
       </c>
       <c r="V135">
-        <v>1.000205642070629</v>
+        <v>0.0002056420706288975</v>
       </c>
       <c r="W135">
-        <v>1.000279876854184</v>
+        <v>0.000279876854184069</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11098,7 +11098,7 @@
         <v>1.975527154883328</v>
       </c>
       <c r="K136">
-        <v>66.39250969836266</v>
+        <v>0.1639250969836266</v>
       </c>
       <c r="L136">
         <v>0.01921019447318063</v>
@@ -11128,13 +11128,13 @@
         <v>0.1781249999999943</v>
       </c>
       <c r="U136">
-        <v>1.000187195806814</v>
+        <v>0.0001871958068138113</v>
       </c>
       <c r="V136">
-        <v>1.000242981570782</v>
+        <v>0.0002429815707822858</v>
       </c>
       <c r="W136">
-        <v>0.9997202014549526</v>
+        <v>-0.0002797985450474494</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11169,7 +11169,7 @@
         <v>2.073041668030161</v>
       </c>
       <c r="K137">
-        <v>67.45895083677775</v>
+        <v>0.1745895083677774</v>
       </c>
       <c r="L137">
         <v>0.01960624932141406</v>
@@ -11199,13 +11199,13 @@
         <v>0.1843749999999886</v>
       </c>
       <c r="U137">
-        <v>1.000215234886768</v>
+        <v>0.0002152348867676679</v>
       </c>
       <c r="V137">
-        <v>1.000205549845838</v>
+        <v>0.0002055498458377603</v>
       </c>
       <c r="W137">
-        <v>1.000279876854184</v>
+        <v>0.000279876854184069</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11240,7 +11240,7 @@
         <v>2.278335379918349</v>
       </c>
       <c r="K138">
-        <v>69.49671451781403</v>
+        <v>0.1949671451781403</v>
       </c>
       <c r="L138">
         <v>0.02003984393423807</v>
@@ -11270,13 +11270,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U138">
-        <v>1.00021518857068</v>
+        <v>0.0002151885706802581</v>
       </c>
       <c r="V138">
-        <v>1.00028023764152</v>
+        <v>0.0002802376415198538</v>
       </c>
       <c r="W138">
-        <v>1.000559597090095</v>
+        <v>0.0005595970900953429</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11311,7 +11311,7 @@
         <v>2.386384701964702</v>
       </c>
       <c r="K139">
-        <v>70.46998235552437</v>
+        <v>0.2046998235552436</v>
       </c>
       <c r="L139">
         <v>0.02049744150606745</v>
@@ -11341,13 +11341,13 @@
         <v>0.1874999999999716</v>
       </c>
       <c r="U139">
-        <v>1.000233850298393</v>
+        <v>0.0002338502983929569</v>
       </c>
       <c r="V139">
-        <v>1.000242804579668</v>
+        <v>0.0002428045796680767</v>
       </c>
       <c r="W139">
-        <v>1.000279642058165</v>
+        <v>0.0002796420581654413</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11382,7 +11382,7 @@
         <v>2.142684107090375</v>
       </c>
       <c r="K140">
-        <v>68.18006627698128</v>
+        <v>0.1818006627698128</v>
       </c>
       <c r="L140">
         <v>0.0207632334085182</v>
@@ -11412,13 +11412,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U140">
-        <v>1.000224443800207</v>
+        <v>0.0002244438002074745</v>
       </c>
       <c r="V140">
-        <v>1.000224072898383</v>
+        <v>0.0002240728983826656</v>
       </c>
       <c r="W140">
-        <v>0.9997204361196534</v>
+        <v>-0.0002795638803465561</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11453,7 +11453,7 @@
         <v>1.934710373701643</v>
       </c>
       <c r="K141">
-        <v>65.925087226285</v>
+        <v>0.1592508722628501</v>
       </c>
       <c r="L141">
         <v>0.02071789302665018</v>
@@ -11483,13 +11483,13 @@
         <v>0.1718750000000284</v>
       </c>
       <c r="U141">
-        <v>1.000215043709971</v>
+        <v>0.0002150437099714964</v>
       </c>
       <c r="V141">
-        <v>1.000186685584139</v>
+        <v>0.0001866855841392567</v>
       </c>
       <c r="W141">
-        <v>0.9997203579418343</v>
+        <v>-0.0002796420581656633</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11524,7 +11524,7 @@
         <v>1.280540981049924</v>
       </c>
       <c r="K142">
-        <v>56.15075509234583</v>
+        <v>0.06150755092345828</v>
       </c>
       <c r="L142">
         <v>0.0199006812855076</v>
@@ -11554,13 +11554,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U142">
-        <v>1.000186954327058</v>
+        <v>0.0001869543270578422</v>
       </c>
       <c r="V142">
-        <v>1.000074660295655</v>
+        <v>7.466029565494914E-05</v>
       </c>
       <c r="W142">
-        <v>0.9986013986013986</v>
+        <v>-0.001398601398601373</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11595,7 +11595,7 @@
         <v>1.280540981049924</v>
       </c>
       <c r="K143">
-        <v>56.15075509234583</v>
+        <v>0.06150755092345828</v>
       </c>
       <c r="L143">
         <v>0.0185957609103608</v>
@@ -11625,13 +11625,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U143">
-        <v>1.00015888147442</v>
+        <v>0.0001588814744200029</v>
       </c>
       <c r="V143">
-        <v>1.000074654721911</v>
+        <v>7.465472191103828E-05</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11666,7 +11666,7 @@
         <v>1.113649032602324</v>
       </c>
       <c r="K144">
-        <v>52.68845562459344</v>
+        <v>0.02688455624593433</v>
       </c>
       <c r="L144">
         <v>0.01680684393040226</v>
@@ -11696,13 +11696,13 @@
         <v>0.0625</v>
       </c>
       <c r="U144">
-        <v>1.000112133813017</v>
+        <v>0.0001121338130170013</v>
       </c>
       <c r="V144">
-        <v>1.0000373245745</v>
+        <v>3.732457450000837E-05</v>
       </c>
       <c r="W144">
-        <v>0.9994397759103641</v>
+        <v>-0.0005602240896358524</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11737,7 +11737,7 @@
         <v>1.18224337585556</v>
       </c>
       <c r="K145">
-        <v>54.17559695384826</v>
+        <v>0.0417559695384826</v>
       </c>
       <c r="L145">
         <v>0.01487989865711661</v>
@@ -11767,13 +11767,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U145">
-        <v>1.000084090930326</v>
+        <v>8.409093032590853E-05</v>
       </c>
       <c r="V145">
-        <v>1.000018661590714</v>
+        <v>1.866159071406415E-05</v>
       </c>
       <c r="W145">
-        <v>1.000280269058296</v>
+        <v>0.0002802690582959233</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11808,7 +11808,7 @@
         <v>1.254447947701114</v>
       </c>
       <c r="K146">
-        <v>55.64324290477803</v>
+        <v>0.05643242904778023</v>
       </c>
       <c r="L146">
         <v>0.01304016993469873</v>
@@ -11838,13 +11838,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U146">
-        <v>1.000112111812848</v>
+        <v>0.0001121118128479814</v>
       </c>
       <c r="V146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W146">
-        <v>1.00028019052956</v>
+        <v>0.000280190529560187</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11879,7 +11879,7 @@
         <v>1.254447947701114</v>
       </c>
       <c r="K147">
-        <v>55.64324290477803</v>
+        <v>0.05643242904778023</v>
       </c>
       <c r="L147">
         <v>0.01132308215528599</v>
@@ -11909,13 +11909,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U147">
-        <v>1.000102757641432</v>
+        <v>0.0001027576414318609</v>
       </c>
       <c r="V147">
-        <v>0.9999813387575344</v>
+        <v>-1.866124246563405E-05</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11950,7 +11950,7 @@
         <v>1.254447947701114</v>
       </c>
       <c r="K148">
-        <v>55.64324290477803</v>
+        <v>0.05643242904778023</v>
       </c>
       <c r="L148">
         <v>0.009748512620383827</v>
@@ -11980,13 +11980,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U148">
-        <v>1.000065384507608</v>
+        <v>6.538450760795733E-05</v>
       </c>
       <c r="V148">
-        <v>0.999981338409286</v>
+        <v>-1.866159071395312E-05</v>
       </c>
       <c r="W148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12021,7 +12021,7 @@
         <v>1.254447947701114</v>
       </c>
       <c r="K149">
-        <v>55.64324290477803</v>
+        <v>0.05643242904778023</v>
       </c>
       <c r="L149">
         <v>0.008325141175659276</v>
@@ -12051,13 +12051,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U149">
-        <v>1.000065380232753</v>
+        <v>6.538023275348692E-05</v>
       </c>
       <c r="V149">
-        <v>0.9999440141830737</v>
+        <v>-5.598581692634053E-05</v>
       </c>
       <c r="W149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12092,7 +12092,7 @@
         <v>0.8691879134949853</v>
       </c>
       <c r="K150">
-        <v>46.50083104110105</v>
+        <v>-0.03499168958898946</v>
       </c>
       <c r="L150">
         <v>0.006543605184606037</v>
@@ -12122,13 +12122,13 @@
         <v>-0.1343750000000341</v>
       </c>
       <c r="U150">
-        <v>1.000018678845274</v>
+        <v>1.867884527384511E-05</v>
       </c>
       <c r="V150">
-        <v>0.9998320331454591</v>
+        <v>-0.0001679668545409019</v>
       </c>
       <c r="W150">
-        <v>0.9985994397759104</v>
+        <v>-0.001400560224089631</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12163,7 +12163,7 @@
         <v>0.7696616809786709</v>
       </c>
       <c r="K151">
-        <v>43.49202388521105</v>
+        <v>-0.06507976114788955</v>
       </c>
       <c r="L151">
         <v>0.004430848906253765</v>
@@ -12193,13 +12193,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U151">
-        <v>1.000028017744572</v>
+        <v>2.801774457150685E-05</v>
       </c>
       <c r="V151">
-        <v>0.9998133388087285</v>
+        <v>-0.000186661191271531</v>
       </c>
       <c r="W151">
-        <v>0.9994389901823282</v>
+        <v>-0.0005610098176718203</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12234,7 +12234,7 @@
         <v>0.7696616809786709</v>
       </c>
       <c r="K152">
-        <v>43.49202388521105</v>
+        <v>-0.06507976114788955</v>
       </c>
       <c r="L152">
         <v>0.002235999009238293</v>
@@ -12264,13 +12264,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U152">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V152">
-        <v>0.9997946343558052</v>
+        <v>-0.0002053656441948215</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12305,7 +12305,7 @@
         <v>0.9599744527058099</v>
       </c>
       <c r="K153">
-        <v>48.97892681103743</v>
+        <v>-0.01021073188962573</v>
       </c>
       <c r="L153">
         <v>0.0004291751932672437</v>
@@ -12335,13 +12335,13 @@
         <v>-0.1375000000000171</v>
       </c>
       <c r="U153">
-        <v>1.000046694932666</v>
+        <v>4.669493266629132E-05</v>
       </c>
       <c r="V153">
-        <v>0.999813265610995</v>
+        <v>-0.0001867343890049611</v>
       </c>
       <c r="W153">
-        <v>1.000841987089531</v>
+        <v>0.0008419870895313153</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12376,7 +12376,7 @@
         <v>0.899883464508588</v>
       </c>
       <c r="K154">
-        <v>47.36519272466779</v>
+        <v>-0.02634807275332213</v>
       </c>
       <c r="L154">
         <v>-0.001131083614497341</v>
@@ -12406,13 +12406,13 @@
         <v>-0.1343750000000341</v>
       </c>
       <c r="U154">
-        <v>1.00000933855047</v>
+        <v>9.338550470028295E-06</v>
       </c>
       <c r="V154">
-        <v>0.9997758768817002</v>
+        <v>-0.0002241231182997794</v>
       </c>
       <c r="W154">
-        <v>0.9997195737521032</v>
+        <v>-0.0002804262478968145</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12447,7 +12447,7 @@
         <v>0.8998834645085881</v>
       </c>
       <c r="K155">
-        <v>47.36519272466779</v>
+        <v>-0.02634807275332213</v>
       </c>
       <c r="L155">
         <v>-0.002438483201951875</v>
@@ -12477,13 +12477,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U155">
-        <v>1.000009338463262</v>
+        <v>9.3384632624538E-06</v>
       </c>
       <c r="V155">
-        <v>0.9997945077526621</v>
+        <v>-0.0002054922473379017</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12518,7 +12518,7 @@
         <v>0.9692424065296201</v>
       </c>
       <c r="K156">
-        <v>49.21905009336601</v>
+        <v>-0.007809499066339876</v>
       </c>
       <c r="L156">
         <v>-0.003398537282381408</v>
@@ -12548,13 +12548,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U156">
-        <v>1.000009338376056</v>
+        <v>9.338376056433617E-06</v>
       </c>
       <c r="V156">
-        <v>0.9998318354229339</v>
+        <v>-0.0001681645770661433</v>
       </c>
       <c r="W156">
-        <v>1.000280504908836</v>
+        <v>0.0002805049088359102</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12589,7 +12589,7 @@
         <v>1.042251819183296</v>
       </c>
       <c r="K157">
-        <v>51.03444195241783</v>
+        <v>0.01034441952417831</v>
       </c>
       <c r="L157">
         <v>-0.00397261740223216</v>
@@ -12619,13 +12619,13 @@
         <v>-0.1156250000000227</v>
       </c>
       <c r="U157">
-        <v>1.000009338288852</v>
+        <v>9.338288851967746E-06</v>
       </c>
       <c r="V157">
-        <v>0.9999439357129509</v>
+        <v>-5.606428704907351E-05</v>
       </c>
       <c r="W157">
-        <v>1.000280426247897</v>
+        <v>0.0002804262478968145</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12660,7 +12660,7 @@
         <v>0.9678691280618036</v>
       </c>
       <c r="K158">
-        <v>49.18361258175124</v>
+        <v>-0.008163874182487596</v>
       </c>
       <c r="L158">
         <v>-0.004363853272659407</v>
@@ -12690,13 +12690,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U158">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V158">
-        <v>0.9999252434260937</v>
+        <v>-7.475657390632051E-05</v>
       </c>
       <c r="W158">
-        <v>0.9997196523689376</v>
+        <v>-0.0002803476310624387</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12731,7 +12731,7 @@
         <v>0.9002399800937256</v>
       </c>
       <c r="K159">
-        <v>47.37506786113</v>
+        <v>-0.02624932138870001</v>
       </c>
       <c r="L159">
         <v>-0.004705543672966855</v>
@@ -12761,13 +12761,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U159">
-        <v>0.9999906617983507</v>
+        <v>-9.338201649278233E-06</v>
       </c>
       <c r="V159">
-        <v>0.9999439283778481</v>
+        <v>-5.607162215193195E-05</v>
       </c>
       <c r="W159">
-        <v>0.9997195737521032</v>
+        <v>-0.0002804262478968145</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12802,7 +12802,7 @@
         <v>1.194447429198093</v>
       </c>
       <c r="K160">
-        <v>54.43044172785559</v>
+        <v>0.04430441727855594</v>
       </c>
       <c r="L160">
         <v>-0.00457018179474991</v>
@@ -12832,13 +12832,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U160">
-        <v>1.000009338288852</v>
+        <v>9.338288851967746E-06</v>
       </c>
       <c r="V160">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W160">
-        <v>1.001122019635344</v>
+        <v>0.001122019635343641</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12873,7 +12873,7 @@
         <v>1.108615107411267</v>
       </c>
       <c r="K161">
-        <v>52.5755081387189</v>
+        <v>0.02575508138718907</v>
       </c>
       <c r="L161">
         <v>-0.00423978981317666</v>
@@ -12903,13 +12903,13 @@
         <v>-0.01874999999995453</v>
       </c>
       <c r="U161">
-        <v>0.9999813235967018</v>
+        <v>-1.86764032982234E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999626168224296</v>
+        <v>-3.738317757040477E-05</v>
       </c>
       <c r="W161">
-        <v>0.99971980947044</v>
+        <v>-0.0002801905295599649</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12944,7 +12944,7 @@
         <v>1.184256621804113</v>
       </c>
       <c r="K162">
-        <v>54.21783365481855</v>
+        <v>0.04217833654818548</v>
       </c>
       <c r="L162">
         <v>-0.003694787934332687</v>
@@ -12974,13 +12974,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U162">
-        <v>0.9999813232478874</v>
+        <v>-1.867675211264519E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999813077124379</v>
+        <v>-1.86922875621276E-05</v>
       </c>
       <c r="W162">
-        <v>1.000280269058296</v>
+        <v>0.0002802690582959233</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13015,7 +13015,7 @@
         <v>1.343501915262827</v>
       </c>
       <c r="K163">
-        <v>57.32881661042515</v>
+        <v>0.07328816610425148</v>
       </c>
       <c r="L163">
         <v>-0.002836912718068634</v>
@@ -13045,13 +13045,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V163">
-        <v>1.000018692636971</v>
+        <v>1.869263697051871E-05</v>
       </c>
       <c r="W163">
-        <v>1.00056038105912</v>
+        <v>0.0005603810591203739</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13086,7 +13086,7 @@
         <v>1.343501915262828</v>
       </c>
       <c r="K164">
-        <v>57.32881661042516</v>
+        <v>0.0732881661042516</v>
       </c>
       <c r="L164">
         <v>-0.00183378973780012</v>
@@ -13116,13 +13116,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U164">
-        <v>0.9999813228990593</v>
+        <v>-1.867710094072272E-05</v>
       </c>
       <c r="V164">
-        <v>1.000018692287562</v>
+        <v>1.869228756201657E-05</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13157,7 +13157,7 @@
         <v>1.431726454575085</v>
       </c>
       <c r="K165">
-        <v>58.87695352745841</v>
+        <v>0.08876953527458409</v>
       </c>
       <c r="L165">
         <v>-0.0006978486498668685</v>
@@ -13187,13 +13187,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U165">
-        <v>0.9999813225502192</v>
+        <v>-1.867744978079067E-05</v>
       </c>
       <c r="V165">
-        <v>1.000130843567169</v>
+        <v>0.0001308435671694141</v>
       </c>
       <c r="W165">
-        <v>1.000280033604032</v>
+        <v>0.0002800336040322815</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13228,7 +13228,7 @@
         <v>1.617462326811468</v>
       </c>
       <c r="K166">
-        <v>61.79505661813376</v>
+        <v>0.1179505661813376</v>
       </c>
       <c r="L166">
         <v>0.0006528209773251602</v>
@@ -13258,13 +13258,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U166">
-        <v>1.000009338899317</v>
+        <v>9.33889931742371E-06</v>
       </c>
       <c r="V166">
-        <v>1.000205584420439</v>
+        <v>0.0002055844204389423</v>
       </c>
       <c r="W166">
-        <v>1.000559910414334</v>
+        <v>0.0005599104143336753</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13299,7 +13299,7 @@
         <v>2.008485215730225</v>
       </c>
       <c r="K167">
-        <v>66.76068093100872</v>
+        <v>0.1676068093100872</v>
       </c>
       <c r="L167">
         <v>0.002453325966456658</v>
@@ -13329,13 +13329,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U167">
-        <v>1.000037355248413</v>
+        <v>3.735524841252946E-05</v>
       </c>
       <c r="V167">
-        <v>1.000280284769326</v>
+        <v>0.0002802847693255117</v>
       </c>
       <c r="W167">
-        <v>1.00111919418019</v>
+        <v>0.001119194180190464</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13370,7 +13370,7 @@
         <v>2.008485215730225</v>
       </c>
       <c r="K168">
-        <v>66.76068093100872</v>
+        <v>0.1676068093100872</v>
       </c>
       <c r="L168">
         <v>0.004402586511244596</v>
@@ -13400,13 +13400,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U168">
-        <v>1.000018676926525</v>
+        <v>1.867692652468556E-05</v>
       </c>
       <c r="V168">
-        <v>1.000224164985429</v>
+        <v>0.0002241649854293204</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13441,7 +13441,7 @@
         <v>1.8121944887812</v>
       </c>
       <c r="K169">
-        <v>64.44058175957105</v>
+        <v>0.1444058175957105</v>
       </c>
       <c r="L169">
         <v>0.006199513007823274</v>
@@ -13471,13 +13471,13 @@
         <v>0.1843750000000171</v>
       </c>
       <c r="U169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V169">
-        <v>1.00022411474675</v>
+        <v>0.0002241147467503257</v>
       </c>
       <c r="W169">
-        <v>0.999720514253773</v>
+        <v>-0.0002794857462270484</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13512,7 +13512,7 @@
         <v>1.915068941738504</v>
       </c>
       <c r="K170">
-        <v>65.69549400078287</v>
+        <v>0.1569549400078287</v>
       </c>
       <c r="L170">
         <v>0.007868946768481475</v>
@@ -13542,13 +13542,13 @@
         <v>0.2000000000000171</v>
       </c>
       <c r="U170">
-        <v>1.000018676577704</v>
+        <v>1.867657770393549E-05</v>
       </c>
       <c r="V170">
-        <v>1.0002427365748</v>
+        <v>0.0002427365748003396</v>
       </c>
       <c r="W170">
-        <v>1.000279563880347</v>
+        <v>0.0002795638803467781</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13583,7 +13583,7 @@
         <v>1.445480478196667</v>
       </c>
       <c r="K171">
-        <v>59.10824032676742</v>
+        <v>0.09108240326767414</v>
       </c>
       <c r="L171">
         <v>0.00901981152501685</v>
@@ -13613,13 +13613,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V171">
-        <v>1.000168007616345</v>
+        <v>0.0001680076163452782</v>
       </c>
       <c r="W171">
-        <v>0.9991615427613192</v>
+        <v>-0.000838457238680812</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13654,7 +13654,7 @@
         <v>1.330967284626567</v>
       </c>
       <c r="K172">
-        <v>57.09935499329819</v>
+        <v>0.0709935499329819</v>
       </c>
       <c r="L172">
         <v>0.009648229237557452</v>
@@ -13684,13 +13684,13 @@
         <v>0.1874999999999716</v>
       </c>
       <c r="U172">
-        <v>1.000037352457792</v>
+        <v>3.735245779168395E-05</v>
       </c>
       <c r="V172">
-        <v>1.000130650640188</v>
+        <v>0.0001306506401881347</v>
       </c>
       <c r="W172">
-        <v>0.9997202797202797</v>
+        <v>-0.0002797202797203413</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13725,7 +13725,7 @@
         <v>1.414358382310835</v>
       </c>
       <c r="K173">
-        <v>58.58112833096143</v>
+        <v>0.08581128330961429</v>
       </c>
       <c r="L173">
         <v>0.00998696197786992</v>
@@ -13755,13 +13755,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U173">
-        <v>1.000046688828297</v>
+        <v>4.6688828297059E-05</v>
       </c>
       <c r="V173">
-        <v>1.000167957450779</v>
+        <v>0.0001679574507791326</v>
       </c>
       <c r="W173">
-        <v>1.000279798545048</v>
+        <v>0.0002797985450475604</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13796,7 +13796,7 @@
         <v>1.765478793612915</v>
       </c>
       <c r="K174">
-        <v>63.83989628452127</v>
+        <v>0.1383989628452127</v>
       </c>
       <c r="L174">
         <v>0.01050023852514502</v>
@@ -13826,13 +13826,13 @@
         <v>0.171875</v>
       </c>
       <c r="U174">
-        <v>1.000102710626815</v>
+        <v>0.0001027106268149947</v>
       </c>
       <c r="V174">
-        <v>1.000261223271262</v>
+        <v>0.0002612232712615459</v>
       </c>
       <c r="W174">
-        <v>1.001118881118881</v>
+        <v>0.001118881118881143</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13867,7 +13867,7 @@
         <v>1.49010674463402</v>
       </c>
       <c r="K175">
-        <v>59.8410790157924</v>
+        <v>0.09841079015792398</v>
       </c>
       <c r="L175">
         <v>0.0108441606659326</v>
@@ -13897,13 +13897,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U175">
-        <v>1.000074690966128</v>
+        <v>7.469096612777726E-05</v>
       </c>
       <c r="V175">
-        <v>1.000149231457991</v>
+        <v>0.0001492314579911724</v>
       </c>
       <c r="W175">
-        <v>0.9994411846884605</v>
+        <v>-0.0005588153115394512</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13938,7 +13938,7 @@
         <v>1.490106744634019</v>
       </c>
       <c r="K176">
-        <v>59.8410790157924</v>
+        <v>0.09841079015792398</v>
       </c>
       <c r="L176">
         <v>0.01102401361479219</v>
@@ -13968,13 +13968,13 @@
         <v>0.09687500000003979</v>
       </c>
       <c r="U176">
-        <v>1.000065349714329</v>
+        <v>6.53497143285886E-05</v>
       </c>
       <c r="V176">
-        <v>1.000167860340197</v>
+        <v>0.0001678603401971124</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14009,7 +14009,7 @@
         <v>1.490106744634019</v>
       </c>
       <c r="K177">
-        <v>59.8410790157924</v>
+        <v>0.09841079015792398</v>
       </c>
       <c r="L177">
         <v>0.01105281585218808</v>
@@ -14039,13 +14039,13 @@
         <v>0.06874999999996589</v>
       </c>
       <c r="U177">
-        <v>1.000065345444022</v>
+        <v>6.534544402225784E-05</v>
       </c>
       <c r="V177">
-        <v>1.000149184149184</v>
+        <v>0.0001491841491840784</v>
       </c>
       <c r="W177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14080,7 +14080,7 @@
         <v>1.672029294640219</v>
       </c>
       <c r="K178">
-        <v>62.57526060788764</v>
+        <v>0.1257526060788764</v>
       </c>
       <c r="L178">
         <v>0.01115191136690211</v>
@@ -14110,13 +14110,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U178">
-        <v>1.00008401008121</v>
+        <v>8.401008120961784E-05</v>
       </c>
       <c r="V178">
-        <v>1.000149161896594</v>
+        <v>0.0001491618965936414</v>
       </c>
       <c r="W178">
-        <v>1.000559127760693</v>
+        <v>0.0005591277606933343</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14151,7 +14151,7 @@
         <v>1.672029294640219</v>
       </c>
       <c r="K179">
-        <v>62.57526060788764</v>
+        <v>0.1257526060788764</v>
       </c>
       <c r="L179">
         <v>0.01124656524512677</v>
@@ -14181,13 +14181,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U179">
-        <v>1.000084003024109</v>
+        <v>8.400302410893623E-05</v>
       </c>
       <c r="V179">
-        <v>1.00014913965064</v>
+        <v>0.0001491396506403397</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14222,7 +14222,7 @@
         <v>1.873605527334125</v>
       </c>
       <c r="K180">
-        <v>65.2005123706833</v>
+        <v>0.1520051237068329</v>
       </c>
       <c r="L180">
         <v>0.01149533545754009</v>
@@ -14252,13 +14252,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U180">
-        <v>1.000149326165677</v>
+        <v>0.0001493261656773104</v>
       </c>
       <c r="V180">
-        <v>1.000167757087737</v>
+        <v>0.000167757087737197</v>
       </c>
       <c r="W180">
-        <v>1.00055881531154</v>
+        <v>0.0005588153115396732</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14293,7 +14293,7 @@
         <v>1.545642572705414</v>
       </c>
       <c r="K181">
-        <v>60.71718745113392</v>
+        <v>0.1071718745113391</v>
       </c>
       <c r="L181">
         <v>0.01157575862861054</v>
@@ -14323,13 +14323,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U181">
-        <v>1.000149303870703</v>
+        <v>0.0001493038707027772</v>
       </c>
       <c r="V181">
-        <v>1.000093182750009</v>
+        <v>9.318275000902432E-05</v>
       </c>
       <c r="W181">
-        <v>0.9994414967886064</v>
+        <v>-0.0005585032113936128</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14364,7 +14364,7 @@
         <v>1.210953367978561</v>
       </c>
       <c r="K182">
-        <v>54.77064263393832</v>
+        <v>0.04770642633938316</v>
       </c>
       <c r="L182">
         <v>0.01120112885976932</v>
@@ -14394,13 +14394,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U182">
-        <v>1.000121291285688</v>
+        <v>0.0001212912856876081</v>
       </c>
       <c r="V182">
-        <v>0.9999627303728829</v>
+        <v>-3.726962711714243E-05</v>
       </c>
       <c r="W182">
-        <v>0.9991617770326908</v>
+        <v>-0.0008382229673091768</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14435,7 +14435,7 @@
         <v>1.125444372019427</v>
       </c>
       <c r="K183">
-        <v>52.95101517759883</v>
+        <v>0.02951015177598826</v>
       </c>
       <c r="L183">
         <v>0.0104320897781314</v>
@@ -14465,13 +14465,13 @@
         <v>0.03125</v>
       </c>
       <c r="U183">
-        <v>1.000083960706389</v>
+        <v>8.396070638938546E-05</v>
       </c>
       <c r="V183">
-        <v>0.9999440934757087</v>
+        <v>-5.590652429132703E-05</v>
       </c>
       <c r="W183">
-        <v>0.9997203579418343</v>
+        <v>-0.0002796420581656633</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14506,7 +14506,7 @@
         <v>1.125444372019427</v>
       </c>
       <c r="K184">
-        <v>52.95101517759883</v>
+        <v>0.02951015177598826</v>
       </c>
       <c r="L184">
         <v>0.009435239498874993</v>
@@ -14536,13 +14536,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U184">
-        <v>1.000093281841756</v>
+        <v>9.328184175649845E-05</v>
       </c>
       <c r="V184">
-        <v>0.9999627268999963</v>
+        <v>-3.727310000367634E-05</v>
       </c>
       <c r="W184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14577,7 +14577,7 @@
         <v>1.281927375299977</v>
       </c>
       <c r="K185">
-        <v>56.17739587928199</v>
+        <v>0.06177395879281988</v>
       </c>
       <c r="L185">
         <v>0.008533391071861027</v>
@@ -14607,13 +14607,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U185">
-        <v>1.00011192776928</v>
+        <v>0.0001119277692795961</v>
       </c>
       <c r="V185">
-        <v>0.9999813627553301</v>
+        <v>-1.863724466988348E-05</v>
       </c>
       <c r="W185">
-        <v>1.00055944055944</v>
+        <v>0.0005594405594404606</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14648,7 +14648,7 @@
         <v>1.446646326121609</v>
       </c>
       <c r="K186">
-        <v>59.12772560040639</v>
+        <v>0.09127725600406389</v>
       </c>
       <c r="L186">
         <v>0.007919240331440029</v>
@@ -14678,13 +14678,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U186">
-        <v>1.000121241513094</v>
+        <v>0.0001212415130942279</v>
       </c>
       <c r="V186">
-        <v>1.000074550368092</v>
+        <v>7.455036809234095E-05</v>
       </c>
       <c r="W186">
-        <v>1.000559127760693</v>
+        <v>0.0005591277606933343</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14719,7 +14719,7 @@
         <v>1.966811433979443</v>
       </c>
       <c r="K187">
-        <v>66.29377962661145</v>
+        <v>0.1629377962661145</v>
       </c>
       <c r="L187">
         <v>0.008100826224790539</v>
@@ -14749,13 +14749,13 @@
         <v>0.03125</v>
       </c>
       <c r="U187">
-        <v>1.000167852513591</v>
+        <v>0.0001678525135913045</v>
       </c>
       <c r="V187">
-        <v>1.000204998229561</v>
+        <v>0.0002049982295606601</v>
       </c>
       <c r="W187">
-        <v>1.001676445934619</v>
+        <v>0.001676445934618576</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14790,7 +14790,7 @@
         <v>1.966811433979443</v>
       </c>
       <c r="K188">
-        <v>66.29377962661144</v>
+        <v>0.1629377962661144</v>
       </c>
       <c r="L188">
         <v>0.008723210987758813</v>
@@ -14820,13 +14820,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U188">
-        <v>1.000177147918512</v>
+        <v>0.0001771479185119773</v>
       </c>
       <c r="V188">
-        <v>1.000186323830818</v>
+        <v>0.0001863238308179582</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14861,7 +14861,7 @@
         <v>1.966811433979443</v>
       </c>
       <c r="K189">
-        <v>66.29377962661145</v>
+        <v>0.1629377962661145</v>
       </c>
       <c r="L189">
         <v>0.009541027401163173</v>
@@ -14891,13 +14891,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U189">
-        <v>1.000186438465984</v>
+        <v>0.0001864384659842067</v>
       </c>
       <c r="V189">
-        <v>1.000111773472429</v>
+        <v>0.0001117734724291886</v>
       </c>
       <c r="W189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14932,7 +14932,7 @@
         <v>2.067927263859004</v>
       </c>
       <c r="K190">
-        <v>67.40470311078542</v>
+        <v>0.1740470311078542</v>
       </c>
       <c r="L190">
         <v>0.01049204250250207</v>
@@ -14962,13 +14962,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U190">
-        <v>1.000158443156188</v>
+        <v>0.0001584431561876265</v>
       </c>
       <c r="V190">
-        <v>1.000167641470775</v>
+        <v>0.0001676414707745266</v>
       </c>
       <c r="W190">
-        <v>1.000278940027894</v>
+        <v>0.0002789400278939702</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15003,7 +15003,7 @@
         <v>2.067927263859004</v>
       </c>
       <c r="K191">
-        <v>67.40470311078542</v>
+        <v>0.1740470311078542</v>
       </c>
       <c r="L191">
         <v>0.01142473741178104</v>
@@ -15033,13 +15033,13 @@
         <v>0.1093749999999716</v>
       </c>
       <c r="U191">
-        <v>1.000167736765103</v>
+        <v>0.000167736765103399</v>
       </c>
       <c r="V191">
-        <v>1.000167613371822</v>
+        <v>0.0001676133718224726</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15074,7 +15074,7 @@
         <v>2.067927263859004</v>
       </c>
       <c r="K192">
-        <v>67.40470311078542</v>
+        <v>0.1740470311078542</v>
       </c>
       <c r="L192">
         <v>0.01224510538855713</v>
@@ -15104,13 +15104,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U192">
-        <v>1.000158391487855</v>
+        <v>0.0001583914878551251</v>
       </c>
       <c r="V192">
-        <v>1.000167585282288</v>
+        <v>0.0001675852822879964</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15145,7 +15145,7 @@
         <v>2.185863790909016</v>
       </c>
       <c r="K193">
-        <v>68.61133853702289</v>
+        <v>0.1861133853702289</v>
       </c>
       <c r="L193">
         <v>0.01300219334833381</v>
@@ -15175,13 +15175,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U193">
-        <v>1.000149050733143</v>
+        <v>0.0001490507331431967</v>
       </c>
       <c r="V193">
-        <v>1.00014893973526</v>
+        <v>0.0001489397352596455</v>
       </c>
       <c r="W193">
-        <v>1.000278862242052</v>
+        <v>0.0002788622420524245</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15216,7 +15216,7 @@
         <v>2.310007503593309</v>
       </c>
       <c r="K194">
-        <v>69.78858812512024</v>
+        <v>0.1978858812512024</v>
       </c>
       <c r="L194">
         <v>0.01372695755173847</v>
@@ -15246,13 +15246,13 @@
         <v>0.2093750000000227</v>
       </c>
       <c r="U194">
-        <v>1.000158342802854</v>
+        <v>0.0001583428028539835</v>
       </c>
       <c r="V194">
-        <v>1.000167532249958</v>
+        <v>0.0001675322499579135</v>
       </c>
       <c r="W194">
-        <v>1.000278784499582</v>
+        <v>0.0002787844995819633</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15287,7 +15287,7 @@
         <v>2.310007503593309</v>
       </c>
       <c r="K195">
-        <v>69.78858812512024</v>
+        <v>0.1978858812512024</v>
       </c>
       <c r="L195">
         <v>0.01433576076922258</v>
@@ -15317,13 +15317,13 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="U195">
-        <v>1.000149004926475</v>
+        <v>0.0001490049264754045</v>
       </c>
       <c r="V195">
-        <v>1.000130281034804</v>
+        <v>0.0001302810348036143</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15358,7 +15358,7 @@
         <v>2.310007503593309</v>
       </c>
       <c r="K196">
-        <v>69.78858812512024</v>
+        <v>0.1978858812512024</v>
       </c>
       <c r="L196">
         <v>0.01478313809074951</v>
@@ -15388,13 +15388,13 @@
         <v>0.1968750000000057</v>
       </c>
       <c r="U196">
-        <v>1.000130359886401</v>
+        <v>0.0001303598864006439</v>
       </c>
       <c r="V196">
-        <v>1.000167482367829</v>
+        <v>0.0001674823678285975</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15429,7 +15429,7 @@
         <v>1.236110726500634</v>
       </c>
       <c r="K197">
-        <v>55.27949541367595</v>
+        <v>0.0527949541367595</v>
       </c>
       <c r="L197">
         <v>0.01443974825979339</v>
@@ -15459,13 +15459,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U197">
-        <v>1.000037240827119</v>
+        <v>3.724082711875631E-05</v>
       </c>
       <c r="V197">
-        <v>1.000111636214788</v>
+        <v>0.0001116362147879357</v>
       </c>
       <c r="W197">
-        <v>0.9983277591973243</v>
+        <v>-0.001672240802675695</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15500,7 +15500,7 @@
         <v>1.480789078917053</v>
       </c>
       <c r="K198">
-        <v>59.69024499106013</v>
+        <v>0.09690244991060137</v>
       </c>
       <c r="L198">
         <v>0.01389199611729396</v>
@@ -15530,13 +15530,13 @@
         <v>0.1343750000000057</v>
       </c>
       <c r="U198">
-        <v>1.00006516902051</v>
+        <v>6.516902050979212E-05</v>
       </c>
       <c r="V198">
-        <v>1.000186039589225</v>
+        <v>0.0001860395892245847</v>
       </c>
       <c r="W198">
-        <v>1.000837520938024</v>
+        <v>0.0008375209380235837</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15571,7 +15571,7 @@
         <v>1.263790977707162</v>
       </c>
       <c r="K199">
-        <v>55.82631038609266</v>
+        <v>0.05826310386092659</v>
       </c>
       <c r="L199">
         <v>0.01300134368149576</v>
@@ -15601,13 +15601,13 @@
         <v>0.09062500000001705</v>
       </c>
       <c r="U199">
-        <v>1.000055855520387</v>
+        <v>5.585552038711583E-05</v>
       </c>
       <c r="V199">
-        <v>1.000148803987947</v>
+        <v>0.0001488039879469216</v>
       </c>
       <c r="W199">
-        <v>0.9994421199442121</v>
+        <v>-0.0005578800557879404</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15642,7 +15642,7 @@
         <v>1.418045933498839</v>
       </c>
       <c r="K200">
-        <v>58.64429264364593</v>
+        <v>0.08644292643645923</v>
       </c>
       <c r="L200">
         <v>0.01211589626681495</v>
@@ -15672,13 +15672,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U200">
-        <v>1.000065161134176</v>
+        <v>6.51611341759839E-05</v>
       </c>
       <c r="V200">
-        <v>1.000148781848615</v>
+        <v>0.0001487818486145542</v>
       </c>
       <c r="W200">
-        <v>1.000558191459671</v>
+        <v>0.0005581914596706206</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15713,7 +15713,7 @@
         <v>1.219957066760986</v>
       </c>
       <c r="K201">
-        <v>54.95408379860952</v>
+        <v>0.04954083798609521</v>
       </c>
       <c r="L201">
         <v>0.01104252535031987</v>
@@ -15743,13 +15743,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U201">
-        <v>1.000074465015405</v>
+        <v>7.446501540497863E-05</v>
       </c>
       <c r="V201">
-        <v>1.000074379857935</v>
+        <v>7.437985793457003E-05</v>
       </c>
       <c r="W201">
-        <v>0.9994421199442121</v>
+        <v>-0.0005578800557879404</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15784,7 +15784,7 @@
         <v>1.219957066760986</v>
       </c>
       <c r="K202">
-        <v>54.95408379860952</v>
+        <v>0.04954083798609521</v>
       </c>
       <c r="L202">
         <v>0.009883577963300381</v>
@@ -15814,13 +15814,13 @@
         <v>-0.03437500000003979</v>
       </c>
       <c r="U202">
-        <v>1.000083766904627</v>
+        <v>8.376690462674752E-05</v>
       </c>
       <c r="V202">
-        <v>0.9999628128370087</v>
+        <v>-3.718716299128122E-05</v>
       </c>
       <c r="W202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15855,7 +15855,7 @@
         <v>1.297348441691765</v>
       </c>
       <c r="K203">
-        <v>56.47155730266145</v>
+        <v>0.06471557302661446</v>
       </c>
       <c r="L203">
         <v>0.008812379370005551</v>
@@ -15885,13 +15885,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U203">
-        <v>1.00008375988832</v>
+        <v>8.375988832010073E-05</v>
       </c>
       <c r="V203">
-        <v>0.999981405727036</v>
+        <v>-1.859427296402316E-05</v>
       </c>
       <c r="W203">
-        <v>1.000279095729835</v>
+        <v>0.0002790957298353103</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15926,7 +15926,7 @@
         <v>1.297348441691765</v>
       </c>
       <c r="K204">
-        <v>56.47155730266145</v>
+        <v>0.06471557302661457</v>
       </c>
       <c r="L204">
         <v>0.00783052101981848</v>
@@ -15956,13 +15956,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U204">
-        <v>1.000046529373994</v>
+        <v>4.652937399396428E-05</v>
       </c>
       <c r="V204">
-        <v>0.9999814053812827</v>
+        <v>-1.859461871733803E-05</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15997,7 +15997,7 @@
         <v>1.383100657681596</v>
       </c>
       <c r="K205">
-        <v>58.03786144002613</v>
+        <v>0.08037861440026128</v>
       </c>
       <c r="L205">
         <v>0.007038501872360964</v>
@@ -16027,13 +16027,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U205">
-        <v>1.000074443534579</v>
+        <v>7.444353457897179E-05</v>
       </c>
       <c r="V205">
-        <v>0.9999814050355162</v>
+        <v>-1.859496448375353E-05</v>
       </c>
       <c r="W205">
-        <v>1.000279017857143</v>
+        <v>0.0002790178571430157</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16068,7 +16068,7 @@
         <v>1.383100657681596</v>
       </c>
       <c r="K206">
-        <v>58.03786144002613</v>
+        <v>0.08037861440026128</v>
       </c>
       <c r="L206">
         <v>0.006386311841406989</v>
@@ -16098,13 +16098,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U206">
-        <v>1.000074437993152</v>
+        <v>7.443799315165478E-05</v>
       </c>
       <c r="V206">
-        <v>0.9999814046897371</v>
+        <v>-1.859531026293659E-05</v>
       </c>
       <c r="W206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16139,7 +16139,7 @@
         <v>1.383100657681596</v>
       </c>
       <c r="K207">
-        <v>58.03786144002613</v>
+        <v>0.08037861440026128</v>
       </c>
       <c r="L207">
         <v>0.005837124898796103</v>
@@ -16169,13 +16169,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U207">
-        <v>1.000074432452549</v>
+        <v>7.443245254945552E-05</v>
       </c>
       <c r="V207">
-        <v>0.9999814043439454</v>
+        <v>-1.859565605455415E-05</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16210,7 +16210,7 @@
         <v>1.683152149700193</v>
       </c>
       <c r="K208">
-        <v>62.73040274247077</v>
+        <v>0.1273040274247077</v>
       </c>
       <c r="L208">
         <v>0.005668979083684246</v>
@@ -16240,13 +16240,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U208">
-        <v>1.000083730276868</v>
+        <v>8.37302768681436E-05</v>
       </c>
       <c r="V208">
-        <v>1.000018596001859</v>
+        <v>1.859600185949439E-05</v>
       </c>
       <c r="W208">
-        <v>1.000836820083682</v>
+        <v>0.0008368200836821327</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16281,7 +16281,7 @@
         <v>1.683152149700193</v>
       </c>
       <c r="K209">
-        <v>62.73040274247077</v>
+        <v>0.1273040274247077</v>
       </c>
       <c r="L209">
         <v>0.005721684678173657</v>
@@ -16311,13 +16311,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U209">
-        <v>1.000083723266695</v>
+        <v>8.372326669547903E-05</v>
       </c>
       <c r="V209">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16352,7 +16352,7 @@
         <v>1.793974492089291</v>
       </c>
       <c r="K210">
-        <v>64.20869256926483</v>
+        <v>0.1420869256926482</v>
       </c>
       <c r="L210">
         <v>0.005985565741631502</v>
@@ -16382,13 +16382,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U210">
-        <v>1.000074414451287</v>
+        <v>7.441445128675284E-05</v>
       </c>
       <c r="V210">
-        <v>1.000018595656055</v>
+        <v>1.859565605455415E-05</v>
       </c>
       <c r="W210">
-        <v>1.000278706800446</v>
+        <v>0.0002787068004457272</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16423,7 +16423,7 @@
         <v>2.027284686592789</v>
       </c>
       <c r="K211">
-        <v>66.96709746431213</v>
+        <v>0.1696709746431213</v>
       </c>
       <c r="L211">
         <v>0.006541940626076031</v>
@@ -16453,13 +16453,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U211">
-        <v>1.000111613371282</v>
+        <v>0.0001116133712815159</v>
       </c>
       <c r="V211">
-        <v>1.000055785930788</v>
+        <v>5.578593078836569E-05</v>
       </c>
       <c r="W211">
-        <v>1.000557258289217</v>
+        <v>0.0005572582892172662</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16494,7 +16494,7 @@
         <v>2.641258882654484</v>
       </c>
       <c r="K212">
-        <v>72.53697053061499</v>
+        <v>0.22536970530615</v>
       </c>
       <c r="L212">
         <v>0.007724189970266856</v>
@@ -16524,13 +16524,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U212">
-        <v>1.000186001525213</v>
+        <v>0.0001860015252126423</v>
       </c>
       <c r="V212">
-        <v>1.000260319821495</v>
+        <v>0.000260319821494992</v>
       </c>
       <c r="W212">
-        <v>1.001392369813422</v>
+        <v>0.001392369813422389</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16565,7 +16565,7 @@
         <v>2.899774333627815</v>
       </c>
       <c r="K213">
-        <v>74.35749060203344</v>
+        <v>0.2435749060203344</v>
       </c>
       <c r="L213">
         <v>0.00938511046974521</v>
@@ -16595,13 +16595,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U213">
-        <v>1.000213861975341</v>
+        <v>0.000213861975340901</v>
       </c>
       <c r="V213">
-        <v>1.000241662638956</v>
+        <v>0.000241662638955864</v>
       </c>
       <c r="W213">
-        <v>1.00055617352614</v>
+        <v>0.0005561735261401246</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16636,7 +16636,7 @@
         <v>2.279479020915899</v>
       </c>
       <c r="K214">
-        <v>69.50735181953631</v>
+        <v>0.1950735181953631</v>
       </c>
       <c r="L214">
         <v>0.01099248591321175</v>
@@ -16666,13 +16666,13 @@
         <v>0.1843749999999886</v>
       </c>
       <c r="U214">
-        <v>1.000195223530943</v>
+        <v>0.0001952235309428119</v>
       </c>
       <c r="V214">
-        <v>1.000241604252235</v>
+        <v>0.0002416042522348505</v>
       </c>
       <c r="W214">
-        <v>0.9994441356309061</v>
+        <v>-0.0005558643690939391</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16707,7 +16707,7 @@
         <v>2.279479020915899</v>
       </c>
       <c r="K215">
-        <v>69.50735181953631</v>
+        <v>0.1950735181953631</v>
       </c>
       <c r="L215">
         <v>0.01242469331510153</v>
@@ -16737,13 +16737,13 @@
         <v>0.2124999999999773</v>
       </c>
       <c r="U215">
-        <v>1.00017659633795</v>
+        <v>0.0001765963379496416</v>
       </c>
       <c r="V215">
-        <v>1.000204384986994</v>
+        <v>0.0002043849869937109</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16778,7 +16778,7 @@
         <v>2.279479020915899</v>
       </c>
       <c r="K216">
-        <v>69.50735181953631</v>
+        <v>0.1950735181953631</v>
       </c>
       <c r="L216">
         <v>0.01361401723915377</v>
@@ -16808,13 +16808,13 @@
         <v>0.2281250000000057</v>
       </c>
       <c r="U216">
-        <v>1.000157979351169</v>
+        <v>0.0001579793511694572</v>
       </c>
       <c r="V216">
-        <v>1.000241496535454</v>
+        <v>0.0002414965354535781</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16849,7 +16849,7 @@
         <v>2.026657599912166</v>
       </c>
       <c r="K217">
-        <v>66.96025344825856</v>
+        <v>0.1696025344825856</v>
       </c>
       <c r="L217">
         <v>0.01442905673724446</v>
@@ -16879,13 +16879,13 @@
         <v>0.234375</v>
       </c>
       <c r="U217">
-        <v>1.000092914351551</v>
+        <v>9.2914351550899E-05</v>
       </c>
       <c r="V217">
-        <v>1.000222866057499</v>
+        <v>0.0002228660574994379</v>
       </c>
       <c r="W217">
-        <v>0.9997219132369298</v>
+        <v>-0.0002780867630701733</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16920,7 +16920,7 @@
         <v>2.026657599912166</v>
       </c>
       <c r="K218">
-        <v>66.96025344825857</v>
+        <v>0.1696025344825857</v>
       </c>
       <c r="L218">
         <v>0.01491273612448684</v>
@@ -16950,13 +16950,13 @@
         <v>0.2343750000000284</v>
       </c>
       <c r="U218">
-        <v>1.000092905719276</v>
+        <v>9.290571927600411E-05</v>
       </c>
       <c r="V218">
-        <v>1.000204248366013</v>
+        <v>0.0002042483660131822</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16991,7 +16991,7 @@
         <v>1.804851933437484</v>
       </c>
       <c r="K219">
-        <v>64.34749413761566</v>
+        <v>0.1434749413761566</v>
       </c>
       <c r="L219">
         <v>0.01500892380105689</v>
@@ -17021,13 +17021,13 @@
         <v>0.2218749999999829</v>
       </c>
       <c r="U219">
-        <v>1.000083607379745</v>
+        <v>8.360737974477672E-05</v>
       </c>
       <c r="V219">
-        <v>1.000185642415579</v>
+        <v>0.0001856424155792791</v>
       </c>
       <c r="W219">
-        <v>0.999721835883171</v>
+        <v>-0.0002781641168290161</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17062,7 +17062,7 @@
         <v>1.618404762589673</v>
       </c>
       <c r="K220">
-        <v>61.80880762640483</v>
+        <v>0.1180880762640483</v>
       </c>
       <c r="L220">
         <v>0.01470805447078284</v>
@@ -17092,13 +17092,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U220">
-        <v>1.000065022525661</v>
+        <v>6.502252566065181E-05</v>
       </c>
       <c r="V220">
-        <v>1.000148486367095</v>
+        <v>0.0001484863670953018</v>
       </c>
       <c r="W220">
-        <v>0.9997217584863662</v>
+        <v>-0.000278241513633759</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17133,7 +17133,7 @@
         <v>1.727145084276898</v>
       </c>
       <c r="K221">
-        <v>63.33161716384627</v>
+        <v>0.1333161716384628</v>
       </c>
       <c r="L221">
         <v>0.01423380635401612</v>
@@ -17163,13 +17163,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U221">
-        <v>1.000074306626293</v>
+        <v>7.430662629337448E-05</v>
       </c>
       <c r="V221">
-        <v>1.000167022362439</v>
+        <v>0.0001670223624385958</v>
       </c>
       <c r="W221">
-        <v>1.000278318953521</v>
+        <v>0.0002783189535207065</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17204,7 +17204,7 @@
         <v>1.727145084276898</v>
       </c>
       <c r="K222">
-        <v>63.33161716384627</v>
+        <v>0.1333161716384628</v>
       </c>
       <c r="L222">
         <v>0.013632915379854</v>
@@ -17234,13 +17234,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U222">
-        <v>1.000074301105229</v>
+        <v>7.430110522888E-05</v>
       </c>
       <c r="V222">
-        <v>1.000166994470628</v>
+        <v>0.0001669944706275128</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17275,7 +17275,7 @@
         <v>1.727145084276898</v>
       </c>
       <c r="K223">
-        <v>63.33161716384627</v>
+        <v>0.1333161716384628</v>
       </c>
       <c r="L223">
         <v>0.01294395781482986</v>
@@ -17305,13 +17305,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U223">
-        <v>1.000065008636862</v>
+        <v>6.500863686187408E-05</v>
       </c>
       <c r="V223">
-        <v>1.000111311058754</v>
+        <v>0.000111311058753838</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17346,7 +17346,7 @@
         <v>2.107633161328128</v>
       </c>
       <c r="K224">
-        <v>67.8211697428076</v>
+        <v>0.178211697428076</v>
       </c>
       <c r="L224">
         <v>0.01250279227256857</v>
@@ -17376,13 +17376,13 @@
         <v>0.01874999999995453</v>
       </c>
       <c r="U224">
-        <v>1.000083577099875</v>
+        <v>8.357709987460993E-05</v>
       </c>
       <c r="V224">
-        <v>1.000166948004971</v>
+        <v>0.0001669480049710792</v>
       </c>
       <c r="W224">
-        <v>1.000834724540901</v>
+        <v>0.0008347245409014992</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17417,7 +17417,7 @@
         <v>2.374642338206158</v>
       </c>
       <c r="K225">
-        <v>70.36723007121505</v>
+        <v>0.2036723007121505</v>
       </c>
       <c r="L225">
         <v>0.01239709546287523</v>
@@ -17447,13 +17447,13 @@
         <v>0.009374999999977263</v>
       </c>
       <c r="U225">
-        <v>1.000102141252066</v>
+        <v>0.0001021412520660903</v>
       </c>
       <c r="V225">
-        <v>1.000185466819986</v>
+        <v>0.000185466819986102</v>
       </c>
       <c r="W225">
-        <v>1.000556018904643</v>
+        <v>0.0005560189046427411</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17488,7 +17488,7 @@
         <v>2.082049532015343</v>
       </c>
       <c r="K226">
-        <v>67.55405811579858</v>
+        <v>0.1755405811579859</v>
       </c>
       <c r="L226">
         <v>0.01235461580691137</v>
@@ -17518,13 +17518,13 @@
         <v>0</v>
       </c>
       <c r="U226">
-        <v>1.000092846200269</v>
+        <v>9.284620026939194E-05</v>
       </c>
       <c r="V226">
-        <v>1.000129802699896</v>
+        <v>0.0001298026998959312</v>
       </c>
       <c r="W226">
-        <v>0.9997221450402891</v>
+        <v>-0.0002778549597108881</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17559,7 +17559,7 @@
         <v>2.082049532015343</v>
       </c>
       <c r="K227">
-        <v>67.55405811579858</v>
+        <v>0.1755405811579859</v>
       </c>
       <c r="L227">
         <v>0.01230804886743534</v>
@@ -17589,13 +17589,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U227">
-        <v>1.000148540129044</v>
+        <v>0.0001485401290441946</v>
       </c>
       <c r="V227">
-        <v>1.000037081672383</v>
+        <v>3.708167238336557E-05</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17630,7 +17630,7 @@
         <v>2.082049532015343</v>
       </c>
       <c r="K228">
-        <v>67.55405811579858</v>
+        <v>0.1755405811579859</v>
       </c>
       <c r="L228">
         <v>0.01221707129352289</v>
@@ -17660,13 +17660,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U228">
-        <v>1.000120670930373</v>
+        <v>0.0001206709303727127</v>
       </c>
       <c r="V228">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17701,7 +17701,7 @@
         <v>2.22576205757403</v>
       </c>
       <c r="K229">
-        <v>68.99957336741505</v>
+        <v>0.1899957336741506</v>
       </c>
       <c r="L229">
         <v>0.01216182657785565</v>
@@ -17731,13 +17731,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U229">
-        <v>1.0001485001485</v>
+        <v>0.000148500148500208</v>
       </c>
       <c r="V229">
-        <v>1.000055620446076</v>
+        <v>5.562044607598793E-05</v>
       </c>
       <c r="W229">
-        <v>1.000277932184547</v>
+        <v>0.0002779321845469696</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17772,7 +17772,7 @@
         <v>2.22576205757403</v>
       </c>
       <c r="K230">
-        <v>68.99957336741505</v>
+        <v>0.1899957336741506</v>
       </c>
       <c r="L230">
         <v>0.01208737202723693</v>
@@ -17802,13 +17802,13 @@
         <v>0.07812500000002842</v>
       </c>
       <c r="U230">
-        <v>1.000129918337046</v>
+        <v>0.0001299183370455648</v>
       </c>
       <c r="V230">
-        <v>1.000055617352614</v>
+        <v>5.561735261383483E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17843,7 +17843,7 @@
         <v>1.920021226937492</v>
       </c>
       <c r="K231">
-        <v>65.75367361117452</v>
+        <v>0.1575367361117452</v>
       </c>
       <c r="L231">
         <v>0.01186056875981748</v>
@@ -17873,13 +17873,13 @@
         <v>0.09687500000001137</v>
       </c>
       <c r="U231">
-        <v>1.000139180136211</v>
+        <v>0.0001391801362107259</v>
       </c>
       <c r="V231">
-        <v>1.000037076172998</v>
+        <v>3.707617299752997E-05</v>
       </c>
       <c r="W231">
-        <v>0.9997221450402891</v>
+        <v>-0.0002778549597108881</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17914,7 +17914,7 @@
         <v>2.064615502954759</v>
       </c>
       <c r="K232">
-        <v>67.36947917166617</v>
+        <v>0.1736947917166617</v>
       </c>
       <c r="L232">
         <v>0.01161407503325468</v>
@@ -17944,13 +17944,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U232">
-        <v>1.000148438152316</v>
+        <v>0.0001484381523160216</v>
       </c>
       <c r="V232">
-        <v>1.000074149596812</v>
+        <v>7.414959681151245E-05</v>
       </c>
       <c r="W232">
-        <v>1.000277932184547</v>
+        <v>0.0002779321845469696</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17985,7 +17985,7 @@
         <v>2.521229006167354</v>
       </c>
       <c r="K233">
-        <v>71.60082464819747</v>
+        <v>0.2160082464819747</v>
       </c>
       <c r="L233">
         <v>0.01163305361875767</v>
@@ -18015,13 +18015,13 @@
         <v>0.09687499999998295</v>
       </c>
       <c r="U233">
-        <v>1.000166968136914</v>
+        <v>0.0001669681369138587</v>
       </c>
       <c r="V233">
-        <v>1.000129752173349</v>
+        <v>0.0001297521733492069</v>
       </c>
       <c r="W233">
-        <v>1.000833564879133</v>
+        <v>0.0008335648791331085</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18056,7 +18056,7 @@
         <v>3.001874799022717</v>
       </c>
       <c r="K234">
-        <v>75.01171200447834</v>
+        <v>0.2501171200447834</v>
       </c>
       <c r="L234">
         <v>0.0120731316232503</v>
@@ -18086,13 +18086,13 @@
         <v>0.1093749999999716</v>
       </c>
       <c r="U234">
-        <v>1.00019476364041</v>
+        <v>0.0001947636404104891</v>
       </c>
       <c r="V234">
-        <v>1.000203869819853</v>
+        <v>0.0002038698198529865</v>
       </c>
       <c r="W234">
-        <v>1.000832870627429</v>
+        <v>0.0008328706274292053</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18127,7 +18127,7 @@
         <v>3.001874799022716</v>
       </c>
       <c r="K235">
-        <v>75.01171200447834</v>
+        <v>0.2501171200447834</v>
       </c>
       <c r="L235">
         <v>0.01269605539762271</v>
@@ -18157,13 +18157,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U235">
-        <v>1.00018545306183</v>
+        <v>0.0001854530618301542</v>
       </c>
       <c r="V235">
-        <v>1.000222358107733</v>
+        <v>0.0002223581077325232</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18198,7 +18198,7 @@
         <v>2.549311275716335</v>
       </c>
       <c r="K236">
-        <v>71.82551987362177</v>
+        <v>0.2182551987362177</v>
       </c>
       <c r="L236">
         <v>0.01324228530295728</v>
@@ -18228,13 +18228,13 @@
         <v>0.1218749999999886</v>
       </c>
       <c r="U236">
-        <v>1.0001761477416</v>
+        <v>0.0001761477416004631</v>
       </c>
       <c r="V236">
-        <v>1.000185257229663</v>
+        <v>0.0001852572296632271</v>
       </c>
       <c r="W236">
-        <v>0.9997226074895977</v>
+        <v>-0.0002773925104022634</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18269,7 +18269,7 @@
         <v>2.866701365580889</v>
       </c>
       <c r="K237">
-        <v>74.13816311491199</v>
+        <v>0.2413816311491199</v>
       </c>
       <c r="L237">
         <v>0.01386145445891902</v>
@@ -18299,13 +18299,13 @@
         <v>0.1281249999999829</v>
       </c>
       <c r="U237">
-        <v>1.000194655321042</v>
+        <v>0.0001946553210423474</v>
       </c>
       <c r="V237">
-        <v>1.000222267498935</v>
+        <v>0.0002222674989351692</v>
       </c>
       <c r="W237">
-        <v>1.000554938956715</v>
+        <v>0.0005549389567149898</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18340,7 +18340,7 @@
         <v>2.456370946862307</v>
       </c>
       <c r="K238">
-        <v>71.06792021534031</v>
+        <v>0.2106792021534031</v>
       </c>
       <c r="L238">
         <v>0.0143333732205208</v>
@@ -18370,13 +18370,13 @@
         <v>0.1312499999999659</v>
       </c>
       <c r="U238">
-        <v>1.000157547449585</v>
+        <v>0.0001575474495847384</v>
       </c>
       <c r="V238">
-        <v>1.000203699931483</v>
+        <v>0.0002036999314825039</v>
       </c>
       <c r="W238">
-        <v>0.999722684414864</v>
+        <v>-0.0002773155851359954</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18411,7 +18411,7 @@
         <v>2.134730465828723</v>
       </c>
       <c r="K239">
-        <v>68.09933067927638</v>
+        <v>0.1809933067927638</v>
       </c>
       <c r="L239">
         <v>0.01453240879220407</v>
@@ -18441,13 +18441,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U239">
-        <v>1.000148256595102</v>
+        <v>0.000148256595102092</v>
       </c>
       <c r="V239">
-        <v>1.000129600829445</v>
+        <v>0.0001296008294453532</v>
       </c>
       <c r="W239">
-        <v>0.9997226074895977</v>
+        <v>-0.0002773925104022634</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18482,7 +18482,7 @@
         <v>1.87613692298866</v>
       </c>
       <c r="K240">
-        <v>65.23114070101792</v>
+        <v>0.1523114070101792</v>
       </c>
       <c r="L240">
         <v>0.0143992112435484</v>
@@ -18512,13 +18512,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U240">
-        <v>1.000129705291049</v>
+        <v>0.0001297052910493868</v>
       </c>
       <c r="V240">
-        <v>1.000074048020141</v>
+        <v>7.404802014110423E-05</v>
       </c>
       <c r="W240">
-        <v>0.9997225305216427</v>
+        <v>-0.0002774694783572729</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18553,7 +18553,7 @@
         <v>1.357025758941857</v>
       </c>
       <c r="K241">
-        <v>57.5736499184917</v>
+        <v>0.07573649918491698</v>
       </c>
       <c r="L241">
         <v>0.01371709627929396</v>
@@ -18583,13 +18583,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U241">
-        <v>1.000083371159137</v>
+        <v>8.337115913703563E-05</v>
       </c>
       <c r="V241">
-        <v>1.000037021268719</v>
+        <v>3.702126871885092E-05</v>
       </c>
       <c r="W241">
-        <v>0.9991673605328892</v>
+        <v>-0.0008326394671107629</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18624,7 +18624,7 @@
         <v>1.236937957183321</v>
       </c>
       <c r="K242">
-        <v>55.29603327670441</v>
+        <v>0.05296033276704415</v>
       </c>
       <c r="L242">
         <v>0.01259489344448381</v>
@@ -18654,13 +18654,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U242">
-        <v>1.000027788069656</v>
+        <v>2.778806965553215E-05</v>
       </c>
       <c r="V242">
-        <v>1.000018509949097</v>
+        <v>1.850994909746717E-05</v>
       </c>
       <c r="W242">
-        <v>0.9997222222222222</v>
+        <v>-0.0002777777777778212</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18695,7 +18695,7 @@
         <v>1.330088887845074</v>
       </c>
       <c r="K243">
-        <v>57.08318231049007</v>
+        <v>0.07083182310490066</v>
       </c>
       <c r="L243">
         <v>0.01133310567683163</v>
@@ -18725,13 +18725,13 @@
         <v>0.05000000000003979</v>
       </c>
       <c r="U243">
-        <v>1.000018524865</v>
+        <v>1.85248649999803E-05</v>
       </c>
       <c r="V243">
-        <v>1.000037019212972</v>
+        <v>3.701921297150079E-05</v>
       </c>
       <c r="W243">
-        <v>1.000277854959711</v>
+        <v>0.0002778549597111102</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18766,7 +18766,7 @@
         <v>1.330088887845074</v>
       </c>
       <c r="K244">
-        <v>57.08318231049007</v>
+        <v>0.07083182310490066</v>
       </c>
       <c r="L244">
         <v>0.01002597583559291</v>
@@ -18796,13 +18796,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U244">
-        <v>1.000037049043672</v>
+        <v>3.704904367163309E-05</v>
       </c>
       <c r="V244">
-        <v>1.0000185089213</v>
+        <v>1.850892130028647E-05</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18837,7 +18837,7 @@
         <v>1.330088887845074</v>
       </c>
       <c r="K245">
-        <v>57.08318231049007</v>
+        <v>0.07083182310490066</v>
       </c>
       <c r="L245">
         <v>0.008738220203789854</v>
@@ -18867,13 +18867,13 @@
         <v>-0.02187499999996589</v>
       </c>
       <c r="U245">
-        <v>1.000037047671091</v>
+        <v>3.704767109069529E-05</v>
       </c>
       <c r="V245">
-        <v>1.000018508578726</v>
+        <v>1.850857872631728E-05</v>
       </c>
       <c r="W245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18908,7 +18908,7 @@
         <v>1.330088887845074</v>
       </c>
       <c r="K246">
-        <v>57.08318231049007</v>
+        <v>0.07083182310490066</v>
       </c>
       <c r="L246">
         <v>0.007512479397183813</v>
@@ -18938,13 +18938,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U246">
-        <v>1.000037046298612</v>
+        <v>3.704629861167597E-05</v>
       </c>
       <c r="V246">
-        <v>1.00003701647233</v>
+        <v>3.701647233023131E-05</v>
       </c>
       <c r="W246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18979,7 +18979,7 @@
         <v>1.330088887845074</v>
       </c>
       <c r="K247">
-        <v>57.08318231049007</v>
+        <v>0.07083182310490066</v>
       </c>
       <c r="L247">
         <v>0.006375083017961728</v>
@@ -19009,13 +19009,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U247">
-        <v>1.000046306157793</v>
+        <v>4.630615779288583E-05</v>
       </c>
       <c r="V247">
-        <v>1.000018507551081</v>
+        <v>1.850755108079305E-05</v>
       </c>
       <c r="W247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19050,7 +19050,7 @@
         <v>1.330088887845074</v>
       </c>
       <c r="K248">
-        <v>57.08318231049007</v>
+        <v>0.07083182310490066</v>
       </c>
       <c r="L248">
         <v>0.005340484331207971</v>
@@ -19080,13 +19080,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U248">
-        <v>1.000046304013632</v>
+        <v>4.630401363203696E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999629855828845</v>
+        <v>-3.701441711545517E-05</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19121,7 +19121,7 @@
         <v>1.180496262854814</v>
       </c>
       <c r="K249">
-        <v>54.13888035328478</v>
+        <v>0.0413888035328478</v>
       </c>
       <c r="L249">
         <v>0.004313490364734673</v>
@@ -19151,13 +19151,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U249">
-        <v>1.000046301869669</v>
+        <v>4.630186966947392E-05</v>
       </c>
       <c r="V249">
-        <v>0.9998889526383004</v>
+        <v>-0.0001110473616996455</v>
       </c>
       <c r="W249">
-        <v>0.9997222222222222</v>
+        <v>-0.0002777777777778212</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19192,7 +19192,7 @@
         <v>1.29888378002105</v>
       </c>
       <c r="K250">
-        <v>56.5006283183727</v>
+        <v>0.06500628318372703</v>
       </c>
       <c r="L250">
         <v>0.003442011254991324</v>
@@ -19222,13 +19222,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U250">
-        <v>1.000064819616268</v>
+        <v>6.48196162678083E-05</v>
       </c>
       <c r="V250">
-        <v>0.9999074502545118</v>
+        <v>-9.254974548822403E-05</v>
       </c>
       <c r="W250">
-        <v>1.000277854959711</v>
+        <v>0.0002778549597111102</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19263,7 +19263,7 @@
         <v>1.039741783676907</v>
       </c>
       <c r="K251">
-        <v>50.97418663467458</v>
+        <v>0.009741866346745787</v>
       </c>
       <c r="L251">
         <v>0.00250543792066639</v>
@@ -19293,13 +19293,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U251">
-        <v>1.000037037379976</v>
+        <v>3.703737997562406E-05</v>
       </c>
       <c r="V251">
-        <v>0.9998889300259163</v>
+        <v>-0.0001110699740837218</v>
       </c>
       <c r="W251">
-        <v>0.9994444444444445</v>
+        <v>-0.0005555555555555314</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19334,7 +19334,7 @@
         <v>1.249753682338762</v>
       </c>
       <c r="K252">
-        <v>55.55068948879612</v>
+        <v>0.05550689488796112</v>
       </c>
       <c r="L252">
         <v>0.00178229762880747</v>
@@ -19364,13 +19364,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U252">
-        <v>1.000055554012389</v>
+        <v>5.555401238854785E-05</v>
       </c>
       <c r="V252">
-        <v>0.9998889176880068</v>
+        <v>-0.0001110823119931936</v>
       </c>
       <c r="W252">
-        <v>1.000555864369094</v>
+        <v>0.0005558643690939391</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19405,7 +19405,7 @@
         <v>1.1253642683008</v>
       </c>
       <c r="K253">
-        <v>52.94924192926766</v>
+        <v>0.02949241929267665</v>
       </c>
       <c r="L253">
         <v>0.001126893192220996</v>
@@ -19435,13 +19435,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U253">
-        <v>1.000046292438593</v>
+        <v>4.629243859310961E-05</v>
       </c>
       <c r="V253">
-        <v>0.9998889053473561</v>
+        <v>-0.0001110946526439172</v>
       </c>
       <c r="W253">
-        <v>0.9997222222222222</v>
+        <v>-0.0002777777777778212</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19476,7 +19476,7 @@
         <v>1.230133893830598</v>
       </c>
       <c r="K254">
-        <v>55.15964298079224</v>
+        <v>0.05159642980792245</v>
       </c>
       <c r="L254">
         <v>0.0006513291415694437</v>
@@ -19506,13 +19506,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U254">
-        <v>1.000027774177421</v>
+        <v>2.77741774212803E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999259286693086</v>
+        <v>-7.407133069137206E-05</v>
       </c>
       <c r="W254">
-        <v>1.000277854959711</v>
+        <v>0.0002778549597111102</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19547,7 +19547,7 @@
         <v>1.340417710177754</v>
       </c>
       <c r="K255">
-        <v>57.27258447706541</v>
+        <v>0.07272584477065414</v>
       </c>
       <c r="L255">
         <v>0.0004137892194582986</v>
@@ -19577,13 +19577,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U255">
-        <v>1.000018515604025</v>
+        <v>1.851560402532648E-05</v>
       </c>
       <c r="V255">
-        <v>0.9999629615911699</v>
+        <v>-3.703840883007015E-05</v>
       </c>
       <c r="W255">
-        <v>1.000277777777778</v>
+        <v>0.0002777777777778212</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19618,7 +19618,7 @@
         <v>1.456505937911537</v>
       </c>
       <c r="K256">
-        <v>59.2917735484826</v>
+        <v>0.09291773548482596</v>
       </c>
       <c r="L256">
         <v>0.0004352212885515637</v>
@@ -19648,13 +19648,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U256">
-        <v>1.000037030522408</v>
+        <v>3.703052240822124E-05</v>
       </c>
       <c r="V256">
-        <v>1.000037039780725</v>
+        <v>3.703978072455705E-05</v>
       </c>
       <c r="W256">
-        <v>1.000277700638711</v>
+        <v>0.0002777006387113534</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19689,7 +19689,7 @@
         <v>1.17045186834534</v>
       </c>
       <c r="K257">
-        <v>53.92664474230624</v>
+        <v>0.0392664474230624</v>
       </c>
       <c r="L257">
         <v>0.0004083023682159316</v>
@@ -19719,13 +19719,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U257">
-        <v>1.0000185145756</v>
+        <v>1.851457559953751E-05</v>
       </c>
       <c r="V257">
-        <v>1.000018519204415</v>
+        <v>1.851920441509058E-05</v>
       </c>
       <c r="W257">
-        <v>0.9994447529150472</v>
+        <v>-0.0005552470849528035</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19760,7 +19760,7 @@
         <v>1.17045186834534</v>
       </c>
       <c r="K258">
-        <v>53.92664474230626</v>
+        <v>0.03926644742306262</v>
       </c>
       <c r="L258">
         <v>0.0003523202549089123</v>
@@ -19790,13 +19790,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U258">
-        <v>1.000018514232817</v>
+        <v>1.851423281662434E-05</v>
       </c>
       <c r="V258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19831,7 +19831,7 @@
         <v>1.17045186834534</v>
       </c>
       <c r="K259">
-        <v>53.92664474230626</v>
+        <v>0.03926644742306262</v>
       </c>
       <c r="L259">
         <v>0.0002810157153919223</v>
@@ -19861,13 +19861,13 @@
         <v>0.01562499999997158</v>
       </c>
       <c r="U259">
-        <v>1.000009256945023</v>
+        <v>9.256945022961816E-06</v>
       </c>
       <c r="V259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19902,7 +19902,7 @@
         <v>1.514054367801991</v>
       </c>
       <c r="K260">
-        <v>60.22361279027198</v>
+        <v>0.1022361279027197</v>
       </c>
       <c r="L260">
         <v>0.0005073799375914994</v>
@@ -19932,13 +19932,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U260">
-        <v>1.000037027437331</v>
+        <v>3.702743733091651E-05</v>
       </c>
       <c r="V260">
-        <v>1.000055556584381</v>
+        <v>5.555658438094468E-05</v>
       </c>
       <c r="W260">
-        <v>1.000833333333333</v>
+        <v>0.0008333333333334636</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19973,7 +19973,7 @@
         <v>1.111896158221741</v>
       </c>
       <c r="K261">
-        <v>52.64918703000908</v>
+        <v>0.02649187030009081</v>
       </c>
       <c r="L261">
         <v>0.0005943740087740275</v>
@@ -20003,13 +20003,13 @@
         <v>0.03125</v>
       </c>
       <c r="U261">
-        <v>1.000018513033176</v>
+        <v>1.851303317557118E-05</v>
       </c>
       <c r="V261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W261">
-        <v>0.9991673605328892</v>
+        <v>-0.0008326394671107629</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20044,7 +20044,7 @@
         <v>1.01710328936679</v>
       </c>
       <c r="K262">
-        <v>50.42395670704993</v>
+        <v>0.004239567070499328</v>
       </c>
       <c r="L262">
         <v>0.0004880843470842849</v>
@@ -20074,13 +20074,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V262">
-        <v>0.9999814821673273</v>
+        <v>-1.851783267270424E-05</v>
       </c>
       <c r="W262">
-        <v>0.9997222222222222</v>
+        <v>-0.0002777777777778212</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20115,7 +20115,7 @@
         <v>0.862331416942873</v>
       </c>
       <c r="K263">
-        <v>46.30386455910414</v>
+        <v>-0.03696135440895859</v>
       </c>
       <c r="L263">
         <v>6.741310639326863E-05</v>
@@ -20145,13 +20145,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U263">
-        <v>0.9999537182738766</v>
+        <v>-4.628172612342052E-05</v>
       </c>
       <c r="V263">
-        <v>0.9999444454732319</v>
+        <v>-5.555452676808681E-05</v>
       </c>
       <c r="W263">
-        <v>0.999444290080578</v>
+        <v>-0.0005557099194219983</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20186,7 +20186,7 @@
         <v>1.10259869679948</v>
       </c>
       <c r="K264">
-        <v>52.43980691502504</v>
+        <v>0.02439806915025045</v>
       </c>
       <c r="L264">
         <v>-0.0002137303108468662</v>
@@ -20216,13 +20216,13 @@
         <v>0</v>
       </c>
       <c r="U264">
-        <v>0.9999537161317795</v>
+        <v>-4.628386822047581E-05</v>
       </c>
       <c r="V264">
-        <v>1.000018519204415</v>
+        <v>1.851920441486854E-05</v>
       </c>
       <c r="W264">
-        <v>1.000834028356964</v>
+        <v>0.0008340283569641116</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20257,7 +20257,7 @@
         <v>1.10259869679948</v>
       </c>
       <c r="K265">
-        <v>52.43980691502504</v>
+        <v>0.02439806915025045</v>
       </c>
       <c r="L265">
         <v>-0.0003916528720937541</v>
@@ -20287,13 +20287,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U265">
-        <v>0.9999537139894838</v>
+        <v>-4.628601051615E-05</v>
       </c>
       <c r="V265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20328,7 +20328,7 @@
         <v>1.10259869679948</v>
       </c>
       <c r="K266">
-        <v>52.43980691502503</v>
+        <v>0.02439806915025033</v>
       </c>
       <c r="L266">
         <v>-0.0004942784944961948</v>
@@ -20358,13 +20358,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U266">
-        <v>0.9999629694775919</v>
+        <v>-3.703052240811022E-05</v>
       </c>
       <c r="V266">
-        <v>1.000037037722921</v>
+        <v>3.703772292107388E-05</v>
       </c>
       <c r="W266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20399,7 +20399,7 @@
         <v>1.10259869679948</v>
       </c>
       <c r="K267">
-        <v>52.43980691502504</v>
+        <v>0.02439806915025045</v>
       </c>
       <c r="L267">
         <v>-0.0005429479670645506</v>
@@ -20429,13 +20429,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U267">
-        <v>0.9999444521594222</v>
+        <v>-5.55478405778187E-05</v>
       </c>
       <c r="V267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20470,7 +20470,7 @@
         <v>1.003887999781786</v>
       </c>
       <c r="K268">
-        <v>50.0970114043851</v>
+        <v>0.0009701140438509448</v>
       </c>
       <c r="L268">
         <v>-0.0006549944079714151</v>
@@ -20500,13 +20500,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U268">
-        <v>0.9999444490736884</v>
+        <v>-5.55509263115983E-05</v>
       </c>
       <c r="V268">
-        <v>0.9999999999999997</v>
+        <v>-3.33066907387547E-16</v>
       </c>
       <c r="W268">
-        <v>0.9997222222222222</v>
+        <v>-0.0002777777777778212</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20541,7 +20541,7 @@
         <v>1.192362731635432</v>
       </c>
       <c r="K269">
-        <v>54.38711005390828</v>
+        <v>0.04387110053908283</v>
       </c>
       <c r="L269">
         <v>-0.0005936247564760715</v>
@@ -20571,13 +20571,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U269">
-        <v>0.9999722229938057</v>
+        <v>-2.777700619427392E-05</v>
       </c>
       <c r="V269">
-        <v>1.000018518175589</v>
+        <v>1.851817558939928E-05</v>
       </c>
       <c r="W269">
-        <v>1.000555709919422</v>
+        <v>0.0005557099194222204</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20612,7 +20612,7 @@
         <v>1.084757768697811</v>
       </c>
       <c r="K270">
-        <v>52.03279656683455</v>
+        <v>0.02032796566834549</v>
       </c>
       <c r="L270">
         <v>-0.0005300863127968688</v>
@@ -20642,13 +20642,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U270">
-        <v>0.9999722222222223</v>
+        <v>-2.777777777773771E-05</v>
       </c>
       <c r="V270">
-        <v>0.9999814821673273</v>
+        <v>-1.851783267270424E-05</v>
       </c>
       <c r="W270">
-        <v>0.9997222993612884</v>
+        <v>-0.0002777006387115755</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20683,7 +20683,7 @@
         <v>1.084757768697811</v>
       </c>
       <c r="K271">
-        <v>52.03279656683455</v>
+        <v>0.02032796566834549</v>
       </c>
       <c r="L271">
         <v>-0.0004673524791036347</v>
@@ -20713,13 +20713,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V271">
-        <v>0.9999629636488211</v>
+        <v>-3.703635117890958E-05</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20754,7 +20754,7 @@
         <v>0.9861482360331348</v>
       </c>
       <c r="K272">
-        <v>49.65129078193753</v>
+        <v>-0.003487092180624651</v>
       </c>
       <c r="L272">
         <v>-0.0005085476824704878</v>
@@ -20784,13 +20784,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U272">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V272">
-        <v>0.9999814811385396</v>
+        <v>-1.851886146042592E-05</v>
       </c>
       <c r="W272">
-        <v>0.9997222222222222</v>
+        <v>-0.0002777777777778212</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20825,7 +20825,7 @@
         <v>1.08183734844455</v>
       </c>
       <c r="K273">
-        <v>51.9655077402107</v>
+        <v>0.01965507740210704</v>
       </c>
       <c r="L273">
         <v>-0.0005070841667689249</v>
@@ -20855,13 +20855,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W273">
-        <v>1.000277854959711</v>
+        <v>0.0002778549597111102</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20896,7 +20896,7 @@
         <v>1.08183734844455</v>
       </c>
       <c r="K274">
-        <v>51.9655077402107</v>
+        <v>0.01965507740210704</v>
       </c>
       <c r="L274">
         <v>-0.0004780233163174049</v>
@@ -20926,13 +20926,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20967,7 +20967,7 @@
         <v>1.187864065797918</v>
       </c>
       <c r="K275">
-        <v>54.29332125187138</v>
+        <v>0.04293321251871374</v>
       </c>
       <c r="L275">
         <v>-0.0003312067998669915</v>
@@ -20997,13 +20997,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U275">
-        <v>1.000009259516468</v>
+        <v>9.259516468018703E-06</v>
       </c>
       <c r="V275">
-        <v>0.9999629615911703</v>
+        <v>-3.703840882973708E-05</v>
       </c>
       <c r="W275">
-        <v>1.000277777777778</v>
+        <v>0.0002777777777778212</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21038,7 +21038,7 @@
         <v>1.41107820759442</v>
       </c>
       <c r="K276">
-        <v>58.52477962555518</v>
+        <v>0.08524779625555179</v>
       </c>
       <c r="L276">
         <v>8.109646049932739E-05</v>
@@ -21068,13 +21068,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U276">
-        <v>1.00002777829219</v>
+        <v>2.777829219047234E-05</v>
       </c>
       <c r="V276">
-        <v>1.000055559671087</v>
+        <v>5.555967108694659E-05</v>
       </c>
       <c r="W276">
-        <v>1.000555401277423</v>
+        <v>0.0005554012774229289</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21109,7 +21109,7 @@
         <v>1.41107820759442</v>
       </c>
       <c r="K277">
-        <v>58.52477962555518</v>
+        <v>0.08524779625555179</v>
       </c>
       <c r="L277">
         <v>0.0006276694239050234</v>
@@ -21139,13 +21139,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U277">
-        <v>1.000027777520579</v>
+        <v>2.777752057858685E-05</v>
       </c>
       <c r="V277">
-        <v>1.000074075445841</v>
+        <v>7.407544584148162E-05</v>
       </c>
       <c r="W277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21180,7 +21180,7 @@
         <v>1.534742552079982</v>
       </c>
       <c r="K278">
-        <v>60.54826162998641</v>
+        <v>0.1054826162998641</v>
       </c>
       <c r="L278">
         <v>0.00131961049377833</v>
@@ -21210,13 +21210,13 @@
         <v>0.04062500000000568</v>
       </c>
       <c r="U278">
-        <v>1.000037035665346</v>
+        <v>3.703566534563052E-05</v>
       </c>
       <c r="V278">
-        <v>1.000129622428384</v>
+        <v>0.0001296224283835468</v>
       </c>
       <c r="W278">
-        <v>1.000277546489037</v>
+        <v>0.0002775464890367729</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21251,7 +21251,7 @@
         <v>1.664915546275384</v>
       </c>
       <c r="K279">
-        <v>62.47535868828381</v>
+        <v>0.124753586882838</v>
       </c>
       <c r="L279">
         <v>0.002151848184675359</v>
@@ -21281,13 +21281,13 @@
         <v>0.046875</v>
       </c>
       <c r="U279">
-        <v>1.000055551440634</v>
+        <v>5.555144063418282E-05</v>
       </c>
       <c r="V279">
-        <v>1.000092575448991</v>
+        <v>9.25754489911057E-05</v>
       </c>
       <c r="W279">
-        <v>1.000277469478357</v>
+        <v>0.0002774694783573839</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21322,7 +21322,7 @@
         <v>2.075988159523943</v>
       </c>
       <c r="K280">
-        <v>67.49012193353938</v>
+        <v>0.1749012193353938</v>
       </c>
       <c r="L280">
         <v>0.003311608429050518</v>
@@ -21352,13 +21352,13 @@
         <v>0.078125</v>
       </c>
       <c r="U280">
-        <v>1.000074064473124</v>
+        <v>7.406447312385822E-05</v>
       </c>
       <c r="V280">
-        <v>1.000148107007313</v>
+        <v>0.0001481070073128254</v>
       </c>
       <c r="W280">
-        <v>1.000832177531207</v>
+        <v>0.0008321775312067903</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21393,7 +21393,7 @@
         <v>2.075988159523943</v>
       </c>
       <c r="K281">
-        <v>67.49012193353938</v>
+        <v>0.1749012193353938</v>
       </c>
       <c r="L281">
         <v>0.004583747943767432</v>
@@ -21423,13 +21423,13 @@
         <v>0.1031249999999773</v>
       </c>
       <c r="U281">
-        <v>1.00009257373498</v>
+        <v>9.257373497995047E-05</v>
       </c>
       <c r="V281">
-        <v>1.000148085074876</v>
+        <v>0.0001480850748756257</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21464,7 +21464,7 @@
         <v>1.802343135456422</v>
       </c>
       <c r="K282">
-        <v>64.315576228065</v>
+        <v>0.14315576228065</v>
       </c>
       <c r="L282">
         <v>0.005724975734820564</v>
@@ -21494,13 +21494,13 @@
         <v>0.125</v>
       </c>
       <c r="U282">
-        <v>1.000064795616114</v>
+        <v>6.479561611372198E-05</v>
       </c>
       <c r="V282">
-        <v>1.000129555255316</v>
+        <v>0.000129555255316216</v>
       </c>
       <c r="W282">
-        <v>0.9997228381374722</v>
+        <v>-0.0002771618625277972</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21535,7 +21535,7 @@
         <v>1.941095079890122</v>
       </c>
       <c r="K283">
-        <v>65.99905909749236</v>
+        <v>0.1599905909749236</v>
       </c>
       <c r="L283">
         <v>0.006794363902333529</v>
@@ -21565,13 +21565,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U283">
-        <v>1.000083303251604</v>
+        <v>8.330325160366137E-05</v>
       </c>
       <c r="V283">
-        <v>1.000166549465191</v>
+        <v>0.0001665494651912347</v>
       </c>
       <c r="W283">
-        <v>1.000277238702523</v>
+        <v>0.0002772387025229417</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21606,7 +21606,7 @@
         <v>1.941095079890122</v>
       </c>
       <c r="K284">
-        <v>65.99905909749236</v>
+        <v>0.1599905909749236</v>
       </c>
       <c r="L284">
         <v>0.007727237022918907</v>
@@ -21636,13 +21636,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U284">
-        <v>1.000074041166889</v>
+        <v>7.404116688869422E-05</v>
       </c>
       <c r="V284">
-        <v>1.000129516901956</v>
+        <v>0.0001295169019555065</v>
       </c>
       <c r="W284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21677,7 +21677,7 @@
         <v>1.941095079890122</v>
       </c>
       <c r="K285">
-        <v>65.99905909749236</v>
+        <v>0.1599905909749236</v>
       </c>
       <c r="L285">
         <v>0.008489723928841881</v>
@@ -21707,13 +21707,13 @@
         <v>0.1562500000000284</v>
       </c>
       <c r="U285">
-        <v>1.00006478122455</v>
+        <v>6.47812245502255E-05</v>
       </c>
       <c r="V285">
-        <v>1.000148000148</v>
+        <v>0.0001480001480000936</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21748,7 +21748,7 @@
         <v>1.670717174573488</v>
       </c>
       <c r="K286">
-        <v>62.55687387940284</v>
+        <v>0.1255687387940284</v>
       </c>
       <c r="L286">
         <v>0.00896829274946102</v>
@@ -21778,13 +21778,13 @@
         <v>0.1531250000000171</v>
       </c>
       <c r="U286">
-        <v>1.000046269305868</v>
+        <v>4.62693058675967E-05</v>
       </c>
       <c r="V286">
-        <v>1.000129480966298</v>
+        <v>0.0001294809662979457</v>
       </c>
       <c r="W286">
-        <v>0.9997228381374722</v>
+        <v>-0.0002771618625277972</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21819,7 +21819,7 @@
         <v>1.457076843928733</v>
       </c>
       <c r="K287">
-        <v>59.3012321746904</v>
+        <v>0.09301232174690399</v>
       </c>
       <c r="L287">
         <v>0.00911056952995761</v>
@@ -21849,13 +21849,13 @@
         <v>0.140625</v>
       </c>
       <c r="U287">
-        <v>1.000055520598142</v>
+        <v>5.5520598142067E-05</v>
       </c>
       <c r="V287">
-        <v>1.000129464203148</v>
+        <v>0.0001294642031479665</v>
       </c>
       <c r="W287">
-        <v>0.9997227612974772</v>
+        <v>-0.0002772387025228307</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21890,7 +21890,7 @@
         <v>1.457076843928733</v>
       </c>
       <c r="K288">
-        <v>59.3012321746904</v>
+        <v>0.09301232174690399</v>
       </c>
       <c r="L288">
         <v>0.009006879936661169</v>
@@ -21920,13 +21920,13 @@
         <v>0.1062499999999602</v>
       </c>
       <c r="U288">
-        <v>1.000055517515776</v>
+        <v>5.551751577614894E-05</v>
       </c>
       <c r="V288">
-        <v>1.00011095495229</v>
+        <v>0.0001109549522895215</v>
       </c>
       <c r="W288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21961,7 +21961,7 @@
         <v>1.276247831319114</v>
       </c>
       <c r="K289">
-        <v>56.06805259774867</v>
+        <v>0.06068052597748663</v>
       </c>
       <c r="L289">
         <v>0.008626923283564847</v>
@@ -21991,13 +21991,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U289">
-        <v>1.000046262028127</v>
+        <v>4.626202812740843E-05</v>
       </c>
       <c r="V289">
-        <v>1.000092452202211</v>
+        <v>9.245220221143491E-05</v>
       </c>
       <c r="W289">
-        <v>0.999722684414864</v>
+        <v>-0.0002773155851359954</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22032,7 +22032,7 @@
         <v>1.406883583205421</v>
       </c>
       <c r="K290">
-        <v>58.45249820233401</v>
+        <v>0.08452498202334013</v>
       </c>
       <c r="L290">
         <v>0.008173511846886109</v>
@@ -22062,13 +22062,13 @@
         <v>0.046875</v>
       </c>
       <c r="U290">
-        <v>1.000027755932831</v>
+        <v>2.775593283055322E-05</v>
       </c>
       <c r="V290">
-        <v>1.000092443655592</v>
+        <v>9.244365559180068E-05</v>
       </c>
       <c r="W290">
-        <v>1.000277392510402</v>
+        <v>0.0002773925104022634</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22103,7 +22103,7 @@
         <v>1.819417536530444</v>
       </c>
       <c r="K291">
-        <v>64.53168120566515</v>
+        <v>0.1453168120566515</v>
       </c>
       <c r="L291">
         <v>0.007977925254356116</v>
@@ -22133,13 +22133,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U291">
-        <v>1.000083265487381</v>
+        <v>8.326548738080142E-05</v>
       </c>
       <c r="V291">
-        <v>1.000110922132663</v>
+        <v>0.0001109221326629495</v>
       </c>
       <c r="W291">
-        <v>1.000831946755407</v>
+        <v>0.0008319467554074311</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22174,7 +22174,7 @@
         <v>1.589359698104362</v>
       </c>
       <c r="K292">
-        <v>61.38041382461898</v>
+        <v>0.1138041382461898</v>
       </c>
       <c r="L292">
         <v>0.007820819729234691</v>
@@ -22204,13 +22204,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U292">
-        <v>1.000083258554817</v>
+        <v>8.325855481650102E-05</v>
       </c>
       <c r="V292">
-        <v>1.00009242485859</v>
+        <v>9.242485858962368E-05</v>
       </c>
       <c r="W292">
-        <v>0.9997229149348851</v>
+        <v>-0.0002770850651149237</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22245,7 +22245,7 @@
         <v>1.402663850851152</v>
       </c>
       <c r="K293">
-        <v>58.37952946910379</v>
+        <v>0.08379529469103797</v>
       </c>
       <c r="L293">
         <v>0.007567481603540684</v>
@@ -22275,13 +22275,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U293">
-        <v>1.000092501803785</v>
+        <v>9.250180378517214E-05</v>
       </c>
       <c r="V293">
-        <v>1.000055449790215</v>
+        <v>5.544979021521179E-05</v>
       </c>
       <c r="W293">
-        <v>0.9997228381374722</v>
+        <v>-0.0002771618625277972</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22316,7 +22316,7 @@
         <v>1.124562833261783</v>
       </c>
       <c r="K294">
-        <v>52.9314932773851</v>
+        <v>0.029314932773851</v>
       </c>
       <c r="L294">
         <v>0.007042356140228766</v>
@@ -22346,13 +22346,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U294">
-        <v>1.000046246623997</v>
+        <v>4.624662399654866E-05</v>
       </c>
       <c r="V294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W294">
-        <v>0.9994455225949543</v>
+        <v>-0.0005544774050456613</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22387,7 +22387,7 @@
         <v>0.7389914517633255</v>
       </c>
       <c r="K295">
-        <v>42.49540450667501</v>
+        <v>-0.07504595493324989</v>
       </c>
       <c r="L295">
         <v>0.005855290271279052</v>
@@ -22417,13 +22417,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V295">
-        <v>0.9998521420914501</v>
+        <v>-0.0001478579085498755</v>
       </c>
       <c r="W295">
-        <v>0.9986130374479889</v>
+        <v>-0.001386962552011095</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22458,7 +22458,7 @@
         <v>0.7389914517633255</v>
       </c>
       <c r="K296">
-        <v>42.49540450667501</v>
+        <v>-0.07504595493324989</v>
       </c>
       <c r="L296">
         <v>0.004321668690862738</v>
@@ -22488,13 +22488,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V296">
-        <v>0.999852120226256</v>
+        <v>-0.0001478797737439752</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22529,7 +22529,7 @@
         <v>0.6868072860805702</v>
       </c>
       <c r="K297">
-        <v>40.71640499469392</v>
+        <v>-0.09283595005306083</v>
       </c>
       <c r="L297">
         <v>0.002559135473051417</v>
@@ -22559,13 +22559,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U297">
-        <v>0.9999907511029308</v>
+        <v>-9.248897069213946E-06</v>
       </c>
       <c r="V297">
-        <v>0.9998520983545942</v>
+        <v>-0.0001479016454057902</v>
       </c>
       <c r="W297">
-        <v>0.9997222222222222</v>
+        <v>-0.0002777777777778212</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22600,7 +22600,7 @@
         <v>0.7611392700130206</v>
       </c>
       <c r="K298">
-        <v>43.21857350937347</v>
+        <v>-0.0678142649062653</v>
       </c>
       <c r="L298">
         <v>0.0008619564832400143</v>
@@ -22630,13 +22630,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U298">
-        <v>1.000009248982612</v>
+        <v>9.248982612009016E-06</v>
       </c>
       <c r="V298">
-        <v>0.9998520764764615</v>
+        <v>-0.0001479235235385401</v>
       </c>
       <c r="W298">
-        <v>1.000277854959711</v>
+        <v>0.0002778549597111102</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22671,7 +22671,7 @@
         <v>0.7611392700130206</v>
       </c>
       <c r="K299">
-        <v>43.21857350937347</v>
+        <v>-0.0678142649062653</v>
       </c>
       <c r="L299">
         <v>-0.0006906516198144174</v>
@@ -22701,13 +22701,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U299">
-        <v>0.9999907511029308</v>
+        <v>-9.248897069213946E-06</v>
       </c>
       <c r="V299">
-        <v>0.9998520545918558</v>
+        <v>-0.0001479454081442233</v>
       </c>
       <c r="W299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22742,7 +22742,7 @@
         <v>0.8435015790794477</v>
       </c>
       <c r="K300">
-        <v>45.75540312260813</v>
+        <v>-0.04244596877391871</v>
       </c>
       <c r="L300">
         <v>-0.001953255729396876</v>
@@ -22772,13 +22772,13 @@
         <v>-0.1343750000000341</v>
       </c>
       <c r="U300">
-        <v>1.000009248982612</v>
+        <v>9.248982612009016E-06</v>
       </c>
       <c r="V300">
-        <v>0.9998705286131766</v>
+        <v>-0.0001294713868233988</v>
       </c>
       <c r="W300">
-        <v>1.000277777777778</v>
+        <v>0.0002777777777778212</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22813,7 +22813,7 @@
         <v>1.103593081394382</v>
       </c>
       <c r="K301">
-        <v>52.46228898332644</v>
+        <v>0.02462288983326433</v>
       </c>
       <c r="L301">
         <v>-0.002649585638879922</v>
@@ -22843,13 +22843,13 @@
         <v>-0.140625</v>
       </c>
       <c r="U301">
-        <v>1.000036995588276</v>
+        <v>3.699558827596761E-05</v>
       </c>
       <c r="V301">
-        <v>0.9999445050777853</v>
+        <v>-5.549492221468277E-05</v>
       </c>
       <c r="W301">
-        <v>1.000833101916134</v>
+        <v>0.0008331019161342823</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22884,7 +22884,7 @@
         <v>1.377373610146996</v>
       </c>
       <c r="K302">
-        <v>57.93677545120186</v>
+        <v>0.07936775451201861</v>
       </c>
       <c r="L302">
         <v>-0.002645769803888231</v>
@@ -22914,13 +22914,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U302">
-        <v>1.000073988439306</v>
+        <v>7.398843930639387E-05</v>
       </c>
       <c r="V302">
-        <v>1.000018499334024</v>
+        <v>1.84993340239803E-05</v>
       </c>
       <c r="W302">
-        <v>1.000832408435072</v>
+        <v>0.0008324084350721517</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22955,7 +22955,7 @@
         <v>1.473436953568985</v>
       </c>
       <c r="K303">
-        <v>59.5704269495499</v>
+        <v>0.09570426949549904</v>
       </c>
       <c r="L303">
         <v>-0.002107332898919608</v>
@@ -22985,13 +22985,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U303">
-        <v>1.000073982965422</v>
+        <v>7.39829654221591E-05</v>
       </c>
       <c r="V303">
-        <v>1.00003699798361</v>
+        <v>3.699798360989881E-05</v>
       </c>
       <c r="W303">
-        <v>1.000277238702523</v>
+        <v>0.0002772387025229417</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23026,7 +23026,7 @@
         <v>1.877914189029872</v>
       </c>
       <c r="K304">
-        <v>65.2526123325069</v>
+        <v>0.152526123325069</v>
       </c>
       <c r="L304">
         <v>-0.0008674964624414889</v>
@@ -23056,13 +23056,13 @@
         <v>-0.02812499999996021</v>
       </c>
       <c r="U304">
-        <v>1.000110966238522</v>
+        <v>0.0001109662385219146</v>
       </c>
       <c r="V304">
-        <v>1.000129488151834</v>
+        <v>0.0001294881518338897</v>
       </c>
       <c r="W304">
-        <v>1.001108647450111</v>
+        <v>0.001108647450110745</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23097,7 +23097,7 @@
         <v>2.942327966558585</v>
       </c>
       <c r="K305">
-        <v>74.63427679070192</v>
+        <v>0.2463427679070191</v>
       </c>
       <c r="L305">
         <v>0.001731730331637098</v>
@@ -23127,13 +23127,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U305">
-        <v>1.000194169371168</v>
+        <v>0.0001941693711684511</v>
       </c>
       <c r="V305">
-        <v>1.000295934598454</v>
+        <v>0.0002959345984538952</v>
       </c>
       <c r="W305">
-        <v>1.002768549280177</v>
+        <v>0.002768549280177224</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23168,7 +23168,7 @@
         <v>1.649005158918475</v>
       </c>
       <c r="K306">
-        <v>62.24997914280107</v>
+        <v>0.1224997914280107</v>
       </c>
       <c r="L306">
         <v>0.004275278044858631</v>
@@ -23198,13 +23198,13 @@
         <v>0.1281250000000114</v>
       </c>
       <c r="U306">
-        <v>1.00011093238671</v>
+        <v>0.0001109323867103384</v>
       </c>
       <c r="V306">
-        <v>1.000110942642654</v>
+        <v>0.0001109426426535443</v>
       </c>
       <c r="W306">
-        <v>0.9980673660960796</v>
+        <v>-0.0019326339039204</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23239,7 +23239,7 @@
         <v>1.376124270365229</v>
       </c>
       <c r="K307">
-        <v>57.91465907436347</v>
+        <v>0.07914659074363473</v>
       </c>
       <c r="L307">
         <v>0.006304161860046164</v>
@@ -23269,13 +23269,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U307">
-        <v>1.000083190061561</v>
+        <v>8.31900615605452E-05</v>
       </c>
       <c r="V307">
-        <v>1.000073953557166</v>
+        <v>7.395355716632857E-05</v>
       </c>
       <c r="W307">
-        <v>0.9991701244813278</v>
+        <v>-0.0008298755186721962</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23310,7 +23310,7 @@
         <v>1.43418817615491</v>
       </c>
       <c r="K308">
-        <v>58.91854172179822</v>
+        <v>0.08918541721798223</v>
       </c>
       <c r="L308">
         <v>0.007969855916802588</v>
@@ -23340,13 +23340,13 @@
         <v>0.2531250000000114</v>
       </c>
       <c r="U308">
-        <v>1.00008318314155</v>
+        <v>8.318314154998063E-05</v>
       </c>
       <c r="V308">
-        <v>1.000110922132663</v>
+        <v>0.0001109221326625054</v>
       </c>
       <c r="W308">
-        <v>1.000276854928018</v>
+        <v>0.0002768549280178778</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23381,7 +23381,7 @@
         <v>1.43418817615491</v>
       </c>
       <c r="K309">
-        <v>58.91854172179822</v>
+        <v>0.08918541721798223</v>
       </c>
       <c r="L309">
         <v>0.00928019578131721</v>
@@ -23411,13 +23411,13 @@
         <v>0.2906250000000057</v>
       </c>
       <c r="U309">
-        <v>1.000073934420169</v>
+        <v>7.393442016945251E-05</v>
       </c>
       <c r="V309">
-        <v>1.000147879773744</v>
+        <v>0.0001478797737439752</v>
       </c>
       <c r="W309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23452,7 +23452,7 @@
         <v>1.270684752827412</v>
       </c>
       <c r="K310">
-        <v>55.96042124496499</v>
+        <v>0.05960421244964986</v>
       </c>
       <c r="L310">
         <v>0.01005583105579488</v>
@@ -23482,13 +23482,13 @@
         <v>0.2968750000000284</v>
       </c>
       <c r="U310">
-        <v>1.000027723357853</v>
+        <v>2.772335785294899E-05</v>
       </c>
       <c r="V310">
-        <v>1.000203304624256</v>
+        <v>0.0002033046242559955</v>
       </c>
       <c r="W310">
-        <v>0.9994464433988376</v>
+        <v>-0.0005535566011624082</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23523,7 +23523,7 @@
         <v>1.02473852477377</v>
       </c>
       <c r="K311">
-        <v>50.61090665463912</v>
+        <v>0.006109066546391206</v>
       </c>
       <c r="L311">
         <v>0.01001750017581554</v>
@@ -23553,13 +23553,13 @@
         <v>0.2687500000000114</v>
       </c>
       <c r="U311">
-        <v>0.9999907591369034</v>
+        <v>-9.240863096615648E-06</v>
       </c>
       <c r="V311">
-        <v>1.000129349372656</v>
+        <v>0.0001293493726555184</v>
       </c>
       <c r="W311">
-        <v>0.9988922736084186</v>
+        <v>-0.00110772639158141</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23594,7 +23594,7 @@
         <v>1.075673811003543</v>
       </c>
       <c r="K312">
-        <v>51.82287338700286</v>
+        <v>0.01822873387002855</v>
       </c>
       <c r="L312">
         <v>0.009553129331354432</v>
@@ -23624,13 +23624,13 @@
         <v>0.2187500000000284</v>
       </c>
       <c r="U312">
-        <v>1.000009240948491</v>
+        <v>9.240948490862877E-06</v>
       </c>
       <c r="V312">
-        <v>1.000166284827433</v>
+        <v>0.0001662848274333051</v>
       </c>
       <c r="W312">
-        <v>1.000277238702523</v>
+        <v>0.0002772387025229417</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23665,7 +23665,7 @@
         <v>1.020935253769026</v>
       </c>
       <c r="K313">
-        <v>50.51795953705053</v>
+        <v>0.005179595370505274</v>
       </c>
       <c r="L313">
         <v>0.008724578047212739</v>
@@ -23695,13 +23695,13 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="U313">
-        <v>0.9999907591369034</v>
+        <v>-9.240863096615648E-06</v>
       </c>
       <c r="V313">
-        <v>1.000129311141079</v>
+        <v>0.0001293111410785031</v>
       </c>
       <c r="W313">
-        <v>0.9997228381374722</v>
+        <v>-0.0002771618625277972</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23736,7 +23736,7 @@
         <v>0.9690282927347377</v>
       </c>
       <c r="K314">
-        <v>49.21352813010506</v>
+        <v>-0.007864718698949391</v>
       </c>
       <c r="L314">
         <v>0.007595566650961004</v>
@@ -23766,13 +23766,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U314">
-        <v>0.9999815181030183</v>
+        <v>-1.848189698172575E-05</v>
       </c>
       <c r="V314">
-        <v>1.000110823790174</v>
+        <v>0.0001108237901736864</v>
       </c>
       <c r="W314">
-        <v>0.9997227612974772</v>
+        <v>-0.0002772387025228307</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23807,7 +23807,7 @@
         <v>1.076065259379166</v>
       </c>
       <c r="K315">
-        <v>51.83195732974966</v>
+        <v>0.01831957329749656</v>
       </c>
       <c r="L315">
         <v>0.006530816178163958</v>
@@ -23837,13 +23837,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U315">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="V315">
-        <v>1.000129280094559</v>
+        <v>0.0001292800945589256</v>
       </c>
       <c r="W315">
-        <v>1.000554631170272</v>
+        <v>0.0005546311702717688</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23878,7 +23878,7 @@
         <v>0.9671014625490215</v>
       </c>
       <c r="K316">
-        <v>49.16378137891404</v>
+        <v>-0.008362186210859601</v>
       </c>
       <c r="L316">
         <v>0.005347187792213717</v>
@@ -23908,13 +23908,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U316">
-        <v>0.9999907588807156</v>
+        <v>-9.241119284353339E-06</v>
       </c>
       <c r="V316">
-        <v>1.000036932395251</v>
+        <v>3.693239525071057E-05</v>
       </c>
       <c r="W316">
-        <v>0.9994456762749446</v>
+        <v>-0.0005543237250553723</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23949,7 +23949,7 @@
         <v>0.87394672022521</v>
       </c>
       <c r="K317">
-        <v>46.63668986918579</v>
+        <v>-0.03363310130814207</v>
       </c>
       <c r="L317">
         <v>0.00394565738927203</v>
@@ -23979,13 +23979,13 @@
         <v>-0.1406249999999716</v>
       </c>
       <c r="U317">
-        <v>0.9999815175906331</v>
+        <v>-1.848240936686008E-05</v>
       </c>
       <c r="V317">
-        <v>0.9999446034530515</v>
+        <v>-5.539654694852736E-05</v>
       </c>
       <c r="W317">
-        <v>0.9994453688297281</v>
+        <v>-0.0005546311702718798</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24020,7 +24020,7 @@
         <v>0.831778338563255</v>
       </c>
       <c r="K318">
-        <v>45.40824187361314</v>
+        <v>-0.04591758126386858</v>
       </c>
       <c r="L318">
         <v>0.002386168556215762</v>
@@ -24050,13 +24050,13 @@
         <v>-0.1781249999999943</v>
       </c>
       <c r="U318">
-        <v>0.9999722758735411</v>
+        <v>-2.772412645890565E-05</v>
       </c>
       <c r="V318">
-        <v>0.9999076673068398</v>
+        <v>-9.233269316022419E-05</v>
       </c>
       <c r="W318">
-        <v>0.9997225305216427</v>
+        <v>-0.0002774694783572729</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24091,7 +24091,7 @@
         <v>0.9841483943455709</v>
       </c>
       <c r="K319">
-        <v>49.60054384793992</v>
+        <v>-0.003994561520600737</v>
       </c>
       <c r="L319">
         <v>0.001124487015992003</v>
@@ -24121,13 +24121,13 @@
         <v>-0.1781249999999943</v>
       </c>
       <c r="U319">
-        <v>1.000009241631702</v>
+        <v>9.241631702350261E-06</v>
       </c>
       <c r="V319">
-        <v>0.999889190536872</v>
+        <v>-0.0001108094631280254</v>
       </c>
       <c r="W319">
-        <v>1.000832639467111</v>
+        <v>0.0008326394671107629</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24162,7 +24162,7 @@
         <v>1.03761157181303</v>
       </c>
       <c r="K320">
-        <v>50.92293281833798</v>
+        <v>0.009229328183379848</v>
       </c>
       <c r="L320">
         <v>0.0002204312144131908</v>
@@ -24192,13 +24192,13 @@
         <v>-0.1687500000000171</v>
       </c>
       <c r="U320">
-        <v>1.000009241546296</v>
+        <v>9.241546295779557E-06</v>
       </c>
       <c r="V320">
-        <v>0.9997229456419351</v>
+        <v>-0.0002770543580649099</v>
       </c>
       <c r="W320">
-        <v>1.000277315585136</v>
+        <v>0.0002773155851358844</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24233,7 +24233,7 @@
         <v>1.206442658552438</v>
       </c>
       <c r="K321">
-        <v>54.6781786454373</v>
+        <v>0.04678178645437303</v>
       </c>
       <c r="L321">
         <v>-0.0001073836150307038</v>
@@ -24263,13 +24263,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U321">
-        <v>1.00000924146089</v>
+        <v>9.241460890097031E-06</v>
       </c>
       <c r="V321">
-        <v>0.9999076229538484</v>
+        <v>-9.237704615161491E-05</v>
       </c>
       <c r="W321">
-        <v>1.000831716107569</v>
+        <v>0.000831716107568603</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24304,7 +24304,7 @@
         <v>1.138971170655372</v>
       </c>
       <c r="K322">
-        <v>53.24855174679123</v>
+        <v>0.03248551746791228</v>
       </c>
       <c r="L322">
         <v>-0.000165757096973901</v>
@@ -24334,13 +24334,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U322">
-        <v>1.000009241375486</v>
+        <v>9.241375486412906E-06</v>
       </c>
       <c r="V322">
-        <v>0.9999445686517248</v>
+        <v>-5.543134827523666E-05</v>
       </c>
       <c r="W322">
-        <v>0.9997229916897507</v>
+        <v>-0.0002770083102493492</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24375,7 +24375,7 @@
         <v>0.7743069572423976</v>
       </c>
       <c r="K323">
-        <v>43.63996624607809</v>
+        <v>-0.06360033753921912</v>
       </c>
       <c r="L323">
         <v>-0.0008640359735676821</v>
@@ -24405,13 +24405,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U323">
-        <v>0.9999445522594955</v>
+        <v>-5.544774050447732E-05</v>
       </c>
       <c r="V323">
-        <v>0.9997782623156808</v>
+        <v>-0.000221737684319212</v>
       </c>
       <c r="W323">
-        <v>0.9977833194790802</v>
+        <v>-0.002216680520919834</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24446,7 +24446,7 @@
         <v>0.8585621773568859</v>
       </c>
       <c r="K324">
-        <v>46.19496661542266</v>
+        <v>-0.03805033384577344</v>
       </c>
       <c r="L324">
         <v>-0.001700491859613595</v>
@@ -24476,13 +24476,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U324">
-        <v>0.9999815163949576</v>
+        <v>-1.848360504241864E-05</v>
       </c>
       <c r="V324">
-        <v>0.9998151776143127</v>
+        <v>-0.0001848223856872888</v>
       </c>
       <c r="W324">
-        <v>1.000555401277423</v>
+        <v>0.0005554012774229289</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24517,7 +24517,7 @@
         <v>0.9472518827405577</v>
       </c>
       <c r="K325">
-        <v>48.64557539456055</v>
+        <v>-0.01354424605439453</v>
       </c>
       <c r="L325">
         <v>-0.002359322784348919</v>
@@ -24547,13 +24547,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U325">
-        <v>1.000046209866731</v>
+        <v>4.620986673065097E-05</v>
       </c>
       <c r="V325">
-        <v>0.9998890860692102</v>
+        <v>-0.0001109139307897689</v>
       </c>
       <c r="W325">
-        <v>1.000555092978074</v>
+        <v>0.0005550929780737679</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24588,7 +24588,7 @@
         <v>0.9050072378485063</v>
       </c>
       <c r="K326">
-        <v>47.50676112236777</v>
+        <v>-0.02493238877632231</v>
       </c>
       <c r="L326">
         <v>-0.002960926617332399</v>
@@ -24618,13 +24618,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U326">
-        <v>1.000036966185182</v>
+        <v>3.696618518223005E-05</v>
       </c>
       <c r="V326">
-        <v>0.9999445368829727</v>
+        <v>-5.54631170273101E-05</v>
       </c>
       <c r="W326">
-        <v>0.9997226074895977</v>
+        <v>-0.0002773925104022634</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24659,7 +24659,7 @@
         <v>0.8273303963831867</v>
       </c>
       <c r="K327">
-        <v>45.27535896194316</v>
+        <v>-0.04724641038056837</v>
       </c>
       <c r="L327">
         <v>-0.003680649932098573</v>
@@ -24689,13 +24689,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U327">
-        <v>1.00002772361405</v>
+        <v>2.77236140502346E-05</v>
       </c>
       <c r="V327">
-        <v>0.9998890676132898</v>
+        <v>-0.0001109323867102274</v>
       </c>
       <c r="W327">
-        <v>0.9994450610432852</v>
+        <v>-0.0005549389567147678</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24730,7 +24730,7 @@
         <v>0.8725041214429382</v>
       </c>
       <c r="K328">
-        <v>46.59557815929359</v>
+        <v>-0.03404421840706406</v>
       </c>
       <c r="L328">
         <v>-0.00431177309951909</v>
@@ -24760,13 +24760,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U328">
-        <v>1.000027722845473</v>
+        <v>2.772284547303272E-05</v>
       </c>
       <c r="V328">
-        <v>0.9999260368706199</v>
+        <v>-7.396312938012795E-05</v>
       </c>
       <c r="W328">
-        <v>1.000277623542476</v>
+        <v>0.0002776235424764018</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24801,7 +24801,7 @@
         <v>0.796732779299454</v>
       </c>
       <c r="K329">
-        <v>44.34342092929923</v>
+        <v>-0.05656579070700762</v>
       </c>
       <c r="L329">
         <v>-0.005035236610203835</v>
@@ -24831,13 +24831,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U329">
-        <v>1.000009240692312</v>
+        <v>9.24069231245106E-06</v>
       </c>
       <c r="V329">
-        <v>0.9999075392495885</v>
+        <v>-9.246075041147161E-05</v>
       </c>
       <c r="W329">
-        <v>0.9994449070219262</v>
+        <v>-0.0005550929780737679</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24872,7 +24872,7 @@
         <v>0.933854150235005</v>
       </c>
       <c r="K330">
-        <v>48.2897921811488</v>
+        <v>-0.017102078188512</v>
       </c>
       <c r="L330">
         <v>-0.005447412249429805</v>
@@ -24902,13 +24902,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U330">
-        <v>1.000027721820769</v>
+        <v>2.772182076937746E-05</v>
       </c>
       <c r="V330">
-        <v>0.999926024559846</v>
+        <v>-7.397544015397273E-05</v>
       </c>
       <c r="W330">
-        <v>1.000833101916134</v>
+        <v>0.0008331019161342823</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24943,7 +24943,7 @@
         <v>1.030079673698586</v>
       </c>
       <c r="K331">
-        <v>50.74084958556784</v>
+        <v>0.007408495855678487</v>
       </c>
       <c r="L331">
         <v>-0.005422987500674274</v>
@@ -24973,13 +24973,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U331">
-        <v>1.000018480701527</v>
+        <v>1.848070152732362E-05</v>
       </c>
       <c r="V331">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W331">
-        <v>1.000554938956715</v>
+        <v>0.0005549389567149898</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25014,7 +25014,7 @@
         <v>1.030079673698586</v>
       </c>
       <c r="K332">
-        <v>50.74084958556784</v>
+        <v>0.007408495855678487</v>
       </c>
       <c r="L332">
         <v>-0.00511582818164342</v>
@@ -25044,13 +25044,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U332">
-        <v>0.9999907598200013</v>
+        <v>-9.240179998704079E-06</v>
       </c>
       <c r="V332">
-        <v>1.000036990456462</v>
+        <v>3.699045646210486E-05</v>
       </c>
       <c r="W332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25085,7 +25085,7 @@
         <v>0.8132939722793638</v>
       </c>
       <c r="K333">
-        <v>44.85174410286212</v>
+        <v>-0.05148255897137877</v>
       </c>
       <c r="L333">
         <v>-0.005143140831413798</v>
@@ -25115,13 +25115,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U333">
-        <v>0.9999353181423372</v>
+        <v>-6.468185766284051E-05</v>
       </c>
       <c r="V333">
-        <v>0.9999630109117811</v>
+        <v>-3.698908821891944E-05</v>
       </c>
       <c r="W333">
-        <v>0.9986134220743206</v>
+        <v>-0.001386577925679422</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25156,7 +25156,7 @@
         <v>0.8576003460492093</v>
       </c>
       <c r="K334">
-        <v>46.16710735832792</v>
+        <v>-0.03832892641672081</v>
       </c>
       <c r="L334">
         <v>-0.005251701044727113</v>
@@ -25186,13 +25186,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U334">
-        <v>0.999907591369034</v>
+        <v>-9.240863096604546E-05</v>
       </c>
       <c r="V334">
-        <v>0.9999260190870755</v>
+        <v>-7.398091292454279E-05</v>
       </c>
       <c r="W334">
-        <v>1.000277700638711</v>
+        <v>0.0002777006387113534</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25227,7 +25227,7 @@
         <v>0.8576003460492094</v>
       </c>
       <c r="K335">
-        <v>46.16710735832792</v>
+        <v>-0.03832892641672081</v>
       </c>
       <c r="L335">
         <v>-0.005383474680106986</v>
@@ -25257,13 +25257,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U335">
-        <v>0.9998151656577793</v>
+        <v>-0.0001848343422207188</v>
       </c>
       <c r="V335">
-        <v>0.9999075170168691</v>
+        <v>-9.248298313091485E-05</v>
       </c>
       <c r="W335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25298,7 +25298,7 @@
         <v>0.8576003460492095</v>
       </c>
       <c r="K336">
-        <v>46.16710735832792</v>
+        <v>-0.03832892641672081</v>
       </c>
       <c r="L336">
         <v>-0.005501339202948465</v>
@@ -25328,13 +25328,13 @@
         <v>-0.04062500000003411</v>
       </c>
       <c r="U336">
-        <v>0.9998798354670242</v>
+        <v>-0.0001201645329758083</v>
       </c>
       <c r="V336">
-        <v>0.999852013540761</v>
+        <v>-0.000147986459238969</v>
       </c>
       <c r="W336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25369,7 +25369,7 @@
         <v>0.9092771196545408</v>
       </c>
       <c r="K337">
-        <v>47.62415629948275</v>
+        <v>-0.02375843700517249</v>
       </c>
       <c r="L337">
         <v>-0.005482265677783476</v>
@@ -25399,13 +25399,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U337">
-        <v>0.9999167991716893</v>
+        <v>-8.32008283107033E-05</v>
       </c>
       <c r="V337">
-        <v>0.9998889937281458</v>
+        <v>-0.0001110062718542304</v>
       </c>
       <c r="W337">
-        <v>1.000277623542476</v>
+        <v>0.0002776235424764018</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25440,7 +25440,7 @@
         <v>0.862367268997058</v>
       </c>
       <c r="K338">
-        <v>46.30489825250576</v>
+        <v>-0.03695101747494239</v>
       </c>
       <c r="L338">
         <v>-0.005462480253620034</v>
@@ -25470,13 +25470,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U338">
-        <v>0.9998983016373438</v>
+        <v>-0.0001016983626561663</v>
       </c>
       <c r="V338">
-        <v>1.000018503099269</v>
+        <v>1.850309926898497E-05</v>
       </c>
       <c r="W338">
-        <v>0.999722453510963</v>
+        <v>-0.000277546489036995</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25511,7 +25511,7 @@
         <v>0.9166728146865082</v>
       </c>
       <c r="K339">
-        <v>47.82625431229062</v>
+        <v>-0.02173745687709377</v>
       </c>
       <c r="L339">
         <v>-0.005322647698985203</v>
@@ -25541,13 +25541,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U339">
-        <v>0.9999075375397586</v>
+        <v>-9.246246024141591E-05</v>
       </c>
       <c r="V339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W339">
-        <v>1.000277623542476</v>
+        <v>0.0002776235424764018</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25582,7 +25582,7 @@
         <v>0.9166728146865081</v>
       </c>
       <c r="K340">
-        <v>47.82625431229062</v>
+        <v>-0.02173745687709377</v>
       </c>
       <c r="L340">
         <v>-0.005099610553600215</v>
@@ -25612,13 +25612,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U340">
-        <v>0.9999260231917296</v>
+        <v>-7.397680827037068E-05</v>
       </c>
       <c r="V340">
-        <v>0.9999629944861783</v>
+        <v>-3.700551382168626E-05</v>
       </c>
       <c r="W340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25653,7 +25653,7 @@
         <v>0.916672814686508</v>
       </c>
       <c r="K341">
-        <v>47.82625431229062</v>
+        <v>-0.02173745687709383</v>
       </c>
       <c r="L341">
         <v>-0.004821803469463232</v>
@@ -25683,13 +25683,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U341">
-        <v>0.9999630088593781</v>
+        <v>-3.699114062194475E-05</v>
       </c>
       <c r="V341">
-        <v>0.99998149655836</v>
+        <v>-1.850344164000539E-05</v>
       </c>
       <c r="W341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25724,7 +25724,7 @@
         <v>0.9166728146865081</v>
       </c>
       <c r="K342">
-        <v>47.82625431229062</v>
+        <v>-0.02173745687709377</v>
       </c>
       <c r="L342">
         <v>-0.004510955317247265</v>
@@ -25754,13 +25754,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U342">
-        <v>0.9999537593637289</v>
+        <v>-4.624063627112207E-05</v>
       </c>
       <c r="V342">
-        <v>1.000018503784024</v>
+        <v>1.85037840239044E-05</v>
       </c>
       <c r="W342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25795,7 +25795,7 @@
         <v>0.9833457784475834</v>
       </c>
       <c r="K343">
-        <v>49.5801483096545</v>
+        <v>-0.004198516903455018</v>
       </c>
       <c r="L343">
         <v>-0.004082445585689991</v>
@@ -25825,13 +25825,13 @@
         <v>-0.006249999999965894</v>
       </c>
       <c r="U343">
-        <v>0.9999722543352602</v>
+        <v>-2.774566473984219E-05</v>
       </c>
       <c r="V343">
-        <v>1.00001850344164</v>
+        <v>1.850344164022744E-05</v>
       </c>
       <c r="W343">
-        <v>1.000277546489037</v>
+        <v>0.0002775464890367729</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25866,7 +25866,7 @@
         <v>0.862308581029</v>
       </c>
       <c r="K344">
-        <v>46.30320612884359</v>
+        <v>-0.03696793871156406</v>
       </c>
       <c r="L344">
         <v>-0.003797129800499025</v>
@@ -25896,13 +25896,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U344">
-        <v>0.999963004753889</v>
+        <v>-3.699524611100458E-05</v>
       </c>
       <c r="V344">
-        <v>1.000018503099269</v>
+        <v>1.850309926920701E-05</v>
       </c>
       <c r="W344">
-        <v>0.9994450610432852</v>
+        <v>-0.0005549389567147678</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -25937,7 +25937,7 @@
         <v>1.056656661362308</v>
       </c>
       <c r="K345">
-        <v>51.37739717150404</v>
+        <v>0.01377397171504047</v>
       </c>
       <c r="L345">
         <v>-0.003299841095134528</v>
@@ -25967,13 +25967,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U345">
-        <v>0.9999722525388928</v>
+        <v>-2.774746110723036E-05</v>
       </c>
       <c r="V345">
-        <v>1.000018502756911</v>
+        <v>1.850275691084313E-05</v>
       </c>
       <c r="W345">
-        <v>1.000832870627429</v>
+        <v>0.0008328706274292053</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26008,7 +26008,7 @@
         <v>1.329425896917802</v>
       </c>
       <c r="K346">
-        <v>57.07096751507924</v>
+        <v>0.07070967515079241</v>
       </c>
       <c r="L346">
         <v>-0.002289644945060662</v>
@@ -26038,13 +26038,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U346">
-        <v>1.00002774823105</v>
+        <v>2.774823105022861E-05</v>
       </c>
       <c r="V346">
-        <v>1.000055507243695</v>
+        <v>5.550724369518534E-05</v>
       </c>
       <c r="W346">
-        <v>1.001109570041609</v>
+        <v>0.001109570041608832</v>
       </c>
     </row>
   </sheetData>
